--- a/BackTest/2019-11-01 BackTest ITC.xlsx
+++ b/BackTest/2019-11-01 BackTest ITC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>12</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L12" t="n">
         <v>161.4</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>15</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L13" t="n">
         <v>161.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>16</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>161</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>17</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L15" t="n">
         <v>160.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>18</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L16" t="n">
         <v>160.9</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>19</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L17" t="n">
         <v>160.9</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>20</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>160.9</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>20</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L19" t="n">
         <v>160.9</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>21</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>161.1</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>23</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L21" t="n">
         <v>160.9</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>23</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>160.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>24</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>160.7</v>
@@ -1466,7 +1488,7 @@
         <v>25</v>
       </c>
       <c r="K24" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>160.6</v>
@@ -1564,7 +1586,7 @@
         <v>26</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L26" t="n">
         <v>160.7</v>
@@ -1613,7 +1635,7 @@
         <v>26</v>
       </c>
       <c r="K27" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>160.8</v>
@@ -1711,7 +1733,7 @@
         <v>26</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L29" t="n">
         <v>160.8</v>
@@ -1760,7 +1782,7 @@
         <v>26</v>
       </c>
       <c r="K30" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L30" t="n">
         <v>160.7</v>
@@ -1809,7 +1831,7 @@
         <v>28</v>
       </c>
       <c r="K31" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L31" t="n">
         <v>160.6</v>
@@ -1860,7 +1882,7 @@
         <v>29</v>
       </c>
       <c r="K32" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L32" t="n">
         <v>160.6</v>
@@ -1962,7 +1984,7 @@
         <v>29</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>160.5</v>
@@ -2013,7 +2035,7 @@
         <v>30</v>
       </c>
       <c r="K35" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L35" t="n">
         <v>160.3</v>
@@ -2064,7 +2086,7 @@
         <v>30</v>
       </c>
       <c r="K36" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L36" t="n">
         <v>160.1</v>
@@ -2115,7 +2137,7 @@
         <v>30</v>
       </c>
       <c r="K37" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L37" t="n">
         <v>159.9</v>
@@ -2166,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="K38" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L38" t="n">
         <v>159.7</v>
@@ -2217,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="K39" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L39" t="n">
         <v>159.5</v>
@@ -2268,7 +2290,7 @@
         <v>31</v>
       </c>
       <c r="K40" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>159.2</v>
@@ -2319,7 +2341,7 @@
         <v>31</v>
       </c>
       <c r="K41" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L41" t="n">
         <v>159.1</v>
@@ -2370,7 +2392,7 @@
         <v>32</v>
       </c>
       <c r="K42" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>159</v>
@@ -2421,7 +2443,7 @@
         <v>32</v>
       </c>
       <c r="K43" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>158.9</v>
@@ -2472,7 +2494,7 @@
         <v>35</v>
       </c>
       <c r="K44" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="L44" t="n">
         <v>158.5</v>
@@ -2523,7 +2545,7 @@
         <v>38</v>
       </c>
       <c r="K45" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>158.5</v>
@@ -2574,7 +2596,7 @@
         <v>38</v>
       </c>
       <c r="K46" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>158.5</v>
@@ -2625,7 +2647,7 @@
         <v>38</v>
       </c>
       <c r="K47" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>158.5</v>
@@ -2676,7 +2698,7 @@
         <v>39</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L48" t="n">
         <v>158.6</v>
@@ -2727,7 +2749,7 @@
         <v>39</v>
       </c>
       <c r="K49" t="n">
-        <v>-7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L49" t="n">
         <v>158.7</v>
@@ -2778,7 +2800,7 @@
         <v>39</v>
       </c>
       <c r="K50" t="n">
-        <v>-7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L50" t="n">
         <v>158.9</v>
@@ -2829,7 +2851,7 @@
         <v>42</v>
       </c>
       <c r="K51" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L51" t="n">
         <v>158.8</v>
@@ -2880,7 +2902,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L52" t="n">
         <v>159</v>
@@ -2931,7 +2953,7 @@
         <v>48</v>
       </c>
       <c r="K53" t="n">
-        <v>-5.263157894736842</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L53" t="n">
         <v>159</v>
@@ -2982,7 +3004,7 @@
         <v>49</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L54" t="n">
         <v>159.4</v>
@@ -3135,7 +3157,7 @@
         <v>51</v>
       </c>
       <c r="K57" t="n">
-        <v>-4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L57" t="n">
         <v>159.3</v>
@@ -3186,7 +3208,7 @@
         <v>51</v>
       </c>
       <c r="K58" t="n">
-        <v>-4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L58" t="n">
         <v>159.1</v>
@@ -3237,7 +3259,7 @@
         <v>51</v>
       </c>
       <c r="K59" t="n">
-        <v>-4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L59" t="n">
         <v>158.9</v>
@@ -3288,7 +3310,7 @@
         <v>51</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L60" t="n">
         <v>158.7</v>
@@ -3339,7 +3361,7 @@
         <v>51</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L61" t="n">
         <v>158.8</v>
@@ -3390,7 +3412,7 @@
         <v>52</v>
       </c>
       <c r="K62" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="L62" t="n">
         <v>158.4</v>
@@ -3441,7 +3463,7 @@
         <v>52</v>
       </c>
       <c r="K63" t="n">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="L63" t="n">
         <v>158.2</v>
@@ -3492,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="K64" t="n">
-        <v>5.88235294117647</v>
+        <v>-100</v>
       </c>
       <c r="L64" t="n">
         <v>157.9</v>
@@ -3543,7 +3565,7 @@
         <v>52</v>
       </c>
       <c r="K65" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L65" t="n">
         <v>157.7</v>
@@ -3594,7 +3616,7 @@
         <v>54</v>
       </c>
       <c r="K66" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L66" t="n">
         <v>157.3</v>
@@ -3645,7 +3667,7 @@
         <v>55</v>
       </c>
       <c r="K67" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L67" t="n">
         <v>157.1</v>
@@ -3696,7 +3718,7 @@
         <v>57</v>
       </c>
       <c r="K68" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L68" t="n">
         <v>156.7</v>
@@ -3747,7 +3769,7 @@
         <v>58</v>
       </c>
       <c r="K69" t="n">
-        <v>-26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L69" t="n">
         <v>156.4</v>
@@ -3798,7 +3820,7 @@
         <v>59</v>
       </c>
       <c r="K70" t="n">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="L70" t="n">
         <v>156</v>
@@ -3849,7 +3871,7 @@
         <v>59</v>
       </c>
       <c r="K71" t="n">
-        <v>-17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L71" t="n">
         <v>155.6</v>
@@ -3900,7 +3922,7 @@
         <v>59</v>
       </c>
       <c r="K72" t="n">
-        <v>-53.84615384615385</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L72" t="n">
         <v>155.3</v>
@@ -3951,7 +3973,7 @@
         <v>60</v>
       </c>
       <c r="K73" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L73" t="n">
         <v>155.1</v>
@@ -4002,7 +4024,7 @@
         <v>60</v>
       </c>
       <c r="K74" t="n">
-        <v>-45.45454545454545</v>
+        <v>-25</v>
       </c>
       <c r="L74" t="n">
         <v>154.9</v>
@@ -4053,7 +4075,7 @@
         <v>61</v>
       </c>
       <c r="K75" t="n">
-        <v>-27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L75" t="n">
         <v>154.8</v>
@@ -4104,7 +4126,7 @@
         <v>64</v>
       </c>
       <c r="K76" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>154.6</v>
@@ -4155,7 +4177,7 @@
         <v>66</v>
       </c>
       <c r="K77" t="n">
-        <v>-20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L77" t="n">
         <v>154.5</v>
@@ -4206,7 +4228,7 @@
         <v>66</v>
       </c>
       <c r="K78" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>154.6</v>
@@ -4257,7 +4279,7 @@
         <v>67</v>
       </c>
       <c r="K79" t="n">
-        <v>-12.5</v>
+        <v>25</v>
       </c>
       <c r="L79" t="n">
         <v>154.7</v>
@@ -4308,7 +4330,7 @@
         <v>67</v>
       </c>
       <c r="K80" t="n">
-        <v>-12.5</v>
+        <v>25</v>
       </c>
       <c r="L80" t="n">
         <v>154.9</v>
@@ -4359,7 +4381,7 @@
         <v>68</v>
       </c>
       <c r="K81" t="n">
-        <v>-17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L81" t="n">
         <v>155</v>
@@ -4410,7 +4432,7 @@
         <v>69</v>
       </c>
       <c r="K82" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L82" t="n">
         <v>155</v>
@@ -4461,7 +4483,7 @@
         <v>70</v>
       </c>
       <c r="K83" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>155</v>
@@ -4563,7 +4585,7 @@
         <v>70</v>
       </c>
       <c r="K85" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L85" t="n">
         <v>154.9</v>
@@ -4665,7 +4687,7 @@
         <v>71</v>
       </c>
       <c r="K87" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>155</v>
@@ -4716,7 +4738,7 @@
         <v>71</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L88" t="n">
         <v>154.9</v>
@@ -4767,7 +4789,7 @@
         <v>71</v>
       </c>
       <c r="K89" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L89" t="n">
         <v>154.7</v>
@@ -4818,7 +4840,7 @@
         <v>71</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>154.5</v>
@@ -4869,7 +4891,7 @@
         <v>73</v>
       </c>
       <c r="K91" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L91" t="n">
         <v>154.6</v>
@@ -4920,7 +4942,7 @@
         <v>74</v>
       </c>
       <c r="K92" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>154.7</v>
@@ -5022,7 +5044,7 @@
         <v>75</v>
       </c>
       <c r="K94" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L94" t="n">
         <v>154.6</v>
@@ -5073,7 +5095,7 @@
         <v>76</v>
       </c>
       <c r="K95" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>154.6</v>
@@ -5124,7 +5146,7 @@
         <v>78</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L96" t="n">
         <v>154.4</v>
@@ -5175,7 +5197,7 @@
         <v>78</v>
       </c>
       <c r="K97" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>154.3</v>
@@ -5226,7 +5248,7 @@
         <v>78</v>
       </c>
       <c r="K98" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L98" t="n">
         <v>154.2</v>
@@ -5277,7 +5299,7 @@
         <v>78</v>
       </c>
       <c r="K99" t="n">
-        <v>-27.27272727272727</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L99" t="n">
         <v>154.1</v>
@@ -5328,7 +5350,7 @@
         <v>79</v>
       </c>
       <c r="K100" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L100" t="n">
         <v>153.9</v>
@@ -5379,7 +5401,7 @@
         <v>79</v>
       </c>
       <c r="K101" t="n">
-        <v>-27.27272727272727</v>
+        <v>-60</v>
       </c>
       <c r="L101" t="n">
         <v>153.5</v>
@@ -5430,7 +5452,7 @@
         <v>79</v>
       </c>
       <c r="K102" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L102" t="n">
         <v>153.2</v>
@@ -5481,7 +5503,7 @@
         <v>79</v>
       </c>
       <c r="K103" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L103" t="n">
         <v>152.9</v>
@@ -5532,7 +5554,7 @@
         <v>79</v>
       </c>
       <c r="K104" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L104" t="n">
         <v>152.7</v>
@@ -5583,7 +5605,7 @@
         <v>79</v>
       </c>
       <c r="K105" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L105" t="n">
         <v>152.4</v>
@@ -5634,7 +5656,7 @@
         <v>79</v>
       </c>
       <c r="K106" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L106" t="n">
         <v>152.3</v>
@@ -5685,7 +5707,7 @@
         <v>79</v>
       </c>
       <c r="K107" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L107" t="n">
         <v>152.2</v>
@@ -5736,7 +5758,7 @@
         <v>79</v>
       </c>
       <c r="K108" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L108" t="n">
         <v>152.1</v>
@@ -5786,9 +5808,7 @@
       <c r="J109" t="n">
         <v>79</v>
       </c>
-      <c r="K109" t="n">
-        <v>-25</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>152</v>
       </c>
@@ -5837,9 +5857,7 @@
       <c r="J110" t="n">
         <v>79</v>
       </c>
-      <c r="K110" t="n">
-        <v>-25</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>152</v>
       </c>
@@ -5889,7 +5907,7 @@
         <v>80</v>
       </c>
       <c r="K111" t="n">
-        <v>-42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L111" t="n">
         <v>152.1</v>
@@ -5940,7 +5958,7 @@
         <v>80</v>
       </c>
       <c r="K112" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L112" t="n">
         <v>152.2</v>
@@ -5991,7 +6009,7 @@
         <v>81</v>
       </c>
       <c r="K113" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L113" t="n">
         <v>152.4</v>
@@ -6042,7 +6060,7 @@
         <v>82</v>
       </c>
       <c r="K114" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L114" t="n">
         <v>152.7</v>
@@ -6093,7 +6111,7 @@
         <v>83</v>
       </c>
       <c r="K115" t="n">
-        <v>-14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L115" t="n">
         <v>152.9</v>
@@ -6144,7 +6162,7 @@
         <v>83</v>
       </c>
       <c r="K116" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L116" t="n">
         <v>153.1</v>
@@ -6195,7 +6213,7 @@
         <v>84</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>153.2</v>
@@ -6246,7 +6264,7 @@
         <v>84</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
         <v>153.3</v>
@@ -6297,7 +6315,7 @@
         <v>87</v>
       </c>
       <c r="K119" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L119" t="n">
         <v>153.7</v>
@@ -6348,7 +6366,7 @@
         <v>87</v>
       </c>
       <c r="K120" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L120" t="n">
         <v>154.1</v>
@@ -6399,7 +6417,7 @@
         <v>87</v>
       </c>
       <c r="K121" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L121" t="n">
         <v>154.4</v>
@@ -6450,7 +6468,7 @@
         <v>87</v>
       </c>
       <c r="K122" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>154.7</v>
@@ -6501,7 +6519,7 @@
         <v>88</v>
       </c>
       <c r="K123" t="n">
-        <v>55.55555555555556</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>155</v>
@@ -6552,7 +6570,7 @@
         <v>90</v>
       </c>
       <c r="K124" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L124" t="n">
         <v>155</v>
@@ -6603,7 +6621,7 @@
         <v>90</v>
       </c>
       <c r="K125" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L125" t="n">
         <v>155.1</v>
@@ -6654,7 +6672,7 @@
         <v>91</v>
       </c>
       <c r="K126" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L126" t="n">
         <v>155.3</v>
@@ -6705,7 +6723,7 @@
         <v>91</v>
       </c>
       <c r="K127" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L127" t="n">
         <v>155.6</v>
@@ -6756,7 +6774,7 @@
         <v>92</v>
       </c>
       <c r="K128" t="n">
-        <v>23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L128" t="n">
         <v>155.8</v>
@@ -6807,7 +6825,7 @@
         <v>93</v>
       </c>
       <c r="K129" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>155.8</v>
@@ -6858,7 +6876,7 @@
         <v>94</v>
       </c>
       <c r="K130" t="n">
-        <v>20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L130" t="n">
         <v>155.7</v>
@@ -6909,7 +6927,7 @@
         <v>95</v>
       </c>
       <c r="K131" t="n">
-        <v>6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L131" t="n">
         <v>155.5</v>
@@ -6960,7 +6978,7 @@
         <v>95</v>
       </c>
       <c r="K132" t="n">
-        <v>6.666666666666667</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L132" t="n">
         <v>155.3</v>
@@ -7011,7 +7029,7 @@
         <v>95</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L133" t="n">
         <v>155</v>
@@ -7062,7 +7080,7 @@
         <v>95</v>
       </c>
       <c r="K134" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L134" t="n">
         <v>154.9</v>
@@ -7113,7 +7131,7 @@
         <v>95</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L135" t="n">
         <v>154.8</v>
@@ -7164,7 +7182,7 @@
         <v>98</v>
       </c>
       <c r="K136" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L136" t="n">
         <v>154.9</v>
@@ -7215,7 +7233,7 @@
         <v>99</v>
       </c>
       <c r="K137" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L137" t="n">
         <v>155.1</v>
@@ -7266,7 +7284,7 @@
         <v>101</v>
       </c>
       <c r="K138" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>155.2</v>
@@ -7317,7 +7335,7 @@
         <v>101</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L139" t="n">
         <v>155.2</v>
@@ -7368,7 +7386,7 @@
         <v>102</v>
       </c>
       <c r="K140" t="n">
-        <v>6.666666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L140" t="n">
         <v>155.4</v>
@@ -7419,7 +7437,7 @@
         <v>102</v>
       </c>
       <c r="K141" t="n">
-        <v>6.666666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L141" t="n">
         <v>155.7</v>
@@ -7470,7 +7488,7 @@
         <v>103</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L142" t="n">
         <v>155.9</v>
@@ -7521,7 +7539,7 @@
         <v>103</v>
       </c>
       <c r="K143" t="n">
-        <v>-6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L143" t="n">
         <v>156.1</v>
@@ -7572,7 +7590,7 @@
         <v>104</v>
       </c>
       <c r="K144" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>156.4</v>
@@ -7623,7 +7641,7 @@
         <v>105</v>
       </c>
       <c r="K145" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L145" t="n">
         <v>156.6</v>
@@ -7674,7 +7692,7 @@
         <v>106</v>
       </c>
       <c r="K146" t="n">
-        <v>-6.666666666666667</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L146" t="n">
         <v>156.4</v>
@@ -7776,7 +7794,7 @@
         <v>107</v>
       </c>
       <c r="K148" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>156.2</v>
@@ -7827,7 +7845,7 @@
         <v>107</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L149" t="n">
         <v>156.2</v>
@@ -7878,7 +7896,7 @@
         <v>108</v>
       </c>
       <c r="K150" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>156.2</v>
@@ -7929,7 +7947,7 @@
         <v>109</v>
       </c>
       <c r="K151" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>156.1</v>
@@ -7980,7 +7998,7 @@
         <v>109</v>
       </c>
       <c r="K152" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>156.1</v>
@@ -8031,7 +8049,7 @@
         <v>109</v>
       </c>
       <c r="K153" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L153" t="n">
         <v>156.1</v>
@@ -8082,7 +8100,7 @@
         <v>109</v>
       </c>
       <c r="K154" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>156</v>
@@ -8133,7 +8151,7 @@
         <v>109</v>
       </c>
       <c r="K155" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>156</v>
@@ -8184,7 +8202,7 @@
         <v>110</v>
       </c>
       <c r="K156" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>156</v>
@@ -8235,7 +8253,7 @@
         <v>110</v>
       </c>
       <c r="K157" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>155.9</v>
@@ -8286,7 +8304,7 @@
         <v>110</v>
       </c>
       <c r="K158" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>155.8</v>
@@ -8337,7 +8355,7 @@
         <v>111</v>
       </c>
       <c r="K159" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L159" t="n">
         <v>155.6</v>
@@ -8388,7 +8406,7 @@
         <v>111</v>
       </c>
       <c r="K160" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L160" t="n">
         <v>155.3</v>
@@ -8439,7 +8457,7 @@
         <v>112</v>
       </c>
       <c r="K161" t="n">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="L161" t="n">
         <v>155</v>
@@ -8490,7 +8508,7 @@
         <v>114</v>
       </c>
       <c r="K162" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L162" t="n">
         <v>154.9</v>
@@ -8541,7 +8559,7 @@
         <v>114</v>
       </c>
       <c r="K163" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L163" t="n">
         <v>154.8</v>
@@ -8592,7 +8610,7 @@
         <v>115</v>
       </c>
       <c r="K164" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>154.8</v>
@@ -8643,7 +8661,7 @@
         <v>118</v>
       </c>
       <c r="K165" t="n">
-        <v>-23.07692307692308</v>
+        <v>-25</v>
       </c>
       <c r="L165" t="n">
         <v>154.5</v>
@@ -8694,7 +8712,7 @@
         <v>118</v>
       </c>
       <c r="K166" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L166" t="n">
         <v>154.3</v>
@@ -8745,7 +8763,7 @@
         <v>121</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L167" t="n">
         <v>154.4</v>
@@ -8796,7 +8814,7 @@
         <v>122</v>
       </c>
       <c r="K168" t="n">
-        <v>-6.666666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L168" t="n">
         <v>154.4</v>
@@ -8847,7 +8865,7 @@
         <v>122</v>
       </c>
       <c r="K169" t="n">
-        <v>-6.666666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L169" t="n">
         <v>154.5</v>
@@ -8898,7 +8916,7 @@
         <v>125</v>
       </c>
       <c r="K170" t="n">
-        <v>5.88235294117647</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L170" t="n">
         <v>154.9</v>
@@ -8949,7 +8967,7 @@
         <v>128</v>
       </c>
       <c r="K171" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>155.1</v>
@@ -9000,7 +9018,7 @@
         <v>130</v>
       </c>
       <c r="K172" t="n">
-        <v>-14.28571428571428</v>
+        <v>-12.5</v>
       </c>
       <c r="L172" t="n">
         <v>154.9</v>
@@ -9102,7 +9120,7 @@
         <v>134</v>
       </c>
       <c r="K174" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L174" t="n">
         <v>155.1</v>
@@ -9153,7 +9171,7 @@
         <v>138</v>
       </c>
       <c r="K175" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>155.1</v>
@@ -9204,7 +9222,7 @@
         <v>142</v>
       </c>
       <c r="K176" t="n">
-        <v>6.25</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L176" t="n">
         <v>155.5</v>
@@ -9255,7 +9273,7 @@
         <v>144</v>
       </c>
       <c r="K177" t="n">
-        <v>11.76470588235294</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L177" t="n">
         <v>155.8</v>
@@ -9306,7 +9324,7 @@
         <v>144</v>
       </c>
       <c r="K178" t="n">
-        <v>11.76470588235294</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L178" t="n">
         <v>156.2</v>
@@ -9357,7 +9375,7 @@
         <v>144</v>
       </c>
       <c r="K179" t="n">
-        <v>15.15151515151515</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L179" t="n">
         <v>156.6</v>
@@ -9408,7 +9426,7 @@
         <v>144</v>
       </c>
       <c r="K180" t="n">
-        <v>15.15151515151515</v>
+        <v>25</v>
       </c>
       <c r="L180" t="n">
         <v>156.7</v>
@@ -9459,7 +9477,7 @@
         <v>145</v>
       </c>
       <c r="K181" t="n">
-        <v>15.15151515151515</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>157</v>
@@ -9510,7 +9528,7 @@
         <v>145</v>
       </c>
       <c r="K182" t="n">
-        <v>9.67741935483871</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L182" t="n">
         <v>157.5</v>
@@ -9561,7 +9579,7 @@
         <v>145</v>
       </c>
       <c r="K183" t="n">
-        <v>9.67741935483871</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L183" t="n">
         <v>157.7</v>
@@ -9612,7 +9630,7 @@
         <v>146</v>
       </c>
       <c r="K184" t="n">
-        <v>9.67741935483871</v>
+        <v>75</v>
       </c>
       <c r="L184" t="n">
         <v>157.9</v>
@@ -9663,7 +9681,7 @@
         <v>147</v>
       </c>
       <c r="K185" t="n">
-        <v>17.24137931034483</v>
+        <v>20</v>
       </c>
       <c r="L185" t="n">
         <v>158.4</v>
@@ -9714,7 +9732,7 @@
         <v>147</v>
       </c>
       <c r="K186" t="n">
-        <v>17.24137931034483</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>158.5</v>
@@ -9765,7 +9783,7 @@
         <v>148</v>
       </c>
       <c r="K187" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>158.5</v>
@@ -9816,7 +9834,7 @@
         <v>148</v>
       </c>
       <c r="K188" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
         <v>158.5</v>
@@ -9867,7 +9885,7 @@
         <v>148</v>
       </c>
       <c r="K189" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>158.5</v>
@@ -9918,7 +9936,7 @@
         <v>149</v>
       </c>
       <c r="K190" t="n">
-        <v>8.333333333333332</v>
+        <v>50</v>
       </c>
       <c r="L190" t="n">
         <v>158.6</v>
@@ -9969,7 +9987,7 @@
         <v>150</v>
       </c>
       <c r="K191" t="n">
-        <v>27.27272727272727</v>
+        <v>60</v>
       </c>
       <c r="L191" t="n">
         <v>158.9</v>
@@ -10020,7 +10038,7 @@
         <v>150</v>
       </c>
       <c r="K192" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L192" t="n">
         <v>159.2</v>
@@ -10071,7 +10089,7 @@
         <v>151</v>
       </c>
       <c r="K193" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L193" t="n">
         <v>159.6</v>
@@ -10122,7 +10140,7 @@
         <v>152</v>
       </c>
       <c r="K194" t="n">
-        <v>22.22222222222222</v>
+        <v>60</v>
       </c>
       <c r="L194" t="n">
         <v>159.8</v>
@@ -10173,7 +10191,7 @@
         <v>154</v>
       </c>
       <c r="K195" t="n">
-        <v>37.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L195" t="n">
         <v>159.9</v>
@@ -10224,7 +10242,7 @@
         <v>156</v>
       </c>
       <c r="K196" t="n">
-        <v>28.57142857142857</v>
+        <v>25</v>
       </c>
       <c r="L196" t="n">
         <v>160.2</v>
@@ -10326,7 +10344,7 @@
         <v>159</v>
       </c>
       <c r="K198" t="n">
-        <v>-6.666666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L198" t="n">
         <v>160.1</v>
@@ -10377,7 +10395,7 @@
         <v>160</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L199" t="n">
         <v>160.1</v>
@@ -10428,7 +10446,7 @@
         <v>161</v>
       </c>
       <c r="K200" t="n">
-        <v>5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L200" t="n">
         <v>160.1</v>
@@ -10479,7 +10497,7 @@
         <v>163</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L201" t="n">
         <v>159.8</v>
@@ -10530,7 +10548,7 @@
         <v>165</v>
       </c>
       <c r="K202" t="n">
-        <v>10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L202" t="n">
         <v>159.7</v>
@@ -10581,7 +10599,7 @@
         <v>165</v>
       </c>
       <c r="K203" t="n">
-        <v>10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L203" t="n">
         <v>159.5</v>
@@ -10632,7 +10650,7 @@
         <v>165</v>
       </c>
       <c r="K204" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L204" t="n">
         <v>159.4</v>
@@ -10683,7 +10701,7 @@
         <v>168</v>
       </c>
       <c r="K205" t="n">
-        <v>23.80952380952381</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L205" t="n">
         <v>159.8</v>
@@ -10734,7 +10752,7 @@
         <v>171</v>
       </c>
       <c r="K206" t="n">
-        <v>8.333333333333332</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L206" t="n">
         <v>159.7</v>
@@ -10785,7 +10803,7 @@
         <v>172</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L207" t="n">
         <v>159.7</v>
@@ -10836,7 +10854,7 @@
         <v>173</v>
       </c>
       <c r="K208" t="n">
-        <v>4</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L208" t="n">
         <v>159.9</v>
@@ -10887,7 +10905,7 @@
         <v>173</v>
       </c>
       <c r="K209" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>160</v>
@@ -10938,7 +10956,7 @@
         <v>174</v>
       </c>
       <c r="K210" t="n">
-        <v>-4</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L210" t="n">
         <v>159.9</v>
@@ -10989,7 +11007,7 @@
         <v>174</v>
       </c>
       <c r="K211" t="n">
-        <v>-8.333333333333332</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L211" t="n">
         <v>160</v>
@@ -11040,7 +11058,7 @@
         <v>174</v>
       </c>
       <c r="K212" t="n">
-        <v>-8.333333333333332</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L212" t="n">
         <v>159.9</v>
@@ -11091,7 +11109,7 @@
         <v>175</v>
       </c>
       <c r="K213" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L213" t="n">
         <v>159.7</v>
@@ -11142,7 +11160,7 @@
         <v>175</v>
       </c>
       <c r="K214" t="n">
-        <v>-13.04347826086956</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L214" t="n">
         <v>159.5</v>
@@ -11193,7 +11211,7 @@
         <v>176</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L215" t="n">
         <v>159.1</v>
@@ -11244,7 +11262,7 @@
         <v>177</v>
       </c>
       <c r="K216" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L216" t="n">
         <v>158.9</v>
@@ -11295,7 +11313,7 @@
         <v>179</v>
       </c>
       <c r="K217" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>159</v>
@@ -11346,7 +11364,7 @@
         <v>181</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L218" t="n">
         <v>158.8</v>
@@ -11448,7 +11466,7 @@
         <v>182</v>
       </c>
       <c r="K220" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>158.7</v>
@@ -11499,7 +11517,7 @@
         <v>182</v>
       </c>
       <c r="K221" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>158.7</v>
@@ -11550,7 +11568,7 @@
         <v>183</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L222" t="n">
         <v>158.8</v>
@@ -11601,7 +11619,7 @@
         <v>183</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L223" t="n">
         <v>159</v>
@@ -11652,7 +11670,7 @@
         <v>183</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L224" t="n">
         <v>159.2</v>
@@ -11703,7 +11721,7 @@
         <v>183</v>
       </c>
       <c r="K225" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L225" t="n">
         <v>159.3</v>

--- a/BackTest/2019-11-01 BackTest ITC.xlsx
+++ b/BackTest/2019-11-01 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S226"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>161.6</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>12</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L12" t="n">
-        <v>161.4</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>15</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L13" t="n">
-        <v>161.2</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>16</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>161</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>17</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L15" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>18</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L16" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>19</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L17" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>20</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>20</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L19" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>21</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>161.1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>23</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L21" t="n">
-        <v>160.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>161.25</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>23</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>160.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>161</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>24</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>160.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>160.95</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>25</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>160.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>160.8</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>26</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>160.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>160.8</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>26</v>
-      </c>
-      <c r="K26" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L26" t="n">
-        <v>160.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>160.8</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>26</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>160.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>160.85</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>26</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>160.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>160.85</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>26</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L29" t="n">
-        <v>160.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>160.85</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>26</v>
-      </c>
-      <c r="K30" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L30" t="n">
-        <v>160.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>28</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L31" t="n">
-        <v>160.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>160.75</v>
-      </c>
-      <c r="N31" t="n">
-        <v>161.0333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>29</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L32" t="n">
-        <v>160.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>160.6</v>
-      </c>
-      <c r="N32" t="n">
-        <v>160.8666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>29</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>160.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>160.6</v>
-      </c>
-      <c r="N33" t="n">
-        <v>160.8</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>29</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L34" t="n">
-        <v>160.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>160.55</v>
-      </c>
-      <c r="N34" t="n">
-        <v>160.7</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>30</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L35" t="n">
-        <v>160.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>160.5</v>
-      </c>
-      <c r="N35" t="n">
-        <v>160.6333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>30</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L36" t="n">
-        <v>160.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>160.4</v>
-      </c>
-      <c r="N36" t="n">
-        <v>160.5666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>30</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L37" t="n">
-        <v>159.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>160.35</v>
-      </c>
-      <c r="N37" t="n">
-        <v>160.5333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>30</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L38" t="n">
-        <v>159.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>160.25</v>
-      </c>
-      <c r="N38" t="n">
-        <v>160.4666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>30</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L39" t="n">
-        <v>159.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>160.15</v>
-      </c>
-      <c r="N39" t="n">
-        <v>160.4</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>31</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L40" t="n">
-        <v>159.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>159.95</v>
-      </c>
-      <c r="N40" t="n">
-        <v>160.3333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>31</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L41" t="n">
-        <v>159.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>159.85</v>
-      </c>
-      <c r="N41" t="n">
-        <v>160.2</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>32</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L42" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>159.8</v>
-      </c>
-      <c r="N42" t="n">
-        <v>160.0666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>32</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L43" t="n">
-        <v>158.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>159.7</v>
-      </c>
-      <c r="N43" t="n">
-        <v>160.0333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>35</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L44" t="n">
-        <v>158.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>159.5</v>
-      </c>
-      <c r="N44" t="n">
-        <v>159.8666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J45" t="n">
-        <v>38</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>158.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>159.4</v>
-      </c>
-      <c r="N45" t="n">
-        <v>159.8333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>38</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>158.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>159.3</v>
-      </c>
-      <c r="N46" t="n">
-        <v>159.7666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>38</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>158.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>159.2</v>
-      </c>
-      <c r="N47" t="n">
-        <v>159.7333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>39</v>
-      </c>
-      <c r="K48" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L48" t="n">
-        <v>158.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>159.15</v>
-      </c>
-      <c r="N48" t="n">
-        <v>159.7</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>39</v>
-      </c>
-      <c r="K49" t="n">
-        <v>25</v>
-      </c>
-      <c r="L49" t="n">
-        <v>158.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>159.1</v>
-      </c>
-      <c r="N49" t="n">
-        <v>159.6666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>39</v>
-      </c>
-      <c r="K50" t="n">
-        <v>25</v>
-      </c>
-      <c r="L50" t="n">
-        <v>158.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>159.05</v>
-      </c>
-      <c r="N50" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J51" t="n">
-        <v>42</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L51" t="n">
-        <v>158.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>158.95</v>
-      </c>
-      <c r="N51" t="n">
-        <v>159.5</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>46</v>
-      </c>
-      <c r="K52" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L52" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>159</v>
-      </c>
-      <c r="N52" t="n">
-        <v>159.5333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>48</v>
-      </c>
-      <c r="K53" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L53" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>158.95</v>
-      </c>
-      <c r="N53" t="n">
-        <v>159.4666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>49</v>
-      </c>
-      <c r="K54" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L54" t="n">
-        <v>159.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>158.95</v>
-      </c>
-      <c r="N54" t="n">
-        <v>159.4666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>50</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>159.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>158.95</v>
-      </c>
-      <c r="N55" t="n">
-        <v>159.4</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>50</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>159.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>158.95</v>
-      </c>
-      <c r="N56" t="n">
-        <v>159.3333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>51</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L57" t="n">
-        <v>159.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>158.9</v>
-      </c>
-      <c r="N57" t="n">
-        <v>159.2333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>51</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L58" t="n">
-        <v>159.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>158.85</v>
-      </c>
-      <c r="N58" t="n">
-        <v>159.1333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>51</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L59" t="n">
-        <v>158.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="N59" t="n">
-        <v>159.0333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>51</v>
-      </c>
-      <c r="K60" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L60" t="n">
-        <v>158.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="N60" t="n">
-        <v>158.9333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J61" t="n">
-        <v>51</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L61" t="n">
-        <v>158.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="N61" t="n">
-        <v>158.9</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J62" t="n">
-        <v>52</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L62" t="n">
-        <v>158.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>158.7</v>
-      </c>
-      <c r="N62" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>52</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L63" t="n">
-        <v>158.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>158.6</v>
-      </c>
-      <c r="N63" t="n">
-        <v>158.7</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>52</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L64" t="n">
-        <v>157.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>158.65</v>
-      </c>
-      <c r="N64" t="n">
-        <v>158.6</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>52</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L65" t="n">
-        <v>157.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>158.55</v>
-      </c>
-      <c r="N65" t="n">
-        <v>158.5333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>54</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L66" t="n">
-        <v>157.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>158.35</v>
-      </c>
-      <c r="N66" t="n">
-        <v>158.4</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>55</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L67" t="n">
-        <v>157.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>158.2</v>
-      </c>
-      <c r="N67" t="n">
-        <v>158.3</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J68" t="n">
-        <v>57</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L68" t="n">
-        <v>156.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>157.9</v>
-      </c>
-      <c r="N68" t="n">
-        <v>158.1333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J69" t="n">
-        <v>58</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L69" t="n">
-        <v>156.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>157.65</v>
-      </c>
-      <c r="N69" t="n">
-        <v>158</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>59</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L70" t="n">
-        <v>156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>157.35</v>
-      </c>
-      <c r="N70" t="n">
-        <v>157.8666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J71" t="n">
-        <v>59</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L71" t="n">
-        <v>155.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>157.2</v>
-      </c>
-      <c r="N71" t="n">
-        <v>157.7333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J72" t="n">
-        <v>59</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L72" t="n">
-        <v>155.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>156.85</v>
-      </c>
-      <c r="N72" t="n">
-        <v>157.5666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J73" t="n">
-        <v>60</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L73" t="n">
-        <v>155.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>156.65</v>
-      </c>
-      <c r="N73" t="n">
-        <v>157.4333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J74" t="n">
-        <v>60</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L74" t="n">
-        <v>154.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>156.4</v>
-      </c>
-      <c r="N74" t="n">
-        <v>157.4</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J75" t="n">
-        <v>61</v>
-      </c>
-      <c r="K75" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L75" t="n">
-        <v>154.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="N75" t="n">
-        <v>157.3</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J76" t="n">
-        <v>64</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L76" t="n">
-        <v>154.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>155.95</v>
-      </c>
-      <c r="N76" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J77" t="n">
-        <v>66</v>
-      </c>
-      <c r="K77" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L77" t="n">
-        <v>154.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>155.8</v>
-      </c>
-      <c r="N77" t="n">
-        <v>156.9666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J78" t="n">
-        <v>66</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>154.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>155.65</v>
-      </c>
-      <c r="N78" t="n">
-        <v>156.8</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J79" t="n">
-        <v>67</v>
-      </c>
-      <c r="K79" t="n">
-        <v>25</v>
-      </c>
-      <c r="L79" t="n">
-        <v>154.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>155.55</v>
-      </c>
-      <c r="N79" t="n">
-        <v>156.6666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>67</v>
-      </c>
-      <c r="K80" t="n">
-        <v>25</v>
-      </c>
-      <c r="L80" t="n">
-        <v>154.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>155.45</v>
-      </c>
-      <c r="N80" t="n">
-        <v>156.5333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>68</v>
-      </c>
-      <c r="K81" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L81" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>155.3</v>
-      </c>
-      <c r="N81" t="n">
-        <v>156.4666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J82" t="n">
-        <v>69</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L82" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>155.15</v>
-      </c>
-      <c r="N82" t="n">
-        <v>156.2333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J83" t="n">
-        <v>70</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>155.05</v>
-      </c>
-      <c r="N83" t="n">
-        <v>156.1</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J84" t="n">
-        <v>70</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L84" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>154.95</v>
-      </c>
-      <c r="N84" t="n">
-        <v>155.9333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J85" t="n">
-        <v>70</v>
-      </c>
-      <c r="K85" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L85" t="n">
-        <v>154.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>154.85</v>
-      </c>
-      <c r="N85" t="n">
-        <v>155.8</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J86" t="n">
-        <v>70</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>155.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>154.85</v>
-      </c>
-      <c r="N86" t="n">
-        <v>155.6666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J87" t="n">
-        <v>71</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L87" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>154.75</v>
-      </c>
-      <c r="N87" t="n">
-        <v>155.5333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>71</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L88" t="n">
-        <v>154.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>154.75</v>
-      </c>
-      <c r="N88" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>71</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L89" t="n">
-        <v>154.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>154.7</v>
-      </c>
-      <c r="N89" t="n">
-        <v>155.2666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J90" t="n">
-        <v>71</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>154.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>154.7</v>
-      </c>
-      <c r="N90" t="n">
-        <v>155.1333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J91" t="n">
-        <v>73</v>
-      </c>
-      <c r="K91" t="n">
-        <v>50</v>
-      </c>
-      <c r="L91" t="n">
-        <v>154.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>154.8</v>
-      </c>
-      <c r="N91" t="n">
-        <v>155.0666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>74</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>154.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>154.85</v>
-      </c>
-      <c r="N92" t="n">
-        <v>155</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J93" t="n">
-        <v>74</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>154.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>154.85</v>
-      </c>
-      <c r="N93" t="n">
-        <v>154.9333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J94" t="n">
-        <v>75</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L94" t="n">
-        <v>154.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>154.8</v>
-      </c>
-      <c r="N94" t="n">
-        <v>154.8333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>76</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>154.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>154.75</v>
-      </c>
-      <c r="N95" t="n">
-        <v>154.7666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J96" t="n">
-        <v>78</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L96" t="n">
-        <v>154.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>154.75</v>
-      </c>
-      <c r="N96" t="n">
-        <v>154.7</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>78</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L97" t="n">
-        <v>154.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>154.65</v>
-      </c>
-      <c r="N97" t="n">
-        <v>154.6</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J98" t="n">
-        <v>78</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L98" t="n">
-        <v>154.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>154.55</v>
-      </c>
-      <c r="N98" t="n">
-        <v>154.5666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>78</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L99" t="n">
-        <v>154.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="N99" t="n">
-        <v>154.5</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J100" t="n">
-        <v>79</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L100" t="n">
-        <v>153.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="N100" t="n">
-        <v>154.4333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J101" t="n">
-        <v>79</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L101" t="n">
-        <v>153.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>154.05</v>
-      </c>
-      <c r="N101" t="n">
-        <v>154.3666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J102" t="n">
-        <v>79</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L102" t="n">
-        <v>153.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>153.95</v>
-      </c>
-      <c r="N102" t="n">
-        <v>154.3</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J103" t="n">
-        <v>79</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L103" t="n">
-        <v>152.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>153.8</v>
-      </c>
-      <c r="N103" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J104" t="n">
-        <v>79</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L104" t="n">
-        <v>152.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>153.65</v>
-      </c>
-      <c r="N104" t="n">
-        <v>154.1</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,31 +4056,19 @@
         <v>155.6333333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="K105" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L105" t="n">
-        <v>152.4</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="N105" t="n">
-        <v>153.9666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,31 +4095,23 @@
         <v>155.5166666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="K106" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L106" t="n">
-        <v>152.3</v>
+        <v>152</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>153.35</v>
-      </c>
-      <c r="N106" t="n">
-        <v>153.9333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,31 +4138,23 @@
         <v>155.4</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="K107" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L107" t="n">
-        <v>152.2</v>
+        <v>152</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>153.25</v>
-      </c>
-      <c r="N107" t="n">
-        <v>153.8333333333333</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,31 +4181,19 @@
         <v>155.2666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="K108" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L108" t="n">
-        <v>152.1</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>153.15</v>
-      </c>
-      <c r="N108" t="n">
-        <v>153.7333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,29 +4220,23 @@
         <v>155.1333333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>79</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
         <v>152</v>
       </c>
+      <c r="K109" t="n">
+        <v>152</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
-        <v>153.05</v>
-      </c>
-      <c r="N109" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5849,29 +4263,23 @@
         <v>155</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>79</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
         <v>152</v>
       </c>
+      <c r="K110" t="n">
+        <v>152</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
-        <v>152.95</v>
-      </c>
-      <c r="N110" t="n">
-        <v>153.4666666666667</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5898,31 +4306,19 @@
         <v>154.9333333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="K111" t="n">
-        <v>100</v>
-      </c>
-      <c r="L111" t="n">
-        <v>152.1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="N111" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5949,31 +4345,23 @@
         <v>154.8</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="K112" t="n">
-        <v>100</v>
-      </c>
-      <c r="L112" t="n">
-        <v>152.2</v>
+        <v>153</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="N112" t="n">
-        <v>153.3666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6000,31 +4388,23 @@
         <v>154.7166666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="K113" t="n">
-        <v>100</v>
-      </c>
-      <c r="L113" t="n">
-        <v>152.4</v>
+        <v>153</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>152.65</v>
-      </c>
-      <c r="N113" t="n">
-        <v>153.3333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6051,31 +4431,19 @@
         <v>154.6333333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="K114" t="n">
-        <v>100</v>
-      </c>
-      <c r="L114" t="n">
-        <v>152.7</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="N114" t="n">
-        <v>153.3333333333333</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,31 +4470,23 @@
         <v>154.55</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="K115" t="n">
-        <v>50</v>
-      </c>
-      <c r="L115" t="n">
-        <v>152.9</v>
+        <v>155</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>152.65</v>
-      </c>
-      <c r="N115" t="n">
-        <v>153.3</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,31 +4513,23 @@
         <v>154.4666666666667</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="K116" t="n">
-        <v>50</v>
-      </c>
-      <c r="L116" t="n">
-        <v>153.1</v>
+        <v>155</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="N116" t="n">
-        <v>153.2666666666667</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,31 +4556,19 @@
         <v>154.3833333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="K117" t="n">
-        <v>20</v>
-      </c>
-      <c r="L117" t="n">
-        <v>153.2</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="N117" t="n">
-        <v>153.2333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6255,31 +4595,23 @@
         <v>154.3</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="K118" t="n">
-        <v>20</v>
-      </c>
-      <c r="L118" t="n">
-        <v>153.3</v>
+        <v>153</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="N118" t="n">
-        <v>153.2</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6306,31 +4638,23 @@
         <v>154.2666666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K119" t="n">
-        <v>50</v>
-      </c>
-      <c r="L119" t="n">
-        <v>153.7</v>
+        <v>153</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>152.85</v>
-      </c>
-      <c r="N119" t="n">
-        <v>153.2666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6357,31 +4681,23 @@
         <v>154.2333333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="K120" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L120" t="n">
-        <v>154.1</v>
+        <v>153</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>153.05</v>
-      </c>
-      <c r="N120" t="n">
-        <v>153.3333333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6411,28 +4727,18 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J121" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L121" t="n">
-        <v>154.4</v>
+        <v>153</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>153.25</v>
-      </c>
-      <c r="N121" t="n">
-        <v>153.3333333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6462,28 +4768,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J122" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L122" t="n">
-        <v>154.7</v>
+        <v>153</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>153.45</v>
-      </c>
-      <c r="N122" t="n">
-        <v>153.3666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6513,28 +4809,18 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J123" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L123" t="n">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>153.7</v>
-      </c>
-      <c r="N123" t="n">
-        <v>153.4333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6564,28 +4850,18 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J124" t="n">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L124" t="n">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>153.85</v>
-      </c>
-      <c r="N124" t="n">
-        <v>153.4666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6615,28 +4891,18 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J125" t="n">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L125" t="n">
-        <v>155.1</v>
+        <v>153</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>154</v>
-      </c>
-      <c r="N125" t="n">
-        <v>153.4666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6666,28 +4932,18 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J126" t="n">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L126" t="n">
-        <v>155.3</v>
+        <v>153</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="N126" t="n">
-        <v>153.5666666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6717,28 +4973,18 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J127" t="n">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L127" t="n">
-        <v>155.6</v>
+        <v>153</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="N127" t="n">
-        <v>153.6666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,28 +5014,18 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J128" t="n">
-        <v>92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L128" t="n">
-        <v>155.8</v>
+        <v>153</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>154.55</v>
-      </c>
-      <c r="N128" t="n">
-        <v>153.7333333333333</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6819,28 +5055,18 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J129" t="n">
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>155.8</v>
+        <v>153</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>154.75</v>
-      </c>
-      <c r="N129" t="n">
-        <v>153.8333333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6870,28 +5096,18 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J130" t="n">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L130" t="n">
-        <v>155.7</v>
+        <v>153</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="N130" t="n">
-        <v>153.9333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6921,28 +5137,18 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J131" t="n">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L131" t="n">
-        <v>155.5</v>
+        <v>153</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>154.95</v>
-      </c>
-      <c r="N131" t="n">
-        <v>154</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6972,28 +5178,18 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J132" t="n">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L132" t="n">
-        <v>155.3</v>
+        <v>153</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>155</v>
-      </c>
-      <c r="N132" t="n">
-        <v>154.0666666666667</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7023,28 +5219,18 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J133" t="n">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L133" t="n">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>155</v>
-      </c>
-      <c r="N133" t="n">
-        <v>154.1333333333333</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7074,28 +5260,18 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J134" t="n">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L134" t="n">
-        <v>154.9</v>
+        <v>153</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>154.95</v>
-      </c>
-      <c r="N134" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7125,28 +5301,18 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J135" t="n">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L135" t="n">
-        <v>154.8</v>
+        <v>153</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>154.95</v>
-      </c>
-      <c r="N135" t="n">
-        <v>154.2666666666667</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7176,28 +5342,18 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J136" t="n">
-        <v>98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L136" t="n">
-        <v>154.9</v>
+        <v>153</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="N136" t="n">
-        <v>154.4333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7227,28 +5383,18 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J137" t="n">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L137" t="n">
-        <v>155.1</v>
+        <v>153</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>155.35</v>
-      </c>
-      <c r="N137" t="n">
-        <v>154.6333333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7278,28 +5424,18 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J138" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>155.2</v>
+        <v>153</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="N138" t="n">
-        <v>154.7666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7329,28 +5465,18 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J139" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L139" t="n">
-        <v>155.2</v>
+        <v>153</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="N139" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7380,28 +5506,18 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J140" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L140" t="n">
-        <v>155.4</v>
+        <v>153</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>155.55</v>
-      </c>
-      <c r="N140" t="n">
-        <v>155.0666666666667</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,28 +5547,18 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J141" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L141" t="n">
-        <v>155.7</v>
+        <v>153</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>155.6</v>
-      </c>
-      <c r="N141" t="n">
-        <v>155.2</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7482,28 +5588,18 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J142" t="n">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>25</v>
-      </c>
-      <c r="L142" t="n">
-        <v>155.9</v>
+        <v>153</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>155.6</v>
-      </c>
-      <c r="N142" t="n">
-        <v>155.3</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7533,28 +5629,18 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J143" t="n">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>25</v>
-      </c>
-      <c r="L143" t="n">
-        <v>156.1</v>
+        <v>153</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>155.55</v>
-      </c>
-      <c r="N143" t="n">
-        <v>155.3666666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7584,28 +5670,18 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J144" t="n">
-        <v>104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L144" t="n">
-        <v>156.4</v>
+        <v>153</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>155.65</v>
-      </c>
-      <c r="N144" t="n">
-        <v>155.4333333333333</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7635,28 +5711,18 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J145" t="n">
-        <v>105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L145" t="n">
-        <v>156.6</v>
+        <v>153</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>155.7</v>
-      </c>
-      <c r="N145" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7686,28 +5752,18 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J146" t="n">
-        <v>106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L146" t="n">
-        <v>156.4</v>
+        <v>153</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>155.65</v>
-      </c>
-      <c r="N146" t="n">
-        <v>155.5333333333333</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7737,28 +5793,18 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J147" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>156.2</v>
+        <v>153</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>155.65</v>
-      </c>
-      <c r="N147" t="n">
-        <v>155.6333333333333</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7788,28 +5834,18 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J148" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>156.2</v>
+        <v>153</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>155.7</v>
-      </c>
-      <c r="N148" t="n">
-        <v>155.7333333333333</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7839,28 +5875,18 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J149" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L149" t="n">
-        <v>156.2</v>
+        <v>153</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>155.7</v>
-      </c>
-      <c r="N149" t="n">
-        <v>155.7333333333333</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7890,28 +5916,18 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J150" t="n">
-        <v>108</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>156.2</v>
+        <v>153</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>155.8</v>
-      </c>
-      <c r="N150" t="n">
-        <v>155.7666666666667</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7941,28 +5957,18 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J151" t="n">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>0</v>
-      </c>
-      <c r="L151" t="n">
-        <v>156.1</v>
+        <v>153</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="N151" t="n">
-        <v>155.7666666666667</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7992,28 +5998,18 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J152" t="n">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>0</v>
-      </c>
-      <c r="L152" t="n">
-        <v>156.1</v>
+        <v>153</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>156</v>
-      </c>
-      <c r="N152" t="n">
-        <v>155.7666666666667</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,28 +6039,18 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J153" t="n">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L153" t="n">
-        <v>156.1</v>
+        <v>153</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>156.1</v>
-      </c>
-      <c r="N153" t="n">
-        <v>155.7333333333333</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8094,28 +6080,18 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J154" t="n">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>0</v>
-      </c>
-      <c r="L154" t="n">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>156.2</v>
-      </c>
-      <c r="N154" t="n">
-        <v>155.7666666666667</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8145,28 +6121,18 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J155" t="n">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L155" t="n">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="N155" t="n">
-        <v>155.8</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8196,28 +6162,18 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J156" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L156" t="n">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>156.2</v>
-      </c>
-      <c r="N156" t="n">
-        <v>155.7666666666667</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8247,28 +6203,18 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J157" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L157" t="n">
-        <v>155.9</v>
+        <v>153</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>156.05</v>
-      </c>
-      <c r="N157" t="n">
-        <v>155.7333333333333</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8298,28 +6244,18 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J158" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L158" t="n">
-        <v>155.8</v>
+        <v>153</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>156</v>
-      </c>
-      <c r="N158" t="n">
-        <v>155.7333333333333</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8349,28 +6285,18 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J159" t="n">
-        <v>111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L159" t="n">
-        <v>155.6</v>
+        <v>153</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="N159" t="n">
-        <v>155.6666666666667</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8400,28 +6326,18 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J160" t="n">
-        <v>111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L160" t="n">
-        <v>155.3</v>
+        <v>153</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>155.75</v>
-      </c>
-      <c r="N160" t="n">
-        <v>155.6333333333333</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8451,28 +6367,18 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J161" t="n">
-        <v>112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L161" t="n">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>155.55</v>
-      </c>
-      <c r="N161" t="n">
-        <v>155.6</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8502,28 +6408,18 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J162" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L162" t="n">
-        <v>154.9</v>
+        <v>153</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="N162" t="n">
-        <v>155.6333333333333</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8553,28 +6449,18 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J163" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L163" t="n">
-        <v>154.8</v>
+        <v>153</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>155.45</v>
-      </c>
-      <c r="N163" t="n">
-        <v>155.6666666666667</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8604,28 +6490,18 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J164" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>0</v>
-      </c>
-      <c r="L164" t="n">
-        <v>154.8</v>
+        <v>153</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="N164" t="n">
-        <v>155.7333333333333</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8655,28 +6531,18 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J165" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L165" t="n">
-        <v>154.5</v>
+        <v>153</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>155.25</v>
-      </c>
-      <c r="N165" t="n">
-        <v>155.7</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8706,28 +6572,18 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J166" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L166" t="n">
-        <v>154.3</v>
+        <v>153</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>155.15</v>
-      </c>
-      <c r="N166" t="n">
-        <v>155.5666666666667</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8757,28 +6613,18 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J167" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L167" t="n">
-        <v>154.4</v>
+        <v>153</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>155.15</v>
-      </c>
-      <c r="N167" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8808,28 +6654,18 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J168" t="n">
-        <v>122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L168" t="n">
-        <v>154.4</v>
+        <v>153</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="N168" t="n">
-        <v>155.4666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8859,28 +6695,18 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J169" t="n">
-        <v>122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L169" t="n">
-        <v>154.5</v>
+        <v>153</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>155.05</v>
-      </c>
-      <c r="N169" t="n">
-        <v>155.4333333333333</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8910,28 +6736,18 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J170" t="n">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L170" t="n">
-        <v>154.9</v>
+        <v>153</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M170" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="N170" t="n">
-        <v>155.4666666666667</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8961,28 +6777,18 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J171" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>0</v>
-      </c>
-      <c r="L171" t="n">
-        <v>155.1</v>
+        <v>153</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M171" t="n">
-        <v>155.05</v>
-      </c>
-      <c r="N171" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9012,28 +6818,18 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J172" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L172" t="n">
-        <v>154.9</v>
+        <v>153</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M172" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="N172" t="n">
-        <v>155.3</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9063,28 +6859,18 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J173" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M173" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="N173" t="n">
-        <v>155.3</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9114,28 +6900,18 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J174" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>25</v>
-      </c>
-      <c r="L174" t="n">
-        <v>155.1</v>
+        <v>153</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M174" t="n">
-        <v>154.95</v>
-      </c>
-      <c r="N174" t="n">
-        <v>155.3</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9165,28 +6941,18 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J175" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>0</v>
-      </c>
-      <c r="L175" t="n">
-        <v>155.1</v>
+        <v>153</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M175" t="n">
-        <v>154.8</v>
-      </c>
-      <c r="N175" t="n">
-        <v>155.2</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9216,28 +6982,18 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J176" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L176" t="n">
-        <v>155.5</v>
+        <v>153</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M176" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="N176" t="n">
-        <v>155.2666666666667</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9267,28 +7023,18 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J177" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L177" t="n">
-        <v>155.8</v>
+        <v>153</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M177" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="N177" t="n">
-        <v>155.3666666666667</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9318,28 +7064,18 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J178" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L178" t="n">
-        <v>156.2</v>
+        <v>153</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M178" t="n">
-        <v>155.3</v>
-      </c>
-      <c r="N178" t="n">
-        <v>155.4666666666667</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9369,28 +7105,18 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J179" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L179" t="n">
-        <v>156.6</v>
+        <v>153</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M179" t="n">
-        <v>155.55</v>
-      </c>
-      <c r="N179" t="n">
-        <v>155.5666666666667</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9420,28 +7146,18 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J180" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>25</v>
-      </c>
-      <c r="L180" t="n">
-        <v>156.7</v>
+        <v>153</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M180" t="n">
-        <v>155.8</v>
-      </c>
-      <c r="N180" t="n">
-        <v>155.6333333333333</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9471,28 +7187,18 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J181" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L181" t="n">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M181" t="n">
-        <v>156.05</v>
-      </c>
-      <c r="N181" t="n">
-        <v>155.7</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9522,28 +7228,18 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J182" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L182" t="n">
-        <v>157.5</v>
+        <v>153</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M182" t="n">
-        <v>156.2</v>
-      </c>
-      <c r="N182" t="n">
-        <v>155.7666666666667</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9573,28 +7269,18 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J183" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L183" t="n">
-        <v>157.7</v>
+        <v>153</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M183" t="n">
-        <v>156.35</v>
-      </c>
-      <c r="N183" t="n">
-        <v>155.8333333333333</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9624,28 +7310,18 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J184" t="n">
-        <v>146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>75</v>
-      </c>
-      <c r="L184" t="n">
-        <v>157.9</v>
+        <v>153</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M184" t="n">
-        <v>156.5</v>
-      </c>
-      <c r="N184" t="n">
-        <v>155.9333333333333</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9675,28 +7351,18 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J185" t="n">
-        <v>147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>20</v>
-      </c>
-      <c r="L185" t="n">
-        <v>158.4</v>
+        <v>153</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M185" t="n">
-        <v>156.75</v>
-      </c>
-      <c r="N185" t="n">
-        <v>156</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9726,28 +7392,18 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J186" t="n">
-        <v>147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L186" t="n">
-        <v>158.5</v>
+        <v>153</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M186" t="n">
-        <v>157</v>
-      </c>
-      <c r="N186" t="n">
-        <v>156.1</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9777,28 +7433,18 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J187" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>0</v>
-      </c>
-      <c r="L187" t="n">
-        <v>158.5</v>
+        <v>153</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M187" t="n">
-        <v>157.15</v>
-      </c>
-      <c r="N187" t="n">
-        <v>156.2333333333333</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9828,28 +7474,18 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J188" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>0</v>
-      </c>
-      <c r="L188" t="n">
-        <v>158.5</v>
+        <v>153</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M188" t="n">
-        <v>157.35</v>
-      </c>
-      <c r="N188" t="n">
-        <v>156.3666666666667</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9879,28 +7515,18 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J189" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>0</v>
-      </c>
-      <c r="L189" t="n">
-        <v>158.5</v>
+        <v>153</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M189" t="n">
-        <v>157.55</v>
-      </c>
-      <c r="N189" t="n">
-        <v>156.5333333333333</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9930,28 +7556,18 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J190" t="n">
-        <v>149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>50</v>
-      </c>
-      <c r="L190" t="n">
-        <v>158.6</v>
+        <v>153</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M190" t="n">
-        <v>157.65</v>
-      </c>
-      <c r="N190" t="n">
-        <v>156.7333333333333</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9981,28 +7597,18 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J191" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>60</v>
-      </c>
-      <c r="L191" t="n">
-        <v>158.9</v>
+        <v>153</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M191" t="n">
-        <v>157.95</v>
-      </c>
-      <c r="N191" t="n">
-        <v>157</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10032,28 +7638,18 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J192" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>60</v>
-      </c>
-      <c r="L192" t="n">
-        <v>159.2</v>
+        <v>153</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M192" t="n">
-        <v>158.35</v>
-      </c>
-      <c r="N192" t="n">
-        <v>157.2</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10083,29 +7679,19 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J193" t="n">
-        <v>151</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>60</v>
-      </c>
-      <c r="L193" t="n">
-        <v>159.6</v>
+        <v>153</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M193" t="n">
-        <v>158.65</v>
-      </c>
-      <c r="N193" t="n">
-        <v>157.4333333333333</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
-        <v>1</v>
+        <v>1.053823529411765</v>
       </c>
     </row>
     <row r="194">
@@ -10134,28 +7720,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J194" t="n">
-        <v>152</v>
-      </c>
-      <c r="K194" t="n">
-        <v>60</v>
-      </c>
-      <c r="L194" t="n">
-        <v>159.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>158.85</v>
-      </c>
-      <c r="N194" t="n">
-        <v>157.6</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10185,28 +7755,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J195" t="n">
-        <v>154</v>
-      </c>
-      <c r="K195" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L195" t="n">
-        <v>159.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>159.15</v>
-      </c>
-      <c r="N195" t="n">
-        <v>157.8</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10236,28 +7790,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J196" t="n">
-        <v>156</v>
-      </c>
-      <c r="K196" t="n">
-        <v>25</v>
-      </c>
-      <c r="L196" t="n">
-        <v>160.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
-        <v>159.35</v>
-      </c>
-      <c r="N196" t="n">
-        <v>158.0666666666667</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10287,28 +7825,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J197" t="n">
-        <v>158</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0</v>
-      </c>
-      <c r="L197" t="n">
-        <v>160.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>159.35</v>
-      </c>
-      <c r="N197" t="n">
-        <v>158.1666666666667</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10338,28 +7860,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J198" t="n">
-        <v>159</v>
-      </c>
-      <c r="K198" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L198" t="n">
-        <v>160.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
-        <v>159.3</v>
-      </c>
-      <c r="N198" t="n">
-        <v>158.2666666666667</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10389,28 +7895,12 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J199" t="n">
-        <v>160</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L199" t="n">
-        <v>160.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
-        <v>159.3</v>
-      </c>
-      <c r="N199" t="n">
-        <v>158.4</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10440,28 +7930,12 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J200" t="n">
-        <v>161</v>
-      </c>
-      <c r="K200" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L200" t="n">
-        <v>160.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>159.35</v>
-      </c>
-      <c r="N200" t="n">
-        <v>158.4666666666667</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10491,28 +7965,12 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J201" t="n">
-        <v>163</v>
-      </c>
-      <c r="K201" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L201" t="n">
-        <v>159.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
-        <v>159.35</v>
-      </c>
-      <c r="N201" t="n">
-        <v>158.5666666666667</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10542,28 +8000,12 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J202" t="n">
-        <v>165</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L202" t="n">
-        <v>159.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
-        <v>159.45</v>
-      </c>
-      <c r="N202" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10593,28 +8035,12 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J203" t="n">
-        <v>165</v>
-      </c>
-      <c r="K203" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L203" t="n">
-        <v>159.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
-        <v>159.55</v>
-      </c>
-      <c r="N203" t="n">
-        <v>158.9333333333333</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10644,28 +8070,12 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J204" t="n">
-        <v>165</v>
-      </c>
-      <c r="K204" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L204" t="n">
-        <v>159.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="N204" t="n">
-        <v>159.0333333333333</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10695,1099 +8105,12 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J205" t="n">
-        <v>168</v>
-      </c>
-      <c r="K205" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L205" t="n">
-        <v>159.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
-        <v>159.85</v>
-      </c>
-      <c r="N205" t="n">
-        <v>159.3666666666667</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>163</v>
-      </c>
-      <c r="C206" t="n">
-        <v>160</v>
-      </c>
-      <c r="D206" t="n">
-        <v>163</v>
-      </c>
-      <c r="E206" t="n">
-        <v>160</v>
-      </c>
-      <c r="F206" t="n">
-        <v>3288.903</v>
-      </c>
-      <c r="G206" t="n">
-        <v>157.3666666666667</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J206" t="n">
-        <v>171</v>
-      </c>
-      <c r="K206" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L206" t="n">
-        <v>159.7</v>
-      </c>
-      <c r="M206" t="n">
-        <v>159.95</v>
-      </c>
-      <c r="N206" t="n">
-        <v>159.4666666666667</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>160</v>
-      </c>
-      <c r="C207" t="n">
-        <v>159</v>
-      </c>
-      <c r="D207" t="n">
-        <v>160</v>
-      </c>
-      <c r="E207" t="n">
-        <v>159</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1935.3571</v>
-      </c>
-      <c r="G207" t="n">
-        <v>157.4166666666667</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J207" t="n">
-        <v>172</v>
-      </c>
-      <c r="K207" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L207" t="n">
-        <v>159.7</v>
-      </c>
-      <c r="M207" t="n">
-        <v>159.95</v>
-      </c>
-      <c r="N207" t="n">
-        <v>159.4666666666667</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>160</v>
-      </c>
-      <c r="C208" t="n">
-        <v>160</v>
-      </c>
-      <c r="D208" t="n">
-        <v>160</v>
-      </c>
-      <c r="E208" t="n">
-        <v>160</v>
-      </c>
-      <c r="F208" t="n">
-        <v>157.9416</v>
-      </c>
-      <c r="G208" t="n">
-        <v>157.4833333333333</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J208" t="n">
-        <v>173</v>
-      </c>
-      <c r="K208" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L208" t="n">
-        <v>159.9</v>
-      </c>
-      <c r="M208" t="n">
-        <v>160</v>
-      </c>
-      <c r="N208" t="n">
-        <v>159.5</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>160</v>
-      </c>
-      <c r="C209" t="n">
-        <v>160</v>
-      </c>
-      <c r="D209" t="n">
-        <v>160</v>
-      </c>
-      <c r="E209" t="n">
-        <v>160</v>
-      </c>
-      <c r="F209" t="n">
-        <v>10859.2021</v>
-      </c>
-      <c r="G209" t="n">
-        <v>157.55</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J209" t="n">
-        <v>173</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0</v>
-      </c>
-      <c r="L209" t="n">
-        <v>160</v>
-      </c>
-      <c r="M209" t="n">
-        <v>160.05</v>
-      </c>
-      <c r="N209" t="n">
-        <v>159.5333333333333</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>159</v>
-      </c>
-      <c r="C210" t="n">
-        <v>159</v>
-      </c>
-      <c r="D210" t="n">
-        <v>159</v>
-      </c>
-      <c r="E210" t="n">
-        <v>159</v>
-      </c>
-      <c r="F210" t="n">
-        <v>4140</v>
-      </c>
-      <c r="G210" t="n">
-        <v>157.5833333333333</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J210" t="n">
-        <v>174</v>
-      </c>
-      <c r="K210" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L210" t="n">
-        <v>159.9</v>
-      </c>
-      <c r="M210" t="n">
-        <v>160</v>
-      </c>
-      <c r="N210" t="n">
-        <v>159.5333333333333</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>159</v>
-      </c>
-      <c r="C211" t="n">
-        <v>159</v>
-      </c>
-      <c r="D211" t="n">
-        <v>159</v>
-      </c>
-      <c r="E211" t="n">
-        <v>159</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1958.6074</v>
-      </c>
-      <c r="G211" t="n">
-        <v>157.6333333333333</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J211" t="n">
-        <v>174</v>
-      </c>
-      <c r="K211" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L211" t="n">
-        <v>160</v>
-      </c>
-      <c r="M211" t="n">
-        <v>159.9</v>
-      </c>
-      <c r="N211" t="n">
-        <v>159.5666666666667</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>159</v>
-      </c>
-      <c r="C212" t="n">
-        <v>159</v>
-      </c>
-      <c r="D212" t="n">
-        <v>159</v>
-      </c>
-      <c r="E212" t="n">
-        <v>159</v>
-      </c>
-      <c r="F212" t="n">
-        <v>4614.801</v>
-      </c>
-      <c r="G212" t="n">
-        <v>157.6833333333333</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J212" t="n">
-        <v>174</v>
-      </c>
-      <c r="K212" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L212" t="n">
-        <v>159.9</v>
-      </c>
-      <c r="M212" t="n">
-        <v>159.8</v>
-      </c>
-      <c r="N212" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>159</v>
-      </c>
-      <c r="C213" t="n">
-        <v>158</v>
-      </c>
-      <c r="D213" t="n">
-        <v>159</v>
-      </c>
-      <c r="E213" t="n">
-        <v>158</v>
-      </c>
-      <c r="F213" t="n">
-        <v>12743.4587</v>
-      </c>
-      <c r="G213" t="n">
-        <v>157.7166666666667</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J213" t="n">
-        <v>175</v>
-      </c>
-      <c r="K213" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L213" t="n">
-        <v>159.7</v>
-      </c>
-      <c r="M213" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="N213" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>158</v>
-      </c>
-      <c r="C214" t="n">
-        <v>158</v>
-      </c>
-      <c r="D214" t="n">
-        <v>158</v>
-      </c>
-      <c r="E214" t="n">
-        <v>158</v>
-      </c>
-      <c r="F214" t="n">
-        <v>8182.8781</v>
-      </c>
-      <c r="G214" t="n">
-        <v>157.75</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J214" t="n">
-        <v>175</v>
-      </c>
-      <c r="K214" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L214" t="n">
-        <v>159.5</v>
-      </c>
-      <c r="M214" t="n">
-        <v>159.45</v>
-      </c>
-      <c r="N214" t="n">
-        <v>159.5666666666667</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>157</v>
-      </c>
-      <c r="C215" t="n">
-        <v>159</v>
-      </c>
-      <c r="D215" t="n">
-        <v>159</v>
-      </c>
-      <c r="E215" t="n">
-        <v>157</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2014.3821</v>
-      </c>
-      <c r="G215" t="n">
-        <v>157.8</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J215" t="n">
-        <v>176</v>
-      </c>
-      <c r="K215" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L215" t="n">
-        <v>159.1</v>
-      </c>
-      <c r="M215" t="n">
-        <v>159.45</v>
-      </c>
-      <c r="N215" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>158</v>
-      </c>
-      <c r="C216" t="n">
-        <v>158</v>
-      </c>
-      <c r="D216" t="n">
-        <v>159</v>
-      </c>
-      <c r="E216" t="n">
-        <v>157</v>
-      </c>
-      <c r="F216" t="n">
-        <v>526.2071999999999</v>
-      </c>
-      <c r="G216" t="n">
-        <v>157.85</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J216" t="n">
-        <v>177</v>
-      </c>
-      <c r="K216" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L216" t="n">
-        <v>158.9</v>
-      </c>
-      <c r="M216" t="n">
-        <v>159.3</v>
-      </c>
-      <c r="N216" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>160</v>
-      </c>
-      <c r="C217" t="n">
-        <v>160</v>
-      </c>
-      <c r="D217" t="n">
-        <v>160</v>
-      </c>
-      <c r="E217" t="n">
-        <v>160</v>
-      </c>
-      <c r="F217" t="n">
-        <v>250</v>
-      </c>
-      <c r="G217" t="n">
-        <v>157.9333333333333</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J217" t="n">
-        <v>179</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0</v>
-      </c>
-      <c r="L217" t="n">
-        <v>159</v>
-      </c>
-      <c r="M217" t="n">
-        <v>159.35</v>
-      </c>
-      <c r="N217" t="n">
-        <v>159.6333333333333</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>158</v>
-      </c>
-      <c r="C218" t="n">
-        <v>158</v>
-      </c>
-      <c r="D218" t="n">
-        <v>159</v>
-      </c>
-      <c r="E218" t="n">
-        <v>158</v>
-      </c>
-      <c r="F218" t="n">
-        <v>5820.1259</v>
-      </c>
-      <c r="G218" t="n">
-        <v>157.9833333333333</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J218" t="n">
-        <v>181</v>
-      </c>
-      <c r="K218" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L218" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="M218" t="n">
-        <v>159.35</v>
-      </c>
-      <c r="N218" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>158</v>
-      </c>
-      <c r="C219" t="n">
-        <v>159</v>
-      </c>
-      <c r="D219" t="n">
-        <v>159</v>
-      </c>
-      <c r="E219" t="n">
-        <v>158</v>
-      </c>
-      <c r="F219" t="n">
-        <v>1925.6378</v>
-      </c>
-      <c r="G219" t="n">
-        <v>158.0666666666667</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J219" t="n">
-        <v>182</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0</v>
-      </c>
-      <c r="L219" t="n">
-        <v>158.7</v>
-      </c>
-      <c r="M219" t="n">
-        <v>159.35</v>
-      </c>
-      <c r="N219" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>159</v>
-      </c>
-      <c r="C220" t="n">
-        <v>159</v>
-      </c>
-      <c r="D220" t="n">
-        <v>159</v>
-      </c>
-      <c r="E220" t="n">
-        <v>159</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1085</v>
-      </c>
-      <c r="G220" t="n">
-        <v>158.15</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J220" t="n">
-        <v>182</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0</v>
-      </c>
-      <c r="L220" t="n">
-        <v>158.7</v>
-      </c>
-      <c r="M220" t="n">
-        <v>159.3</v>
-      </c>
-      <c r="N220" t="n">
-        <v>159.5666666666667</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>160</v>
-      </c>
-      <c r="C221" t="n">
-        <v>159</v>
-      </c>
-      <c r="D221" t="n">
-        <v>160</v>
-      </c>
-      <c r="E221" t="n">
-        <v>159</v>
-      </c>
-      <c r="F221" t="n">
-        <v>4039.7674</v>
-      </c>
-      <c r="G221" t="n">
-        <v>158.25</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J221" t="n">
-        <v>182</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0</v>
-      </c>
-      <c r="L221" t="n">
-        <v>158.7</v>
-      </c>
-      <c r="M221" t="n">
-        <v>159.35</v>
-      </c>
-      <c r="N221" t="n">
-        <v>159.5</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>160</v>
-      </c>
-      <c r="C222" t="n">
-        <v>160</v>
-      </c>
-      <c r="D222" t="n">
-        <v>160</v>
-      </c>
-      <c r="E222" t="n">
-        <v>160</v>
-      </c>
-      <c r="F222" t="n">
-        <v>600</v>
-      </c>
-      <c r="G222" t="n">
-        <v>158.3333333333333</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J222" t="n">
-        <v>183</v>
-      </c>
-      <c r="K222" t="n">
-        <v>25</v>
-      </c>
-      <c r="L222" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="M222" t="n">
-        <v>159.35</v>
-      </c>
-      <c r="N222" t="n">
-        <v>159.4666666666667</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>160</v>
-      </c>
-      <c r="C223" t="n">
-        <v>160</v>
-      </c>
-      <c r="D223" t="n">
-        <v>160</v>
-      </c>
-      <c r="E223" t="n">
-        <v>160</v>
-      </c>
-      <c r="F223" t="n">
-        <v>450</v>
-      </c>
-      <c r="G223" t="n">
-        <v>158.4166666666667</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J223" t="n">
-        <v>183</v>
-      </c>
-      <c r="K223" t="n">
-        <v>25</v>
-      </c>
-      <c r="L223" t="n">
-        <v>159</v>
-      </c>
-      <c r="M223" t="n">
-        <v>159.35</v>
-      </c>
-      <c r="N223" t="n">
-        <v>159.4</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>160</v>
-      </c>
-      <c r="C224" t="n">
-        <v>160</v>
-      </c>
-      <c r="D224" t="n">
-        <v>160</v>
-      </c>
-      <c r="E224" t="n">
-        <v>160</v>
-      </c>
-      <c r="F224" t="n">
-        <v>10</v>
-      </c>
-      <c r="G224" t="n">
-        <v>158.4833333333333</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J224" t="n">
-        <v>183</v>
-      </c>
-      <c r="K224" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L224" t="n">
-        <v>159.2</v>
-      </c>
-      <c r="M224" t="n">
-        <v>159.35</v>
-      </c>
-      <c r="N224" t="n">
-        <v>159.3666666666667</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>160</v>
-      </c>
-      <c r="C225" t="n">
-        <v>160</v>
-      </c>
-      <c r="D225" t="n">
-        <v>160</v>
-      </c>
-      <c r="E225" t="n">
-        <v>160</v>
-      </c>
-      <c r="F225" t="n">
-        <v>2020</v>
-      </c>
-      <c r="G225" t="n">
-        <v>158.6</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J225" t="n">
-        <v>183</v>
-      </c>
-      <c r="K225" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L225" t="n">
-        <v>159.3</v>
-      </c>
-      <c r="M225" t="n">
-        <v>159.2</v>
-      </c>
-      <c r="N225" t="n">
-        <v>159.4</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>159</v>
-      </c>
-      <c r="C226" t="n">
-        <v>160</v>
-      </c>
-      <c r="D226" t="n">
-        <v>160</v>
-      </c>
-      <c r="E226" t="n">
-        <v>158</v>
-      </c>
-      <c r="F226" t="n">
-        <v>940.3051</v>
-      </c>
-      <c r="G226" t="n">
-        <v>158.7166666666667</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J226" t="n">
-        <v>183</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0</v>
-      </c>
-      <c r="L226" t="n">
-        <v>159.5</v>
-      </c>
-      <c r="M226" t="n">
-        <v>159.2</v>
-      </c>
-      <c r="N226" t="n">
-        <v>159.3666666666667</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest ITC.xlsx
+++ b/BackTest/2019-11-01 BackTest ITC.xlsx
@@ -4056,17 +4056,13 @@
         <v>155.6333333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>152</v>
-      </c>
-      <c r="K105" t="n">
-        <v>152</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
@@ -4095,22 +4091,14 @@
         <v>155.5166666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>152</v>
-      </c>
-      <c r="K106" t="n">
-        <v>152</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4138,22 +4126,14 @@
         <v>155.4</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>152</v>
-      </c>
-      <c r="K107" t="n">
-        <v>152</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4181,17 +4161,13 @@
         <v>155.2666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>152</v>
-      </c>
-      <c r="K108" t="n">
-        <v>152</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
@@ -4220,22 +4196,14 @@
         <v>155.1333333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>152</v>
-      </c>
-      <c r="K109" t="n">
-        <v>152</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4263,22 +4231,14 @@
         <v>155</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>152</v>
-      </c>
-      <c r="K110" t="n">
-        <v>152</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4312,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K111" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
@@ -4345,16 +4305,14 @@
         <v>154.8</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>153</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4388,16 +4346,14 @@
         <v>154.7166666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>154</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4431,17 +4387,13 @@
         <v>154.6333333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>155</v>
-      </c>
-      <c r="K114" t="n">
-        <v>155</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
@@ -4470,22 +4422,14 @@
         <v>154.55</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>154</v>
-      </c>
-      <c r="K115" t="n">
-        <v>155</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4513,22 +4457,14 @@
         <v>154.4666666666667</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>154</v>
-      </c>
-      <c r="K116" t="n">
-        <v>155</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4556,17 +4492,13 @@
         <v>154.3833333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>153</v>
-      </c>
-      <c r="K117" t="n">
-        <v>153</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
@@ -4595,22 +4527,14 @@
         <v>154.3</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>153</v>
-      </c>
-      <c r="K118" t="n">
-        <v>153</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4638,22 +4562,14 @@
         <v>154.2666666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>153</v>
-      </c>
-      <c r="K119" t="n">
-        <v>153</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4681,22 +4597,14 @@
         <v>154.2333333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>156</v>
-      </c>
-      <c r="K120" t="n">
-        <v>153</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4730,14 +4638,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>153</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4771,14 +4673,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>153</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4812,14 +4708,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>153</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4853,14 +4743,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>153</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4894,14 +4778,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>153</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4935,14 +4813,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>153</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4976,14 +4848,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>153</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5017,14 +4883,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>153</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5055,17 +4915,11 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>153</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5099,14 +4953,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>153</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5140,14 +4988,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>153</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5181,14 +5023,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>153</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5222,14 +5058,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>153</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5263,14 +5093,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>153</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5304,14 +5128,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>153</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5345,14 +5163,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>153</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5386,14 +5198,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>153</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5427,14 +5233,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>153</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5468,14 +5268,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>153</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5509,14 +5303,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>153</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5550,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>153</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5591,14 +5373,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>153</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5632,14 +5408,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>153</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5673,14 +5443,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>153</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5714,14 +5478,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>153</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5752,17 +5510,11 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>153</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5793,17 +5545,11 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>153</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5837,14 +5583,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>153</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5878,14 +5618,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>153</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5919,14 +5653,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>153</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5960,14 +5688,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>153</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6001,14 +5723,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>153</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6042,14 +5758,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>153</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6083,14 +5793,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>153</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6124,14 +5828,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>153</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6165,14 +5863,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>153</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6206,14 +5898,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>153</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6247,14 +5933,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>153</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6288,14 +5968,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>153</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6329,14 +6003,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>153</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6370,14 +6038,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>153</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6411,14 +6073,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>153</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6452,14 +6108,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>153</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6493,14 +6143,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>153</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6534,14 +6178,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>153</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6575,14 +6213,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>153</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6616,14 +6248,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>153</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6657,14 +6283,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>153</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6698,14 +6318,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>153</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6739,14 +6353,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>153</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6780,14 +6388,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>153</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6821,14 +6423,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>153</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6862,14 +6458,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>153</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6903,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>153</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6944,14 +6528,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>153</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6985,14 +6563,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>153</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7026,14 +6598,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>153</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7067,14 +6633,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>153</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7108,14 +6668,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>153</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7146,17 +6700,11 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>153</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7190,14 +6738,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>153</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7228,17 +6770,11 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>153</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7272,14 +6808,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>153</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7313,14 +6843,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>153</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7354,14 +6878,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>153</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7395,14 +6913,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>153</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7436,14 +6948,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>153</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7477,14 +6983,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>153</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7518,14 +7018,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>153</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7559,14 +7053,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>153</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7600,14 +7088,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>153</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7641,14 +7123,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>153</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7679,19 +7155,13 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>153</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>1.053823529411765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -7755,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -7790,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -7825,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -7860,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -7895,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -7930,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
@@ -7965,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest ITC.xlsx
+++ b/BackTest/2019-11-01 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F2" t="n">
-        <v>5868.5332</v>
+        <v>235.575</v>
       </c>
       <c r="G2" t="n">
-        <v>161.75</v>
+        <v>161.7333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C3" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D3" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E3" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F3" t="n">
-        <v>1944.0538</v>
+        <v>5868.5332</v>
       </c>
       <c r="G3" t="n">
-        <v>161.7333333333333</v>
+        <v>161.75</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>163</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
         <v>163</v>
       </c>
       <c r="E4" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" t="n">
-        <v>245.0405</v>
+        <v>1944.0538</v>
       </c>
       <c r="G4" t="n">
         <v>161.7333333333333</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D5" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E5" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F5" t="n">
-        <v>7318.6027</v>
+        <v>245.0405</v>
       </c>
       <c r="G5" t="n">
-        <v>161.7</v>
+        <v>161.7333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>161</v>
       </c>
       <c r="F6" t="n">
-        <v>11582.3798</v>
+        <v>7318.6027</v>
       </c>
       <c r="G6" t="n">
-        <v>161.6666666666667</v>
+        <v>161.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C7" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E7" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F7" t="n">
-        <v>1604.7562</v>
+        <v>11582.3798</v>
       </c>
       <c r="G7" t="n">
-        <v>161.6166666666667</v>
+        <v>161.6666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" t="n">
-        <v>141.8857</v>
+        <v>1604.7562</v>
       </c>
       <c r="G8" t="n">
-        <v>161.6</v>
+        <v>161.6166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>161</v>
       </c>
       <c r="F9" t="n">
-        <v>62.1118</v>
+        <v>141.8857</v>
       </c>
       <c r="G9" t="n">
         <v>161.6</v>
@@ -716,19 +716,19 @@
         <v>161</v>
       </c>
       <c r="C10" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" t="n">
         <v>161</v>
       </c>
       <c r="E10" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" t="n">
-        <v>25000</v>
+        <v>62.1118</v>
       </c>
       <c r="G10" t="n">
-        <v>161.5833333333333</v>
+        <v>161.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E11" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" t="n">
-        <v>11655.7437</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="n">
-        <v>161.6</v>
+        <v>161.5833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>163</v>
       </c>
       <c r="C12" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" t="n">
         <v>163</v>
       </c>
       <c r="E12" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" t="n">
-        <v>216.34</v>
+        <v>11655.7437</v>
       </c>
       <c r="G12" t="n">
-        <v>161.6333333333333</v>
+        <v>161.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D13" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F13" t="n">
-        <v>11259.8228</v>
+        <v>216.34</v>
       </c>
       <c r="G13" t="n">
-        <v>161.65</v>
+        <v>161.6333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>161</v>
       </c>
       <c r="C14" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" t="n">
         <v>161</v>
       </c>
       <c r="E14" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" t="n">
-        <v>259.13</v>
+        <v>11259.8228</v>
       </c>
       <c r="G14" t="n">
-        <v>161.6833333333333</v>
+        <v>161.65</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D15" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E15" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F15" t="n">
-        <v>272.6613</v>
+        <v>259.13</v>
       </c>
       <c r="G15" t="n">
-        <v>161.7166666666667</v>
+        <v>161.6833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E16" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16" t="n">
-        <v>475.47</v>
+        <v>272.6613</v>
       </c>
       <c r="G16" t="n">
-        <v>161.75</v>
+        <v>161.7166666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>161</v>
       </c>
       <c r="C17" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D17" t="n">
         <v>161</v>
       </c>
       <c r="E17" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F17" t="n">
-        <v>2470.2679</v>
+        <v>475.47</v>
       </c>
       <c r="G17" t="n">
-        <v>161.7333333333333</v>
+        <v>161.75</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,16 +996,16 @@
         <v>161</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" t="n">
         <v>161</v>
       </c>
       <c r="E18" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18" t="n">
-        <v>139.97</v>
+        <v>2470.2679</v>
       </c>
       <c r="G18" t="n">
         <v>161.7333333333333</v>
@@ -1040,10 +1040,10 @@
         <v>161</v>
       </c>
       <c r="F19" t="n">
-        <v>434.5204</v>
+        <v>139.97</v>
       </c>
       <c r="G19" t="n">
-        <v>161.6833333333333</v>
+        <v>161.7333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F20" t="n">
-        <v>1201.5709</v>
+        <v>434.5204</v>
       </c>
       <c r="G20" t="n">
-        <v>161.65</v>
+        <v>161.6833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C21" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D21" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E21" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F21" t="n">
-        <v>644.091</v>
+        <v>1201.5709</v>
       </c>
       <c r="G21" t="n">
-        <v>161.5833333333333</v>
+        <v>161.65</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>160</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>644.091</v>
       </c>
       <c r="G22" t="n">
-        <v>161.55</v>
+        <v>161.5833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>160</v>
       </c>
       <c r="C23" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E23" t="n">
         <v>160</v>
       </c>
       <c r="F23" t="n">
-        <v>5175.3123</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>161.5166666666667</v>
+        <v>161.55</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>160</v>
       </c>
       <c r="C24" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D24" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E24" t="n">
         <v>160</v>
       </c>
       <c r="F24" t="n">
-        <v>270.7438</v>
+        <v>5175.3123</v>
       </c>
       <c r="G24" t="n">
-        <v>161.5</v>
+        <v>161.5166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,19 +1238,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" t="n">
-        <v>2280.8887</v>
+        <v>270.7438</v>
       </c>
       <c r="G25" t="n">
         <v>161.5</v>
@@ -1285,10 +1285,10 @@
         <v>161</v>
       </c>
       <c r="F26" t="n">
-        <v>239.7315</v>
+        <v>2280.8887</v>
       </c>
       <c r="G26" t="n">
-        <v>161.4833333333333</v>
+        <v>161.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>161</v>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>239.7315</v>
       </c>
       <c r="G27" t="n">
-        <v>161.4666666666667</v>
+        <v>161.4833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>161</v>
       </c>
       <c r="F28" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G28" t="n">
-        <v>161.45</v>
+        <v>161.4666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>161</v>
       </c>
       <c r="D29" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E29" t="n">
         <v>161</v>
       </c>
       <c r="F29" t="n">
-        <v>6020.2954</v>
+        <v>750</v>
       </c>
       <c r="G29" t="n">
-        <v>161.4333333333333</v>
+        <v>161.45</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1419,16 +1419,16 @@
         <v>161</v>
       </c>
       <c r="D30" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E30" t="n">
         <v>161</v>
       </c>
       <c r="F30" t="n">
-        <v>2201.244</v>
+        <v>6020.2954</v>
       </c>
       <c r="G30" t="n">
-        <v>161.4</v>
+        <v>161.4333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C31" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D31" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E31" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F31" t="n">
-        <v>1714.981</v>
+        <v>2201.244</v>
       </c>
       <c r="G31" t="n">
-        <v>161.3833333333333</v>
+        <v>161.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C32" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32" t="n">
         <v>160</v>
@@ -1495,10 +1495,10 @@
         <v>159</v>
       </c>
       <c r="F32" t="n">
-        <v>2193.7615</v>
+        <v>1714.981</v>
       </c>
       <c r="G32" t="n">
-        <v>161.4166666666667</v>
+        <v>161.3833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" t="n">
         <v>160</v>
@@ -1527,13 +1527,13 @@
         <v>160</v>
       </c>
       <c r="E33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F33" t="n">
-        <v>3036.0413</v>
+        <v>2193.7615</v>
       </c>
       <c r="G33" t="n">
-        <v>161.4</v>
+        <v>161.4166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>160</v>
       </c>
       <c r="F34" t="n">
-        <v>10.5</v>
+        <v>3036.0413</v>
       </c>
       <c r="G34" t="n">
-        <v>161.3666666666667</v>
+        <v>161.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F35" t="n">
-        <v>14569.0394</v>
+        <v>10.5</v>
       </c>
       <c r="G35" t="n">
-        <v>161.35</v>
+        <v>161.3666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C36" t="n">
         <v>159</v>
@@ -1632,13 +1632,13 @@
         <v>159</v>
       </c>
       <c r="E36" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F36" t="n">
-        <v>1103.7081</v>
+        <v>14569.0394</v>
       </c>
       <c r="G36" t="n">
-        <v>161.3333333333333</v>
+        <v>161.35</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="n">
         <v>159</v>
@@ -1667,10 +1667,10 @@
         <v>159</v>
       </c>
       <c r="E37" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F37" t="n">
-        <v>939</v>
+        <v>1103.7081</v>
       </c>
       <c r="G37" t="n">
         <v>161.3333333333333</v>
@@ -1705,7 +1705,7 @@
         <v>159</v>
       </c>
       <c r="F38" t="n">
-        <v>2176.7421</v>
+        <v>939</v>
       </c>
       <c r="G38" t="n">
         <v>161.3333333333333</v>
@@ -1740,7 +1740,7 @@
         <v>159</v>
       </c>
       <c r="F39" t="n">
-        <v>2491.3911</v>
+        <v>2176.7421</v>
       </c>
       <c r="G39" t="n">
         <v>161.3333333333333</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E40" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F40" t="n">
-        <v>1155.6007</v>
+        <v>2491.3911</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3166666666667</v>
+        <v>161.3333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>158</v>
       </c>
       <c r="F41" t="n">
-        <v>294.1545</v>
+        <v>1155.6007</v>
       </c>
       <c r="G41" t="n">
-        <v>161.2666666666667</v>
+        <v>161.3166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>158</v>
       </c>
       <c r="C42" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E42" t="n">
         <v>158</v>
       </c>
       <c r="F42" t="n">
-        <v>710.2397999999999</v>
+        <v>294.1545</v>
       </c>
       <c r="G42" t="n">
-        <v>161.2333333333333</v>
+        <v>161.2666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C43" t="n">
         <v>159</v>
@@ -1877,13 +1877,13 @@
         <v>159</v>
       </c>
       <c r="E43" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F43" t="n">
-        <v>542.3807</v>
+        <v>710.2397999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>161.2</v>
+        <v>161.2333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C44" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D44" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E44" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F44" t="n">
-        <v>13452.7438</v>
+        <v>542.3807</v>
       </c>
       <c r="G44" t="n">
-        <v>161.1</v>
+        <v>161.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C45" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D45" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E45" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F45" t="n">
-        <v>874.5897</v>
+        <v>13452.7438</v>
       </c>
       <c r="G45" t="n">
-        <v>161.0666666666667</v>
+        <v>161.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C46" t="n">
         <v>159</v>
@@ -1982,13 +1982,13 @@
         <v>159</v>
       </c>
       <c r="E46" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F46" t="n">
-        <v>17776.8551</v>
+        <v>874.5897</v>
       </c>
       <c r="G46" t="n">
-        <v>161</v>
+        <v>161.0666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C47" t="n">
         <v>159</v>
@@ -2017,13 +2017,13 @@
         <v>159</v>
       </c>
       <c r="E47" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F47" t="n">
-        <v>4265.4774</v>
+        <v>17776.8551</v>
       </c>
       <c r="G47" t="n">
-        <v>160.9333333333333</v>
+        <v>161</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E48" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>4265.4774</v>
       </c>
       <c r="G48" t="n">
-        <v>160.9</v>
+        <v>160.9333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>160</v>
       </c>
       <c r="F49" t="n">
-        <v>721.6592000000001</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>160.85</v>
+        <v>160.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C50" t="n">
         <v>160</v>
       </c>
       <c r="D50" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E50" t="n">
         <v>160</v>
       </c>
       <c r="F50" t="n">
-        <v>433.6845</v>
+        <v>721.6592000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>160.8333333333333</v>
+        <v>160.85</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C51" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D51" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E51" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F51" t="n">
-        <v>1439.3962</v>
+        <v>433.6845</v>
       </c>
       <c r="G51" t="n">
-        <v>160.75</v>
+        <v>160.8333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C52" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D52" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E52" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F52" t="n">
-        <v>9.6645</v>
+        <v>1439.3962</v>
       </c>
       <c r="G52" t="n">
-        <v>160.7333333333333</v>
+        <v>160.75</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C53" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E53" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F53" t="n">
-        <v>145.4668</v>
+        <v>9.6645</v>
       </c>
       <c r="G53" t="n">
-        <v>160.6333333333333</v>
+        <v>160.7333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E54" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54" t="n">
-        <v>327.7732</v>
+        <v>145.4668</v>
       </c>
       <c r="G54" t="n">
-        <v>160.55</v>
+        <v>160.6333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>160</v>
       </c>
       <c r="C55" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" t="n">
         <v>160</v>
       </c>
       <c r="E55" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F55" t="n">
-        <v>8000</v>
+        <v>327.7732</v>
       </c>
       <c r="G55" t="n">
-        <v>160.4833333333333</v>
+        <v>160.55</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>159</v>
       </c>
       <c r="F56" t="n">
-        <v>832.6994999999999</v>
+        <v>8000</v>
       </c>
       <c r="G56" t="n">
-        <v>160.4</v>
+        <v>160.4833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C57" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E57" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F57" t="n">
-        <v>3933</v>
+        <v>832.6994999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>160.3166666666667</v>
+        <v>160.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>158</v>
       </c>
       <c r="F58" t="n">
-        <v>7613.4249</v>
+        <v>3933</v>
       </c>
       <c r="G58" t="n">
-        <v>160.25</v>
+        <v>160.3166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>158</v>
       </c>
       <c r="F59" t="n">
-        <v>276.4439</v>
+        <v>7613.4249</v>
       </c>
       <c r="G59" t="n">
-        <v>160.15</v>
+        <v>160.25</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>158</v>
       </c>
       <c r="F60" t="n">
-        <v>138.222</v>
+        <v>276.4439</v>
       </c>
       <c r="G60" t="n">
-        <v>160.05</v>
+        <v>160.15</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>158</v>
       </c>
       <c r="F61" t="n">
-        <v>93.73950000000001</v>
+        <v>138.222</v>
       </c>
       <c r="G61" t="n">
-        <v>159.9666666666667</v>
+        <v>160.05</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C62" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D62" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E62" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F62" t="n">
-        <v>6194.0341</v>
+        <v>93.73950000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>159.8333333333333</v>
+        <v>159.9666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>157</v>
       </c>
       <c r="F63" t="n">
-        <v>4480</v>
+        <v>6194.0341</v>
       </c>
       <c r="G63" t="n">
-        <v>159.75</v>
+        <v>159.8333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>157</v>
       </c>
       <c r="F64" t="n">
-        <v>5282.9002</v>
+        <v>4480</v>
       </c>
       <c r="G64" t="n">
-        <v>159.65</v>
+        <v>159.75</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>157</v>
       </c>
       <c r="F65" t="n">
-        <v>5028.9776</v>
+        <v>5282.9002</v>
       </c>
       <c r="G65" t="n">
-        <v>159.5833333333333</v>
+        <v>159.65</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C66" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D66" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E66" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F66" t="n">
-        <v>8225.4828</v>
+        <v>5028.9776</v>
       </c>
       <c r="G66" t="n">
-        <v>159.4833333333333</v>
+        <v>159.5833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>156</v>
       </c>
       <c r="C67" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D67" t="n">
         <v>156</v>
       </c>
       <c r="E67" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F67" t="n">
-        <v>223.2687</v>
+        <v>8225.4828</v>
       </c>
       <c r="G67" t="n">
-        <v>159.4166666666667</v>
+        <v>159.4833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>156</v>
       </c>
       <c r="C68" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D68" t="n">
         <v>156</v>
       </c>
       <c r="E68" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F68" t="n">
-        <v>10020</v>
+        <v>223.2687</v>
       </c>
       <c r="G68" t="n">
-        <v>159.3</v>
+        <v>159.4166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C69" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D69" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E69" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F69" t="n">
-        <v>2441.5354</v>
+        <v>10020</v>
       </c>
       <c r="G69" t="n">
-        <v>159.2</v>
+        <v>159.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C70" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D70" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E70" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F70" t="n">
-        <v>240.9413</v>
+        <v>2441.5354</v>
       </c>
       <c r="G70" t="n">
-        <v>159.1</v>
+        <v>159.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>154</v>
       </c>
       <c r="F71" t="n">
-        <v>253.9226</v>
+        <v>240.9413</v>
       </c>
       <c r="G71" t="n">
-        <v>158.9666666666667</v>
+        <v>159.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>154</v>
       </c>
       <c r="F72" t="n">
-        <v>1512.2397</v>
+        <v>253.9226</v>
       </c>
       <c r="G72" t="n">
-        <v>158.8166666666667</v>
+        <v>158.9666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C73" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D73" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E73" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F73" t="n">
-        <v>30</v>
+        <v>1512.2397</v>
       </c>
       <c r="G73" t="n">
-        <v>158.7333333333333</v>
+        <v>158.8166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>155</v>
       </c>
       <c r="F74" t="n">
-        <v>1892.0206</v>
+        <v>30</v>
       </c>
       <c r="G74" t="n">
-        <v>158.6333333333333</v>
+        <v>158.7333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C75" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D75" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E75" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F75" t="n">
-        <v>801.3933</v>
+        <v>1892.0206</v>
       </c>
       <c r="G75" t="n">
-        <v>158.5666666666667</v>
+        <v>158.6333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C76" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D76" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E76" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F76" t="n">
-        <v>25305.5054</v>
+        <v>801.3933</v>
       </c>
       <c r="G76" t="n">
-        <v>158.4333333333333</v>
+        <v>158.5666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>155</v>
       </c>
       <c r="C77" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D77" t="n">
         <v>155</v>
       </c>
       <c r="E77" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F77" t="n">
-        <v>267.8727</v>
+        <v>25305.5054</v>
       </c>
       <c r="G77" t="n">
-        <v>158.35</v>
+        <v>158.4333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C78" t="n">
         <v>155</v>
       </c>
       <c r="D78" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E78" t="n">
         <v>155</v>
       </c>
       <c r="F78" t="n">
-        <v>1503.4394</v>
+        <v>267.8727</v>
       </c>
       <c r="G78" t="n">
-        <v>158.25</v>
+        <v>158.35</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>156</v>
       </c>
       <c r="C79" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D79" t="n">
         <v>156</v>
       </c>
       <c r="E79" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F79" t="n">
-        <v>178.8856</v>
+        <v>1503.4394</v>
       </c>
       <c r="G79" t="n">
-        <v>158.1666666666667</v>
+        <v>158.25</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C80" t="n">
         <v>156</v>
@@ -3172,13 +3172,13 @@
         <v>156</v>
       </c>
       <c r="E80" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F80" t="n">
-        <v>411.1347</v>
+        <v>178.8856</v>
       </c>
       <c r="G80" t="n">
-        <v>158.0666666666667</v>
+        <v>158.1666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D81" t="n">
         <v>156</v>
@@ -3210,10 +3210,10 @@
         <v>155</v>
       </c>
       <c r="F81" t="n">
-        <v>261.98</v>
+        <v>411.1347</v>
       </c>
       <c r="G81" t="n">
-        <v>157.9833333333333</v>
+        <v>158.0666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C82" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D82" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E82" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F82" t="n">
-        <v>11720</v>
+        <v>261.98</v>
       </c>
       <c r="G82" t="n">
-        <v>157.8833333333333</v>
+        <v>157.9833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>155</v>
       </c>
       <c r="C83" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D83" t="n">
         <v>155</v>
       </c>
       <c r="E83" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F83" t="n">
-        <v>5015.3455</v>
+        <v>11720</v>
       </c>
       <c r="G83" t="n">
-        <v>157.7833333333333</v>
+        <v>157.8833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>155</v>
       </c>
       <c r="F84" t="n">
-        <v>99.98999999999999</v>
+        <v>5015.3455</v>
       </c>
       <c r="G84" t="n">
-        <v>157.7</v>
+        <v>157.7833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>155</v>
       </c>
       <c r="F85" t="n">
-        <v>103</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>157.6</v>
+        <v>157.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>155</v>
       </c>
       <c r="F86" t="n">
-        <v>293.5419</v>
+        <v>103</v>
       </c>
       <c r="G86" t="n">
-        <v>157.5</v>
+        <v>157.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C87" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D87" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E87" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F87" t="n">
-        <v>23045.0766</v>
+        <v>293.5419</v>
       </c>
       <c r="G87" t="n">
-        <v>157.3833333333333</v>
+        <v>157.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>154</v>
       </c>
       <c r="F88" t="n">
-        <v>1143.2673</v>
+        <v>23045.0766</v>
       </c>
       <c r="G88" t="n">
-        <v>157.2666666666667</v>
+        <v>157.3833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>154</v>
       </c>
       <c r="F89" t="n">
-        <v>593.6926999999999</v>
+        <v>1143.2673</v>
       </c>
       <c r="G89" t="n">
-        <v>157.15</v>
+        <v>157.2666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>154</v>
       </c>
       <c r="F90" t="n">
-        <v>150</v>
+        <v>593.6926999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>157.0333333333333</v>
+        <v>157.15</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C91" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D91" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E91" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F91" t="n">
-        <v>586.7219</v>
+        <v>150</v>
       </c>
       <c r="G91" t="n">
-        <v>156.9833333333333</v>
+        <v>157.0333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C92" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D92" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E92" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F92" t="n">
-        <v>291.2262</v>
+        <v>586.7219</v>
       </c>
       <c r="G92" t="n">
-        <v>156.9</v>
+        <v>156.9833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>155</v>
       </c>
       <c r="F93" t="n">
-        <v>4483.749</v>
+        <v>291.2262</v>
       </c>
       <c r="G93" t="n">
-        <v>156.8166666666667</v>
+        <v>156.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C94" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D94" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E94" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F94" t="n">
-        <v>9853.9462</v>
+        <v>4483.749</v>
       </c>
       <c r="G94" t="n">
-        <v>156.7166666666667</v>
+        <v>156.8166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C95" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D95" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E95" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F95" t="n">
-        <v>2257.4322</v>
+        <v>9853.9462</v>
       </c>
       <c r="G95" t="n">
-        <v>156.65</v>
+        <v>156.7166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C96" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D96" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E96" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F96" t="n">
-        <v>62089.8317</v>
+        <v>2257.4322</v>
       </c>
       <c r="G96" t="n">
-        <v>156.55</v>
+        <v>156.65</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3764,16 +3764,16 @@
         <v>153</v>
       </c>
       <c r="D97" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E97" t="n">
         <v>153</v>
       </c>
       <c r="F97" t="n">
-        <v>10752.2189</v>
+        <v>62089.8317</v>
       </c>
       <c r="G97" t="n">
-        <v>156.45</v>
+        <v>156.55</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C98" t="n">
         <v>153</v>
       </c>
       <c r="D98" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E98" t="n">
         <v>153</v>
       </c>
       <c r="F98" t="n">
-        <v>116.9701</v>
+        <v>10752.2189</v>
       </c>
       <c r="G98" t="n">
-        <v>156.35</v>
+        <v>156.45</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>153</v>
       </c>
       <c r="F99" t="n">
-        <v>304.9278</v>
+        <v>116.9701</v>
       </c>
       <c r="G99" t="n">
-        <v>156.25</v>
+        <v>156.35</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>153</v>
       </c>
       <c r="C100" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D100" t="n">
         <v>153</v>
       </c>
       <c r="E100" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F100" t="n">
-        <v>2377.5544</v>
+        <v>304.9278</v>
       </c>
       <c r="G100" t="n">
-        <v>156.15</v>
+        <v>156.25</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C101" t="n">
         <v>152</v>
       </c>
       <c r="D101" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E101" t="n">
         <v>152</v>
       </c>
       <c r="F101" t="n">
-        <v>5960</v>
+        <v>2377.5544</v>
       </c>
       <c r="G101" t="n">
-        <v>156.05</v>
+        <v>156.15</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,19 +3945,23 @@
         <v>152</v>
       </c>
       <c r="F102" t="n">
-        <v>7219.8052</v>
+        <v>5960</v>
       </c>
       <c r="G102" t="n">
-        <v>155.9333333333333</v>
+        <v>156.05</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>152</v>
+      </c>
+      <c r="K102" t="n">
+        <v>152</v>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
@@ -3980,10 +3984,10 @@
         <v>152</v>
       </c>
       <c r="F103" t="n">
-        <v>406.1298</v>
+        <v>7219.8052</v>
       </c>
       <c r="G103" t="n">
-        <v>155.8166666666667</v>
+        <v>155.9333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +3996,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>152</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4015,10 +4025,10 @@
         <v>152</v>
       </c>
       <c r="F104" t="n">
-        <v>2443.5236</v>
+        <v>406.1298</v>
       </c>
       <c r="G104" t="n">
-        <v>155.75</v>
+        <v>155.8166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4037,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>152</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4050,19 +4066,23 @@
         <v>152</v>
       </c>
       <c r="F105" t="n">
-        <v>131.5609</v>
+        <v>2443.5236</v>
       </c>
       <c r="G105" t="n">
-        <v>155.6333333333333</v>
+        <v>155.75</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>152</v>
+      </c>
+      <c r="K105" t="n">
+        <v>152</v>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
@@ -4085,20 +4105,28 @@
         <v>152</v>
       </c>
       <c r="F106" t="n">
-        <v>257.9217</v>
+        <v>131.5609</v>
       </c>
       <c r="G106" t="n">
-        <v>155.5166666666667</v>
+        <v>155.6333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>152</v>
+      </c>
+      <c r="K106" t="n">
+        <v>152</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4120,20 +4148,28 @@
         <v>152</v>
       </c>
       <c r="F107" t="n">
-        <v>205.1892</v>
+        <v>257.9217</v>
       </c>
       <c r="G107" t="n">
-        <v>155.4</v>
+        <v>155.5166666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>152</v>
+      </c>
+      <c r="K107" t="n">
+        <v>152</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4155,10 +4191,10 @@
         <v>152</v>
       </c>
       <c r="F108" t="n">
-        <v>1086.8694</v>
+        <v>205.1892</v>
       </c>
       <c r="G108" t="n">
-        <v>155.2666666666667</v>
+        <v>155.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4226,10 @@
         <v>152</v>
       </c>
       <c r="F109" t="n">
-        <v>233.3358</v>
+        <v>1086.8694</v>
       </c>
       <c r="G109" t="n">
-        <v>155.1333333333333</v>
+        <v>155.2666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4261,10 @@
         <v>152</v>
       </c>
       <c r="F110" t="n">
-        <v>213.1213</v>
+        <v>233.3358</v>
       </c>
       <c r="G110" t="n">
-        <v>155</v>
+        <v>155.1333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4284,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C111" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D111" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E111" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F111" t="n">
-        <v>4500</v>
+        <v>213.1213</v>
       </c>
       <c r="G111" t="n">
-        <v>154.9333333333333</v>
+        <v>155</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4299,18 +4335,20 @@
         <v>153</v>
       </c>
       <c r="F112" t="n">
-        <v>406.1298</v>
+        <v>4500</v>
       </c>
       <c r="G112" t="n">
-        <v>154.8</v>
+        <v>154.9333333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>152</v>
+      </c>
       <c r="K112" t="n">
         <v>152</v>
       </c>
@@ -4328,22 +4366,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D113" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E113" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F113" t="n">
-        <v>114.809</v>
+        <v>406.1298</v>
       </c>
       <c r="G113" t="n">
-        <v>154.7166666666667</v>
+        <v>154.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4369,22 +4407,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C114" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D114" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E114" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F114" t="n">
-        <v>1167.7225</v>
+        <v>114.809</v>
       </c>
       <c r="G114" t="n">
-        <v>154.6333333333333</v>
+        <v>154.7166666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4404,22 +4442,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C115" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D115" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E115" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F115" t="n">
-        <v>4165.7038</v>
+        <v>1167.7225</v>
       </c>
       <c r="G115" t="n">
-        <v>154.55</v>
+        <v>154.6333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4451,10 +4489,10 @@
         <v>154</v>
       </c>
       <c r="F116" t="n">
-        <v>4704.1493</v>
+        <v>4165.7038</v>
       </c>
       <c r="G116" t="n">
-        <v>154.4666666666667</v>
+        <v>154.55</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4474,22 +4512,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C117" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D117" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E117" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F117" t="n">
-        <v>2815.8238</v>
+        <v>4704.1493</v>
       </c>
       <c r="G117" t="n">
-        <v>154.3833333333333</v>
+        <v>154.4666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4521,10 +4559,10 @@
         <v>153</v>
       </c>
       <c r="F118" t="n">
-        <v>2546.7396</v>
+        <v>2815.8238</v>
       </c>
       <c r="G118" t="n">
-        <v>154.3</v>
+        <v>154.3833333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4547,19 +4585,19 @@
         <v>153</v>
       </c>
       <c r="C119" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D119" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E119" t="n">
         <v>153</v>
       </c>
       <c r="F119" t="n">
-        <v>1963.2843</v>
+        <v>2546.7396</v>
       </c>
       <c r="G119" t="n">
-        <v>154.2666666666667</v>
+        <v>154.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4579,7 +4617,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C120" t="n">
         <v>156</v>
@@ -4588,13 +4626,13 @@
         <v>156</v>
       </c>
       <c r="E120" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F120" t="n">
-        <v>1.3</v>
+        <v>1963.2843</v>
       </c>
       <c r="G120" t="n">
-        <v>154.2333333333333</v>
+        <v>154.2666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4626,10 +4664,10 @@
         <v>156</v>
       </c>
       <c r="F121" t="n">
-        <v>18</v>
+        <v>1.3</v>
       </c>
       <c r="G121" t="n">
-        <v>154.2</v>
+        <v>154.2333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4661,10 +4699,10 @@
         <v>156</v>
       </c>
       <c r="F122" t="n">
-        <v>6024.2207</v>
+        <v>18</v>
       </c>
       <c r="G122" t="n">
-        <v>154.1833333333333</v>
+        <v>154.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4684,19 +4722,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D123" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E123" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>6024.2207</v>
       </c>
       <c r="G123" t="n">
         <v>154.1833333333333</v>
@@ -4719,22 +4757,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C124" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D124" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E124" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F124" t="n">
-        <v>266.0709</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>154.15</v>
+        <v>154.1833333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4766,16 +4804,16 @@
         <v>155</v>
       </c>
       <c r="F125" t="n">
-        <v>119.0522</v>
+        <v>266.0709</v>
       </c>
       <c r="G125" t="n">
-        <v>154.1166666666667</v>
+        <v>154.15</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4789,28 +4827,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C126" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D126" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E126" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F126" t="n">
-        <v>60</v>
+        <v>119.0522</v>
       </c>
       <c r="G126" t="n">
-        <v>154.1333333333333</v>
+        <v>154.1166666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4836,7 +4874,7 @@
         <v>156</v>
       </c>
       <c r="F127" t="n">
-        <v>1284.705128205128</v>
+        <v>60</v>
       </c>
       <c r="G127" t="n">
         <v>154.1333333333333</v>
@@ -4845,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4859,28 +4897,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C128" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D128" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E128" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F128" t="n">
-        <v>508.2651</v>
+        <v>1284.705128205128</v>
       </c>
       <c r="G128" t="n">
-        <v>154.15</v>
+        <v>154.1333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -4894,28 +4932,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C129" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D129" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E129" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>508.2651</v>
       </c>
       <c r="G129" t="n">
-        <v>154.1666666666667</v>
+        <v>154.15</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4929,22 +4967,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C130" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D130" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E130" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F130" t="n">
-        <v>279.0614</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>154.1833333333333</v>
+        <v>154.1666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4967,16 +5005,16 @@
         <v>155</v>
       </c>
       <c r="C131" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D131" t="n">
         <v>155</v>
       </c>
       <c r="E131" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F131" t="n">
-        <v>8301.693600000001</v>
+        <v>279.0614</v>
       </c>
       <c r="G131" t="n">
         <v>154.1833333333333</v>
@@ -4999,19 +5037,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C132" t="n">
         <v>154</v>
       </c>
       <c r="D132" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E132" t="n">
         <v>154</v>
       </c>
       <c r="F132" t="n">
-        <v>3912.2574</v>
+        <v>8301.693600000001</v>
       </c>
       <c r="G132" t="n">
         <v>154.1833333333333</v>
@@ -5040,16 +5078,16 @@
         <v>154</v>
       </c>
       <c r="D133" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E133" t="n">
         <v>154</v>
       </c>
       <c r="F133" t="n">
-        <v>2847.807</v>
+        <v>3912.2574</v>
       </c>
       <c r="G133" t="n">
-        <v>154.1666666666667</v>
+        <v>154.1833333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5075,16 +5113,16 @@
         <v>154</v>
       </c>
       <c r="D134" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E134" t="n">
         <v>154</v>
       </c>
       <c r="F134" t="n">
-        <v>1000</v>
+        <v>2847.807</v>
       </c>
       <c r="G134" t="n">
-        <v>154.15</v>
+        <v>154.1666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5116,10 +5154,10 @@
         <v>154</v>
       </c>
       <c r="F135" t="n">
-        <v>1975.1665</v>
+        <v>1000</v>
       </c>
       <c r="G135" t="n">
-        <v>154.1166666666667</v>
+        <v>154.15</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5139,22 +5177,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C136" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D136" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E136" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F136" t="n">
-        <v>2296.1991</v>
+        <v>1975.1665</v>
       </c>
       <c r="G136" t="n">
-        <v>154.1833333333333</v>
+        <v>154.1166666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5174,22 +5212,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C137" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D137" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E137" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>2296.1991</v>
       </c>
       <c r="G137" t="n">
-        <v>154.2333333333333</v>
+        <v>154.1833333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5209,22 +5247,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C138" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D138" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E138" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F138" t="n">
-        <v>264.9159</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>154.25</v>
+        <v>154.2333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5256,7 +5294,7 @@
         <v>156</v>
       </c>
       <c r="F139" t="n">
-        <v>212.1266</v>
+        <v>264.9159</v>
       </c>
       <c r="G139" t="n">
         <v>154.25</v>
@@ -5279,22 +5317,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C140" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D140" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E140" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>212.1266</v>
       </c>
       <c r="G140" t="n">
-        <v>154.2666666666667</v>
+        <v>154.25</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5326,10 +5364,10 @@
         <v>157</v>
       </c>
       <c r="F141" t="n">
-        <v>4287.9369</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>154.3</v>
+        <v>154.2666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5352,19 +5390,19 @@
         <v>157</v>
       </c>
       <c r="C142" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D142" t="n">
         <v>157</v>
       </c>
       <c r="E142" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F142" t="n">
-        <v>4189.6013</v>
+        <v>4287.9369</v>
       </c>
       <c r="G142" t="n">
-        <v>154.3333333333333</v>
+        <v>154.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5384,22 +5422,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C143" t="n">
         <v>156</v>
       </c>
       <c r="D143" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E143" t="n">
         <v>156</v>
       </c>
       <c r="F143" t="n">
-        <v>528</v>
+        <v>4189.6013</v>
       </c>
       <c r="G143" t="n">
-        <v>154.35</v>
+        <v>154.3333333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5419,28 +5457,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D144" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E144" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>528</v>
       </c>
       <c r="G144" t="n">
-        <v>154.3833333333333</v>
+        <v>154.35</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5454,22 +5492,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C145" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D145" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E145" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F145" t="n">
-        <v>3925.2488</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>154.4</v>
+        <v>154.3833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5492,16 +5530,16 @@
         <v>156</v>
       </c>
       <c r="C146" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D146" t="n">
         <v>156</v>
       </c>
       <c r="E146" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F146" t="n">
-        <v>2298.4854</v>
+        <v>3925.2488</v>
       </c>
       <c r="G146" t="n">
         <v>154.4</v>
@@ -5510,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5527,25 +5565,25 @@
         <v>156</v>
       </c>
       <c r="C147" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D147" t="n">
         <v>156</v>
       </c>
       <c r="E147" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F147" t="n">
-        <v>265.7523</v>
+        <v>2298.4854</v>
       </c>
       <c r="G147" t="n">
-        <v>154.4333333333333</v>
+        <v>154.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -5571,10 +5609,10 @@
         <v>156</v>
       </c>
       <c r="F148" t="n">
-        <v>150</v>
+        <v>265.7523</v>
       </c>
       <c r="G148" t="n">
-        <v>154.4666666666667</v>
+        <v>154.4333333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5606,10 +5644,10 @@
         <v>156</v>
       </c>
       <c r="F149" t="n">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="G149" t="n">
-        <v>154.5</v>
+        <v>154.4666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5629,22 +5667,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C150" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D150" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E150" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F150" t="n">
-        <v>18.1937</v>
+        <v>251</v>
       </c>
       <c r="G150" t="n">
-        <v>154.55</v>
+        <v>154.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5664,19 +5702,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C151" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D151" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E151" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F151" t="n">
-        <v>621.562</v>
+        <v>18.1937</v>
       </c>
       <c r="G151" t="n">
         <v>154.55</v>
@@ -5711,10 +5749,10 @@
         <v>156</v>
       </c>
       <c r="F152" t="n">
-        <v>1122</v>
+        <v>621.562</v>
       </c>
       <c r="G152" t="n">
-        <v>154.5666666666667</v>
+        <v>154.55</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5746,10 +5784,10 @@
         <v>156</v>
       </c>
       <c r="F153" t="n">
-        <v>756</v>
+        <v>1122</v>
       </c>
       <c r="G153" t="n">
-        <v>154.5833333333333</v>
+        <v>154.5666666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5781,10 +5819,10 @@
         <v>156</v>
       </c>
       <c r="F154" t="n">
-        <v>252</v>
+        <v>756</v>
       </c>
       <c r="G154" t="n">
-        <v>154.6166666666667</v>
+        <v>154.5833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5816,10 +5854,10 @@
         <v>156</v>
       </c>
       <c r="F155" t="n">
-        <v>1607.8269</v>
+        <v>252</v>
       </c>
       <c r="G155" t="n">
-        <v>154.6333333333333</v>
+        <v>154.6166666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5839,22 +5877,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D156" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E156" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F156" t="n">
-        <v>4360.6079</v>
+        <v>1607.8269</v>
       </c>
       <c r="G156" t="n">
-        <v>154.6666666666667</v>
+        <v>154.6333333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5886,10 +5924,10 @@
         <v>155</v>
       </c>
       <c r="F157" t="n">
-        <v>157.1765</v>
+        <v>4360.6079</v>
       </c>
       <c r="G157" t="n">
-        <v>154.7</v>
+        <v>154.6666666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5921,10 +5959,10 @@
         <v>155</v>
       </c>
       <c r="F158" t="n">
-        <v>1381.0385</v>
+        <v>157.1765</v>
       </c>
       <c r="G158" t="n">
-        <v>154.7333333333333</v>
+        <v>154.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5944,22 +5982,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C159" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D159" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E159" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F159" t="n">
-        <v>926.3176999999999</v>
+        <v>1381.0385</v>
       </c>
       <c r="G159" t="n">
-        <v>154.75</v>
+        <v>154.7333333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5991,10 +6029,10 @@
         <v>154</v>
       </c>
       <c r="F160" t="n">
-        <v>2541.3079</v>
+        <v>926.3176999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>154.7833333333333</v>
+        <v>154.75</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6014,22 +6052,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C161" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D161" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E161" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F161" t="n">
-        <v>4441.7465</v>
+        <v>2541.3079</v>
       </c>
       <c r="G161" t="n">
-        <v>154.8</v>
+        <v>154.7833333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6049,22 +6087,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C162" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D162" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E162" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F162" t="n">
-        <v>438</v>
+        <v>4441.7465</v>
       </c>
       <c r="G162" t="n">
-        <v>154.85</v>
+        <v>154.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6096,10 +6134,10 @@
         <v>155</v>
       </c>
       <c r="F163" t="n">
-        <v>90.15479999999999</v>
+        <v>438</v>
       </c>
       <c r="G163" t="n">
-        <v>154.9</v>
+        <v>154.85</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6122,19 +6160,19 @@
         <v>155</v>
       </c>
       <c r="C164" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D164" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E164" t="n">
         <v>155</v>
       </c>
       <c r="F164" t="n">
-        <v>931</v>
+        <v>90.15479999999999</v>
       </c>
       <c r="G164" t="n">
-        <v>154.9666666666667</v>
+        <v>154.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6154,22 +6192,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C165" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D165" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E165" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F165" t="n">
-        <v>7157.326</v>
+        <v>931</v>
       </c>
       <c r="G165" t="n">
-        <v>154.9833333333333</v>
+        <v>154.9666666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6189,22 +6227,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C166" t="n">
         <v>153</v>
       </c>
       <c r="D166" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E166" t="n">
         <v>153</v>
       </c>
       <c r="F166" t="n">
-        <v>2130.6417</v>
+        <v>7157.326</v>
       </c>
       <c r="G166" t="n">
-        <v>155</v>
+        <v>154.9833333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6224,22 +6262,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C167" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D167" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E167" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F167" t="n">
-        <v>99.15689999999999</v>
+        <v>2130.6417</v>
       </c>
       <c r="G167" t="n">
-        <v>155.0666666666667</v>
+        <v>155</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6259,22 +6297,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C168" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D168" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E168" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F168" t="n">
-        <v>115.2991</v>
+        <v>99.15689999999999</v>
       </c>
       <c r="G168" t="n">
-        <v>155.1166666666667</v>
+        <v>155.0666666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6306,10 +6344,10 @@
         <v>155</v>
       </c>
       <c r="F169" t="n">
-        <v>146.8456</v>
+        <v>115.2991</v>
       </c>
       <c r="G169" t="n">
-        <v>155.1666666666667</v>
+        <v>155.1166666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6329,22 +6367,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C170" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D170" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E170" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F170" t="n">
-        <v>5230.5958</v>
+        <v>146.8456</v>
       </c>
       <c r="G170" t="n">
-        <v>155.2666666666667</v>
+        <v>155.1666666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6364,22 +6402,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C171" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D171" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E171" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F171" t="n">
-        <v>4501.35</v>
+        <v>5230.5958</v>
       </c>
       <c r="G171" t="n">
-        <v>155.3</v>
+        <v>155.2666666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6399,19 +6437,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C172" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D172" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E172" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>4501.35</v>
       </c>
       <c r="G172" t="n">
         <v>155.3</v>
@@ -6434,22 +6472,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C173" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D173" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E173" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F173" t="n">
-        <v>4711.6592</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>155.3333333333333</v>
+        <v>155.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6469,22 +6507,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C174" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D174" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E174" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F174" t="n">
-        <v>6383.8934</v>
+        <v>4711.6592</v>
       </c>
       <c r="G174" t="n">
-        <v>155.3666666666667</v>
+        <v>155.3333333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6507,19 +6545,19 @@
         <v>157</v>
       </c>
       <c r="C175" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D175" t="n">
         <v>157</v>
       </c>
       <c r="E175" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F175" t="n">
-        <v>5196.8454</v>
+        <v>6383.8934</v>
       </c>
       <c r="G175" t="n">
-        <v>155.35</v>
+        <v>155.3666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6542,19 +6580,19 @@
         <v>157</v>
       </c>
       <c r="C176" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D176" t="n">
         <v>157</v>
       </c>
       <c r="E176" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F176" t="n">
-        <v>300</v>
+        <v>5196.8454</v>
       </c>
       <c r="G176" t="n">
-        <v>155.4</v>
+        <v>155.35</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6574,31 +6612,35 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C177" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D177" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E177" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F177" t="n">
-        <v>5076.3473</v>
+        <v>300</v>
       </c>
       <c r="G177" t="n">
-        <v>155.5</v>
+        <v>155.4</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>153</v>
+      </c>
+      <c r="K177" t="n">
+        <v>153</v>
+      </c>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
@@ -6609,22 +6651,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C178" t="n">
         <v>159</v>
       </c>
       <c r="D178" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E178" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F178" t="n">
-        <v>4581.174</v>
+        <v>5076.3473</v>
       </c>
       <c r="G178" t="n">
-        <v>155.6</v>
+        <v>155.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6633,8 +6675,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>153</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6644,22 +6692,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C179" t="n">
         <v>159</v>
       </c>
       <c r="D179" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E179" t="n">
         <v>159</v>
       </c>
       <c r="F179" t="n">
-        <v>2548.9559</v>
+        <v>4581.174</v>
       </c>
       <c r="G179" t="n">
-        <v>155.65</v>
+        <v>155.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6668,8 +6716,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>153</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6691,10 +6745,10 @@
         <v>159</v>
       </c>
       <c r="F180" t="n">
-        <v>750</v>
+        <v>2548.9559</v>
       </c>
       <c r="G180" t="n">
-        <v>155.7</v>
+        <v>155.65</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6717,19 +6771,19 @@
         <v>159</v>
       </c>
       <c r="C181" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D181" t="n">
         <v>159</v>
       </c>
       <c r="E181" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F181" t="n">
-        <v>2750</v>
+        <v>750</v>
       </c>
       <c r="G181" t="n">
-        <v>155.7333333333333</v>
+        <v>155.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6749,28 +6803,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C182" t="n">
         <v>158</v>
       </c>
       <c r="D182" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E182" t="n">
         <v>158</v>
       </c>
       <c r="F182" t="n">
-        <v>5245.7585</v>
+        <v>2750</v>
       </c>
       <c r="G182" t="n">
-        <v>155.7666666666667</v>
+        <v>155.7333333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -6784,22 +6838,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C183" t="n">
         <v>158</v>
       </c>
       <c r="D183" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E183" t="n">
         <v>158</v>
       </c>
       <c r="F183" t="n">
-        <v>9180.497600000001</v>
+        <v>5245.7585</v>
       </c>
       <c r="G183" t="n">
-        <v>155.7833333333333</v>
+        <v>155.7666666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6819,22 +6873,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C184" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D184" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E184" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F184" t="n">
-        <v>264.484</v>
+        <v>9180.497600000001</v>
       </c>
       <c r="G184" t="n">
-        <v>155.85</v>
+        <v>155.7833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6857,19 +6911,19 @@
         <v>159</v>
       </c>
       <c r="C185" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D185" t="n">
         <v>159</v>
       </c>
       <c r="E185" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F185" t="n">
-        <v>5712.0734</v>
+        <v>264.484</v>
       </c>
       <c r="G185" t="n">
-        <v>155.9</v>
+        <v>155.85</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6889,22 +6943,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C186" t="n">
         <v>158</v>
       </c>
       <c r="D186" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E186" t="n">
         <v>158</v>
       </c>
       <c r="F186" t="n">
-        <v>925.5086</v>
+        <v>5712.0734</v>
       </c>
       <c r="G186" t="n">
-        <v>155.9333333333333</v>
+        <v>155.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6924,22 +6978,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C187" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D187" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E187" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F187" t="n">
-        <v>2901.1257</v>
+        <v>925.5086</v>
       </c>
       <c r="G187" t="n">
-        <v>155.9833333333333</v>
+        <v>155.9333333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6971,10 +7025,10 @@
         <v>159</v>
       </c>
       <c r="F188" t="n">
-        <v>1416.701</v>
+        <v>2901.1257</v>
       </c>
       <c r="G188" t="n">
-        <v>156.05</v>
+        <v>155.9833333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7006,10 +7060,10 @@
         <v>159</v>
       </c>
       <c r="F189" t="n">
-        <v>2582.299</v>
+        <v>1416.701</v>
       </c>
       <c r="G189" t="n">
-        <v>156.1</v>
+        <v>156.05</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7029,22 +7083,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C190" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D190" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E190" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F190" t="n">
-        <v>3518.2202</v>
+        <v>2582.299</v>
       </c>
       <c r="G190" t="n">
-        <v>156.1833333333333</v>
+        <v>156.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7067,19 +7121,19 @@
         <v>160</v>
       </c>
       <c r="C191" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D191" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E191" t="n">
         <v>160</v>
       </c>
       <c r="F191" t="n">
-        <v>8906.2271</v>
+        <v>3518.2202</v>
       </c>
       <c r="G191" t="n">
-        <v>156.3</v>
+        <v>156.1833333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7099,7 +7153,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C192" t="n">
         <v>161</v>
@@ -7108,13 +7162,13 @@
         <v>161</v>
       </c>
       <c r="E192" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F192" t="n">
-        <v>2316.4674</v>
+        <v>8906.2271</v>
       </c>
       <c r="G192" t="n">
-        <v>156.4166666666667</v>
+        <v>156.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7137,19 +7191,19 @@
         <v>161</v>
       </c>
       <c r="C193" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D193" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E193" t="n">
         <v>161</v>
       </c>
       <c r="F193" t="n">
-        <v>3146.4425</v>
+        <v>2316.4674</v>
       </c>
       <c r="G193" t="n">
-        <v>156.55</v>
+        <v>156.4166666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7172,19 +7226,19 @@
         <v>161</v>
       </c>
       <c r="C194" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D194" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E194" t="n">
         <v>161</v>
       </c>
       <c r="F194" t="n">
-        <v>637.3506</v>
+        <v>3146.4425</v>
       </c>
       <c r="G194" t="n">
-        <v>156.6666666666667</v>
+        <v>156.55</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7204,22 +7258,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C195" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D195" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E195" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F195" t="n">
-        <v>5297.4609</v>
+        <v>637.3506</v>
       </c>
       <c r="G195" t="n">
-        <v>156.75</v>
+        <v>156.6666666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7239,22 +7293,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C196" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D196" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E196" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F196" t="n">
-        <v>267.0992</v>
+        <v>5297.4609</v>
       </c>
       <c r="G196" t="n">
-        <v>156.8166666666667</v>
+        <v>156.75</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7274,22 +7328,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C197" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D197" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E197" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F197" t="n">
-        <v>929.0683</v>
+        <v>267.0992</v>
       </c>
       <c r="G197" t="n">
-        <v>156.8333333333333</v>
+        <v>156.8166666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7309,22 +7363,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C198" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D198" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E198" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F198" t="n">
-        <v>5245.7585</v>
+        <v>929.0683</v>
       </c>
       <c r="G198" t="n">
-        <v>156.8666666666667</v>
+        <v>156.8333333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7347,19 +7401,19 @@
         <v>158</v>
       </c>
       <c r="C199" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D199" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E199" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F199" t="n">
-        <v>15015.5552</v>
+        <v>5245.7585</v>
       </c>
       <c r="G199" t="n">
-        <v>156.9166666666667</v>
+        <v>156.8666666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7379,22 +7433,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C200" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D200" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E200" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F200" t="n">
-        <v>5382.2038</v>
+        <v>15015.5552</v>
       </c>
       <c r="G200" t="n">
-        <v>156.9666666666667</v>
+        <v>156.9166666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7414,22 +7468,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C201" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D201" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E201" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F201" t="n">
-        <v>1718.2879</v>
+        <v>5382.2038</v>
       </c>
       <c r="G201" t="n">
-        <v>156.9833333333333</v>
+        <v>156.9666666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7449,22 +7503,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C202" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D202" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E202" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F202" t="n">
-        <v>492.6584</v>
+        <v>1718.2879</v>
       </c>
       <c r="G202" t="n">
-        <v>157.05</v>
+        <v>156.9833333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7496,10 +7550,10 @@
         <v>160</v>
       </c>
       <c r="F203" t="n">
-        <v>13493.9187</v>
+        <v>492.6584</v>
       </c>
       <c r="G203" t="n">
-        <v>157.1166666666667</v>
+        <v>157.05</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7531,10 +7585,10 @@
         <v>160</v>
       </c>
       <c r="F204" t="n">
-        <v>1702.7268</v>
+        <v>13493.9187</v>
       </c>
       <c r="G204" t="n">
-        <v>157.1666666666667</v>
+        <v>157.1166666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7557,19 +7611,19 @@
         <v>160</v>
       </c>
       <c r="C205" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D205" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E205" t="n">
         <v>160</v>
       </c>
       <c r="F205" t="n">
-        <v>34823.4902</v>
+        <v>1702.7268</v>
       </c>
       <c r="G205" t="n">
-        <v>157.2833333333333</v>
+        <v>157.1666666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7584,6 +7638,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>160</v>
+      </c>
+      <c r="C206" t="n">
+        <v>163</v>
+      </c>
+      <c r="D206" t="n">
+        <v>163</v>
+      </c>
+      <c r="E206" t="n">
+        <v>160</v>
+      </c>
+      <c r="F206" t="n">
+        <v>34823.4902</v>
+      </c>
+      <c r="G206" t="n">
+        <v>157.2833333333333</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest ITC.xlsx
+++ b/BackTest/2019-11-01 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:N216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>235.575</v>
       </c>
       <c r="G2" t="n">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>161.7333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5868.5332</v>
       </c>
       <c r="G3" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="H3" t="n">
         <v>161.75</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1944.0538</v>
       </c>
       <c r="G4" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="H4" t="n">
         <v>161.7333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>245.0405</v>
       </c>
       <c r="G5" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="H5" t="n">
         <v>161.7333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>7318.6027</v>
       </c>
       <c r="G6" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="H6" t="n">
         <v>161.7</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>11582.3798</v>
       </c>
       <c r="G7" t="n">
+        <v>163.1333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>161.6666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1604.7562</v>
       </c>
       <c r="G8" t="n">
+        <v>163</v>
+      </c>
+      <c r="H8" t="n">
         <v>161.6166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>141.8857</v>
       </c>
       <c r="G9" t="n">
+        <v>162.7333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>161.6</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>62.1118</v>
       </c>
       <c r="G10" t="n">
+        <v>162.4666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>161.6</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>25000</v>
       </c>
       <c r="G11" t="n">
+        <v>162.2666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>161.5833333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>11655.7437</v>
       </c>
       <c r="G12" t="n">
+        <v>162.1333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>161.6</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>216.34</v>
       </c>
       <c r="G13" t="n">
+        <v>162.1333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>161.6333333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>11259.8228</v>
       </c>
       <c r="G14" t="n">
+        <v>162</v>
+      </c>
+      <c r="H14" t="n">
         <v>161.65</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>259.13</v>
       </c>
       <c r="G15" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="H15" t="n">
         <v>161.6833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>272.6613</v>
       </c>
       <c r="G16" t="n">
+        <v>161.5333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>161.7166666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>475.47</v>
       </c>
       <c r="G17" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="H17" t="n">
         <v>161.75</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>2470.2679</v>
       </c>
       <c r="G18" t="n">
+        <v>161.0666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>161.7333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>139.97</v>
       </c>
       <c r="G19" t="n">
+        <v>161</v>
+      </c>
+      <c r="H19" t="n">
         <v>161.7333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>434.5204</v>
       </c>
       <c r="G20" t="n">
+        <v>160.8666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>161.6833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1201.5709</v>
       </c>
       <c r="G21" t="n">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>161.65</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>644.091</v>
       </c>
       <c r="G22" t="n">
+        <v>160.8666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>161.5833333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
+        <v>160.8666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>161.55</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>5175.3123</v>
       </c>
       <c r="G24" t="n">
+        <v>160.8666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>161.5166666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>270.7438</v>
       </c>
       <c r="G25" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="H25" t="n">
         <v>161.5</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>2280.8887</v>
       </c>
       <c r="G26" t="n">
+        <v>160.8666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>161.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>239.7315</v>
       </c>
       <c r="G27" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="H27" t="n">
         <v>161.4833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>500</v>
       </c>
       <c r="G28" t="n">
+        <v>160.6666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>161.4666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>750</v>
       </c>
       <c r="G29" t="n">
+        <v>160.7333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>161.45</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>6020.2954</v>
       </c>
       <c r="G30" t="n">
+        <v>160.7333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>161.4333333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>2201.244</v>
       </c>
       <c r="G31" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="H31" t="n">
         <v>161.4</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1714.981</v>
       </c>
       <c r="G32" t="n">
+        <v>160.6666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>161.3833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>2193.7615</v>
       </c>
       <c r="G33" t="n">
+        <v>160.6666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>161.4166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>3036.0413</v>
       </c>
       <c r="G34" t="n">
+        <v>160.6</v>
+      </c>
+      <c r="H34" t="n">
         <v>161.4</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>10.5</v>
       </c>
       <c r="G35" t="n">
+        <v>160.5333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>161.3666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>14569.0394</v>
       </c>
       <c r="G36" t="n">
+        <v>160.3333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>161.35</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1103.7081</v>
       </c>
       <c r="G37" t="n">
+        <v>160.2666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>161.3333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>939</v>
       </c>
       <c r="G38" t="n">
+        <v>160.2</v>
+      </c>
+      <c r="H38" t="n">
         <v>161.3333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>2176.7421</v>
       </c>
       <c r="G39" t="n">
+        <v>160.0666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>161.3333333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>2491.3911</v>
       </c>
       <c r="G40" t="n">
+        <v>160</v>
+      </c>
+      <c r="H40" t="n">
         <v>161.3333333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>1155.6007</v>
       </c>
       <c r="G41" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="H41" t="n">
         <v>161.3166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>294.1545</v>
       </c>
       <c r="G42" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="H42" t="n">
         <v>161.2666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>710.2397999999999</v>
       </c>
       <c r="G43" t="n">
+        <v>159.4666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>161.2333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>542.3807</v>
       </c>
       <c r="G44" t="n">
+        <v>159.3333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>161.2</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>13452.7438</v>
       </c>
       <c r="G45" t="n">
+        <v>159</v>
+      </c>
+      <c r="H45" t="n">
         <v>161.1</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>874.5897</v>
       </c>
       <c r="G46" t="n">
+        <v>158.8666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>161.0666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>17776.8551</v>
       </c>
       <c r="G47" t="n">
+        <v>158.8666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>161</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>4265.4774</v>
       </c>
       <c r="G48" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="H48" t="n">
         <v>160.9333333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="H49" t="n">
         <v>160.9</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>721.6592000000001</v>
       </c>
       <c r="G50" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="H50" t="n">
         <v>160.85</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>433.6845</v>
       </c>
       <c r="G51" t="n">
+        <v>158.8666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>160.8333333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1439.3962</v>
       </c>
       <c r="G52" t="n">
+        <v>158.7333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>160.75</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>9.6645</v>
       </c>
       <c r="G53" t="n">
+        <v>158.8666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>160.7333333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>145.4668</v>
       </c>
       <c r="G54" t="n">
+        <v>158.8666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>160.6333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>327.7732</v>
       </c>
       <c r="G55" t="n">
+        <v>158.9333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>160.55</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>8000</v>
       </c>
       <c r="G56" t="n">
+        <v>159</v>
+      </c>
+      <c r="H56" t="n">
         <v>160.4833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>832.6994999999999</v>
       </c>
       <c r="G57" t="n">
+        <v>159.0666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>160.4</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>3933</v>
       </c>
       <c r="G58" t="n">
+        <v>159</v>
+      </c>
+      <c r="H58" t="n">
         <v>160.3166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>7613.4249</v>
       </c>
       <c r="G59" t="n">
+        <v>158.9333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>160.25</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>276.4439</v>
       </c>
       <c r="G60" t="n">
+        <v>159.0666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>160.15</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>138.222</v>
       </c>
       <c r="G61" t="n">
+        <v>159</v>
+      </c>
+      <c r="H61" t="n">
         <v>160.05</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>93.73950000000001</v>
       </c>
       <c r="G62" t="n">
+        <v>158.9333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>159.9666666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>6194.0341</v>
       </c>
       <c r="G63" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="H63" t="n">
         <v>159.8333333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>4480</v>
       </c>
       <c r="G64" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="H64" t="n">
         <v>159.75</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>5282.9002</v>
       </c>
       <c r="G65" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="H65" t="n">
         <v>159.65</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>5028.9776</v>
       </c>
       <c r="G66" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="H66" t="n">
         <v>159.5833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>8225.4828</v>
       </c>
       <c r="G67" t="n">
+        <v>158.0666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>159.4833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>223.2687</v>
       </c>
       <c r="G68" t="n">
+        <v>157.7333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>159.4166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>10020</v>
       </c>
       <c r="G69" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="H69" t="n">
         <v>159.3</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>2441.5354</v>
       </c>
       <c r="G70" t="n">
+        <v>157.0666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>159.2</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>240.9413</v>
       </c>
       <c r="G71" t="n">
+        <v>156.7333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>159.1</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>253.9226</v>
       </c>
       <c r="G72" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="H72" t="n">
         <v>158.9666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>1512.2397</v>
       </c>
       <c r="G73" t="n">
+        <v>156.1333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>158.8166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>30</v>
       </c>
       <c r="G74" t="n">
+        <v>155.9333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>158.7333333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>1892.0206</v>
       </c>
       <c r="G75" t="n">
+        <v>155.7333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>158.6333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>801.3933</v>
       </c>
       <c r="G76" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="H76" t="n">
         <v>158.5666666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>25305.5054</v>
       </c>
       <c r="G77" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>158.4333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>267.8727</v>
       </c>
       <c r="G78" t="n">
+        <v>155.1333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>158.35</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1503.4394</v>
       </c>
       <c r="G79" t="n">
+        <v>155</v>
+      </c>
+      <c r="H79" t="n">
         <v>158.25</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>178.8856</v>
       </c>
       <c r="G80" t="n">
+        <v>154.9333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>158.1666666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>411.1347</v>
       </c>
       <c r="G81" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>158.0666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>261.98</v>
       </c>
       <c r="G82" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>157.9833333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>11720</v>
       </c>
       <c r="G83" t="n">
+        <v>154.7333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>157.8833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>5015.3455</v>
       </c>
       <c r="G84" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="H84" t="n">
         <v>157.7833333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>99.98999999999999</v>
       </c>
       <c r="G85" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="H85" t="n">
         <v>157.7</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>103</v>
       </c>
       <c r="G86" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>157.6</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>293.5419</v>
       </c>
       <c r="G87" t="n">
+        <v>154.9333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>157.5</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>23045.0766</v>
       </c>
       <c r="G88" t="n">
+        <v>154.9333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>157.3833333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>1143.2673</v>
       </c>
       <c r="G89" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>157.2666666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>593.6926999999999</v>
       </c>
       <c r="G90" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="H90" t="n">
         <v>157.15</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>150</v>
       </c>
       <c r="G91" t="n">
+        <v>154.6666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>157.0333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>586.7219</v>
       </c>
       <c r="G92" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>156.9833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>291.2262</v>
       </c>
       <c r="G93" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>156.9</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>4483.749</v>
       </c>
       <c r="G94" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>156.8166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>9853.9462</v>
       </c>
       <c r="G95" t="n">
+        <v>154.7333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>156.7166666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>2257.4322</v>
       </c>
       <c r="G96" t="n">
+        <v>154.6666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>156.65</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>62089.8317</v>
       </c>
       <c r="G97" t="n">
+        <v>154.5333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>156.55</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>10752.2189</v>
       </c>
       <c r="G98" t="n">
+        <v>154.4666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>156.45</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>116.9701</v>
       </c>
       <c r="G99" t="n">
+        <v>154.3333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>156.35</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>304.9278</v>
       </c>
       <c r="G100" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="H100" t="n">
         <v>156.25</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>2377.5544</v>
       </c>
       <c r="G101" t="n">
+        <v>154</v>
+      </c>
+      <c r="H101" t="n">
         <v>156.15</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,22 +4253,21 @@
         <v>5960</v>
       </c>
       <c r="G102" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="H102" t="n">
         <v>156.05</v>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>152</v>
-      </c>
-      <c r="K102" t="n">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3987,24 +4291,21 @@
         <v>7219.8052</v>
       </c>
       <c r="G103" t="n">
+        <v>153.6666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>155.9333333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>152</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,24 +4329,21 @@
         <v>406.1298</v>
       </c>
       <c r="G104" t="n">
+        <v>153.5333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>155.8166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>152</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,22 +4367,21 @@
         <v>2443.5236</v>
       </c>
       <c r="G105" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="H105" t="n">
         <v>155.75</v>
       </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>152</v>
-      </c>
-      <c r="K105" t="n">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,26 +4405,21 @@
         <v>131.5609</v>
       </c>
       <c r="G106" t="n">
+        <v>153.2666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>155.6333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>152</v>
-      </c>
-      <c r="K106" t="n">
-        <v>152</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4151,26 +4443,21 @@
         <v>257.9217</v>
       </c>
       <c r="G107" t="n">
+        <v>153</v>
+      </c>
+      <c r="H107" t="n">
         <v>155.5166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>152</v>
-      </c>
-      <c r="K107" t="n">
-        <v>152</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,18 +4481,21 @@
         <v>205.1892</v>
       </c>
       <c r="G108" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="H108" t="n">
         <v>155.4</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,18 +4519,25 @@
         <v>1086.8694</v>
       </c>
       <c r="G109" t="n">
+        <v>152.6</v>
+      </c>
+      <c r="H109" t="n">
         <v>155.2666666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>152</v>
+      </c>
+      <c r="L109" t="n">
+        <v>152</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,18 +4561,27 @@
         <v>233.3358</v>
       </c>
       <c r="G110" t="n">
+        <v>152.4666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>155.1333333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>152</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4299,22 +4605,29 @@
         <v>213.1213</v>
       </c>
       <c r="G111" t="n">
-        <v>155</v>
+        <v>152.2666666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
         <v>152</v>
       </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>152</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4338,26 +4651,25 @@
         <v>4500</v>
       </c>
       <c r="G112" t="n">
+        <v>152.2666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>154.9333333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
         <v>152</v>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>152</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4381,24 +4693,29 @@
         <v>406.1298</v>
       </c>
       <c r="G113" t="n">
+        <v>152.2666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>154.8</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="n">
+        <v>153</v>
+      </c>
+      <c r="L113" t="n">
         <v>152</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,18 +4739,29 @@
         <v>114.809</v>
       </c>
       <c r="G114" t="n">
+        <v>152.3333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>154.7166666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>153</v>
+      </c>
+      <c r="L114" t="n">
+        <v>152</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,18 +4785,25 @@
         <v>1167.7225</v>
       </c>
       <c r="G115" t="n">
+        <v>152.4666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>154.6333333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>154</v>
+      </c>
+      <c r="L115" t="n">
+        <v>154</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,18 +4827,29 @@
         <v>4165.7038</v>
       </c>
       <c r="G116" t="n">
+        <v>152.6</v>
+      </c>
+      <c r="H116" t="n">
         <v>154.55</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>155</v>
+      </c>
+      <c r="L116" t="n">
+        <v>154</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4527,18 +4873,27 @@
         <v>4704.1493</v>
       </c>
       <c r="G117" t="n">
+        <v>152.7333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>154.4666666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>154</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,18 +4917,21 @@
         <v>2815.8238</v>
       </c>
       <c r="G118" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="H118" t="n">
         <v>154.3833333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4597,18 +4955,25 @@
         <v>2546.7396</v>
       </c>
       <c r="G119" t="n">
+        <v>152.8666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>154.3</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>153</v>
+      </c>
+      <c r="L119" t="n">
+        <v>153</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,18 +4997,29 @@
         <v>1963.2843</v>
       </c>
       <c r="G120" t="n">
+        <v>153.1333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>154.2666666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>153</v>
+      </c>
+      <c r="L120" t="n">
+        <v>153</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4667,18 +5043,29 @@
         <v>1.3</v>
       </c>
       <c r="G121" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="H121" t="n">
         <v>154.2333333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>156</v>
+      </c>
+      <c r="L121" t="n">
+        <v>153</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,18 +5089,27 @@
         <v>18</v>
       </c>
       <c r="G122" t="n">
+        <v>153.6666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>154.2</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>153</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,18 +5133,27 @@
         <v>6024.2207</v>
       </c>
       <c r="G123" t="n">
+        <v>153.9333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>154.1833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>153</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,18 +5177,27 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
+        <v>154.2666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>154.1833333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>153</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,18 +5221,27 @@
         <v>266.0709</v>
       </c>
       <c r="G125" t="n">
+        <v>154.4666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>154.15</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>153</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,18 +5265,27 @@
         <v>119.0522</v>
       </c>
       <c r="G126" t="n">
+        <v>154.6666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>154.1166666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>153</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4877,18 +5309,27 @@
         <v>60</v>
       </c>
       <c r="G127" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>154.1333333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>153</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,18 +5353,27 @@
         <v>1284.705128205128</v>
       </c>
       <c r="G128" t="n">
+        <v>155.0666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>154.1333333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>153</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,18 +5397,27 @@
         <v>508.2651</v>
       </c>
       <c r="G129" t="n">
+        <v>155.1333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>154.15</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>153</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,18 +5441,27 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="H130" t="n">
         <v>154.1666666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>153</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5017,18 +5485,27 @@
         <v>279.0614</v>
       </c>
       <c r="G131" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>154.1833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>153</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,18 +5529,27 @@
         <v>8301.693600000001</v>
       </c>
       <c r="G132" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>154.1833333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>153</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5087,18 +5573,29 @@
         <v>3912.2574</v>
       </c>
       <c r="G133" t="n">
+        <v>155.3333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>154.1833333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>154</v>
+      </c>
+      <c r="L133" t="n">
+        <v>153</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,18 +5619,29 @@
         <v>2847.807</v>
       </c>
       <c r="G134" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="H134" t="n">
         <v>154.1666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>154</v>
+      </c>
+      <c r="L134" t="n">
+        <v>153</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5157,18 +5665,29 @@
         <v>1000</v>
       </c>
       <c r="G135" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>154.15</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>154</v>
+      </c>
+      <c r="L135" t="n">
+        <v>153</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,18 +5711,29 @@
         <v>1975.1665</v>
       </c>
       <c r="G136" t="n">
+        <v>155.1333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>154.1166666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>154</v>
+      </c>
+      <c r="L136" t="n">
+        <v>153</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5227,18 +5757,29 @@
         <v>2296.1991</v>
       </c>
       <c r="G137" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="H137" t="n">
         <v>154.1833333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>154</v>
+      </c>
+      <c r="L137" t="n">
+        <v>153</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5262,18 +5803,27 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
+        <v>155.3333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>154.2333333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>153</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5297,18 +5847,27 @@
         <v>264.9159</v>
       </c>
       <c r="G139" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>154.25</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>153</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,18 +5891,27 @@
         <v>212.1266</v>
       </c>
       <c r="G140" t="n">
+        <v>155.3333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>154.25</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>153</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5367,18 +5935,27 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
+        <v>155.4666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>154.2666666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>153</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5402,18 +5979,27 @@
         <v>4287.9369</v>
       </c>
       <c r="G142" t="n">
+        <v>155.5333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>154.3</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>153</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5437,18 +6023,27 @@
         <v>4189.6013</v>
       </c>
       <c r="G143" t="n">
+        <v>155.5333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>154.3333333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>153</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5472,18 +6067,27 @@
         <v>528</v>
       </c>
       <c r="G144" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="H144" t="n">
         <v>154.35</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>153</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5507,18 +6111,27 @@
         <v>1</v>
       </c>
       <c r="G145" t="n">
+        <v>155.6666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>154.3833333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>153</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5542,18 +6155,27 @@
         <v>3925.2488</v>
       </c>
       <c r="G146" t="n">
+        <v>155.7333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>154.4</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>153</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5577,18 +6199,27 @@
         <v>2298.4854</v>
       </c>
       <c r="G147" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="H147" t="n">
         <v>154.4</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>153</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5612,18 +6243,27 @@
         <v>265.7523</v>
       </c>
       <c r="G148" t="n">
+        <v>155.9333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>154.4333333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>153</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,18 +6287,27 @@
         <v>150</v>
       </c>
       <c r="G149" t="n">
+        <v>156.0666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>154.4666666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>153</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,18 +6331,27 @@
         <v>251</v>
       </c>
       <c r="G150" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="H150" t="n">
         <v>154.5</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>153</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5717,18 +6375,27 @@
         <v>18.1937</v>
       </c>
       <c r="G151" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="H151" t="n">
         <v>154.55</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>153</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,18 +6419,27 @@
         <v>621.562</v>
       </c>
       <c r="G152" t="n">
+        <v>156.3333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>154.55</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>153</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5787,18 +6463,27 @@
         <v>1122</v>
       </c>
       <c r="G153" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="H153" t="n">
         <v>154.5666666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>153</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5822,18 +6507,27 @@
         <v>756</v>
       </c>
       <c r="G154" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="H154" t="n">
         <v>154.5833333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>153</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5857,18 +6551,27 @@
         <v>252</v>
       </c>
       <c r="G155" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="H155" t="n">
         <v>154.6166666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>153</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,18 +6595,27 @@
         <v>1607.8269</v>
       </c>
       <c r="G156" t="n">
+        <v>156.1333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>154.6333333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>153</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5927,18 +6639,27 @@
         <v>4360.6079</v>
       </c>
       <c r="G157" t="n">
+        <v>156</v>
+      </c>
+      <c r="H157" t="n">
         <v>154.6666666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>153</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5962,18 +6683,29 @@
         <v>157.1765</v>
       </c>
       <c r="G158" t="n">
+        <v>155.9333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>154.7</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>155</v>
+      </c>
+      <c r="L158" t="n">
+        <v>153</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5997,18 +6729,29 @@
         <v>1381.0385</v>
       </c>
       <c r="G159" t="n">
+        <v>155.8666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>154.7333333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>155</v>
+      </c>
+      <c r="L159" t="n">
+        <v>153</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,18 +6775,29 @@
         <v>926.3176999999999</v>
       </c>
       <c r="G160" t="n">
+        <v>155.6666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>154.75</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>155</v>
+      </c>
+      <c r="L160" t="n">
+        <v>153</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6067,18 +6821,29 @@
         <v>2541.3079</v>
       </c>
       <c r="G161" t="n">
+        <v>155.5333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>154.7833333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>154</v>
+      </c>
+      <c r="L161" t="n">
+        <v>153</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,18 +6867,29 @@
         <v>4441.7465</v>
       </c>
       <c r="G162" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="H162" t="n">
         <v>154.8</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>154</v>
+      </c>
+      <c r="L162" t="n">
+        <v>153</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6137,18 +6913,29 @@
         <v>438</v>
       </c>
       <c r="G163" t="n">
+        <v>155.3333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>154.85</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>153</v>
+      </c>
+      <c r="L163" t="n">
+        <v>153</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6172,18 +6959,29 @@
         <v>90.15479999999999</v>
       </c>
       <c r="G164" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>154.9</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>155</v>
+      </c>
+      <c r="L164" t="n">
+        <v>153</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6207,18 +7005,27 @@
         <v>931</v>
       </c>
       <c r="G165" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>154.9666666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>153</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6242,18 +7049,27 @@
         <v>7157.326</v>
       </c>
       <c r="G166" t="n">
+        <v>155</v>
+      </c>
+      <c r="H166" t="n">
         <v>154.9833333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>153</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6277,18 +7093,27 @@
         <v>2130.6417</v>
       </c>
       <c r="G167" t="n">
-        <v>155</v>
+        <v>154.8</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>153</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6312,18 +7137,27 @@
         <v>99.15689999999999</v>
       </c>
       <c r="G168" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="H168" t="n">
         <v>155.0666666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>153</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6347,18 +7181,27 @@
         <v>115.2991</v>
       </c>
       <c r="G169" t="n">
+        <v>154.7333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>155.1166666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>153</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6382,18 +7225,27 @@
         <v>146.8456</v>
       </c>
       <c r="G170" t="n">
+        <v>154.6666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>155.1666666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>153</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6417,18 +7269,27 @@
         <v>5230.5958</v>
       </c>
       <c r="G171" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="H171" t="n">
         <v>155.2666666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>153</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6452,18 +7313,27 @@
         <v>4501.35</v>
       </c>
       <c r="G172" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="H172" t="n">
         <v>155.3</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>153</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6487,18 +7357,27 @@
         <v>1</v>
       </c>
       <c r="G173" t="n">
+        <v>154.6666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>155.3</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>153</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6522,18 +7401,27 @@
         <v>4711.6592</v>
       </c>
       <c r="G174" t="n">
+        <v>154.7333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>155.3333333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>153</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6557,18 +7445,27 @@
         <v>6383.8934</v>
       </c>
       <c r="G175" t="n">
+        <v>154.9333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>155.3666666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>153</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6592,18 +7489,27 @@
         <v>5196.8454</v>
       </c>
       <c r="G176" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>155.35</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>153</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6627,22 +7533,27 @@
         <v>300</v>
       </c>
       <c r="G177" t="n">
+        <v>155.1333333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>155.4</v>
       </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>153</v>
-      </c>
-      <c r="K177" t="n">
-        <v>153</v>
-      </c>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>153</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6666,24 +7577,27 @@
         <v>5076.3473</v>
       </c>
       <c r="G178" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="H178" t="n">
         <v>155.5</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>153</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>153</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6707,24 +7621,27 @@
         <v>4581.174</v>
       </c>
       <c r="G179" t="n">
+        <v>155.6666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>155.6</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>153</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>153</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7665,27 @@
         <v>2548.9559</v>
       </c>
       <c r="G180" t="n">
+        <v>155.8666666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>155.65</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>153</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7709,27 @@
         <v>750</v>
       </c>
       <c r="G181" t="n">
+        <v>156.2666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>155.7</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>153</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7753,27 @@
         <v>2750</v>
       </c>
       <c r="G182" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="H182" t="n">
         <v>155.7333333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>153</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7797,27 @@
         <v>5245.7585</v>
       </c>
       <c r="G183" t="n">
+        <v>156.7333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>155.7666666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>153</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7841,27 @@
         <v>9180.497600000001</v>
       </c>
       <c r="G184" t="n">
+        <v>156.9333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>155.7833333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>153</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7885,27 @@
         <v>264.484</v>
       </c>
       <c r="G185" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="H185" t="n">
         <v>155.85</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>153</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7929,27 @@
         <v>5712.0734</v>
       </c>
       <c r="G186" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="H186" t="n">
         <v>155.9</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>153</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7973,27 @@
         <v>925.5086</v>
       </c>
       <c r="G187" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="H187" t="n">
         <v>155.9333333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>153</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +8017,27 @@
         <v>2901.1257</v>
       </c>
       <c r="G188" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="H188" t="n">
         <v>155.9833333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>153</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +8061,27 @@
         <v>1416.701</v>
       </c>
       <c r="G189" t="n">
+        <v>158</v>
+      </c>
+      <c r="H189" t="n">
         <v>156.05</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>153</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +8105,27 @@
         <v>2582.299</v>
       </c>
       <c r="G190" t="n">
+        <v>158.1333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>156.1</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>153</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +8149,27 @@
         <v>3518.2202</v>
       </c>
       <c r="G191" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="H191" t="n">
         <v>156.1833333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>153</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +8193,27 @@
         <v>8906.2271</v>
       </c>
       <c r="G192" t="n">
+        <v>158.8666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>156.3</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>153</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +8237,27 @@
         <v>2316.4674</v>
       </c>
       <c r="G193" t="n">
+        <v>159</v>
+      </c>
+      <c r="H193" t="n">
         <v>156.4166666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>153</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +8281,27 @@
         <v>3146.4425</v>
       </c>
       <c r="G194" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="H194" t="n">
         <v>156.55</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>153</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8325,27 @@
         <v>637.3506</v>
       </c>
       <c r="G195" t="n">
+        <v>159.3333333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>156.6666666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>153</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8369,27 @@
         <v>5297.4609</v>
       </c>
       <c r="G196" t="n">
+        <v>159.3333333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>156.75</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>153</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8413,27 @@
         <v>267.0992</v>
       </c>
       <c r="G197" t="n">
+        <v>159.5333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>156.8166666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>153</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8457,27 @@
         <v>929.0683</v>
       </c>
       <c r="G198" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="H198" t="n">
         <v>156.8333333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>153</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8501,27 @@
         <v>5245.7585</v>
       </c>
       <c r="G199" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="H199" t="n">
         <v>156.8666666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>153</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8545,27 @@
         <v>15015.5552</v>
       </c>
       <c r="G200" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="H200" t="n">
         <v>156.9166666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>153</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8589,27 @@
         <v>5382.2038</v>
       </c>
       <c r="G201" t="n">
+        <v>159.7333333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>156.9666666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>153</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8633,27 @@
         <v>1718.2879</v>
       </c>
       <c r="G202" t="n">
+        <v>159.7333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>156.9833333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>153</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8677,27 @@
         <v>492.6584</v>
       </c>
       <c r="G203" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="H203" t="n">
         <v>157.05</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>153</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8721,27 @@
         <v>13493.9187</v>
       </c>
       <c r="G204" t="n">
+        <v>159.8666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>157.1166666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>153</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8765,27 @@
         <v>1702.7268</v>
       </c>
       <c r="G205" t="n">
+        <v>159.9333333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>157.1666666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>153</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8809,467 @@
         <v>34823.4902</v>
       </c>
       <c r="G206" t="n">
+        <v>160.1333333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>157.2833333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>153</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>163</v>
+      </c>
+      <c r="C207" t="n">
+        <v>160</v>
+      </c>
+      <c r="D207" t="n">
+        <v>163</v>
+      </c>
+      <c r="E207" t="n">
+        <v>160</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3288.903</v>
+      </c>
+      <c r="G207" t="n">
+        <v>160.0666666666667</v>
+      </c>
+      <c r="H207" t="n">
+        <v>157.3666666666667</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>153</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>160</v>
+      </c>
+      <c r="C208" t="n">
+        <v>159</v>
+      </c>
+      <c r="D208" t="n">
+        <v>160</v>
+      </c>
+      <c r="E208" t="n">
+        <v>159</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1935.3571</v>
+      </c>
+      <c r="G208" t="n">
+        <v>159.9333333333333</v>
+      </c>
+      <c r="H208" t="n">
+        <v>157.4166666666667</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>153</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>160</v>
+      </c>
+      <c r="C209" t="n">
+        <v>160</v>
+      </c>
+      <c r="D209" t="n">
+        <v>160</v>
+      </c>
+      <c r="E209" t="n">
+        <v>160</v>
+      </c>
+      <c r="F209" t="n">
+        <v>157.9416</v>
+      </c>
+      <c r="G209" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="H209" t="n">
+        <v>157.4833333333333</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>153</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>160</v>
+      </c>
+      <c r="C210" t="n">
+        <v>160</v>
+      </c>
+      <c r="D210" t="n">
+        <v>160</v>
+      </c>
+      <c r="E210" t="n">
+        <v>160</v>
+      </c>
+      <c r="F210" t="n">
+        <v>10859.2021</v>
+      </c>
+      <c r="G210" t="n">
+        <v>159.7333333333333</v>
+      </c>
+      <c r="H210" t="n">
+        <v>157.55</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>153</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>159</v>
+      </c>
+      <c r="C211" t="n">
+        <v>159</v>
+      </c>
+      <c r="D211" t="n">
+        <v>159</v>
+      </c>
+      <c r="E211" t="n">
+        <v>159</v>
+      </c>
+      <c r="F211" t="n">
+        <v>4140</v>
+      </c>
+      <c r="G211" t="n">
+        <v>159.7333333333333</v>
+      </c>
+      <c r="H211" t="n">
+        <v>157.5833333333333</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>153</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>159</v>
+      </c>
+      <c r="C212" t="n">
+        <v>159</v>
+      </c>
+      <c r="D212" t="n">
+        <v>159</v>
+      </c>
+      <c r="E212" t="n">
+        <v>159</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1958.6074</v>
+      </c>
+      <c r="G212" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="H212" t="n">
+        <v>157.6333333333333</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>153</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>159</v>
+      </c>
+      <c r="C213" t="n">
+        <v>159</v>
+      </c>
+      <c r="D213" t="n">
+        <v>159</v>
+      </c>
+      <c r="E213" t="n">
+        <v>159</v>
+      </c>
+      <c r="F213" t="n">
+        <v>4614.801</v>
+      </c>
+      <c r="G213" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="H213" t="n">
+        <v>157.6833333333333</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>153</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>159</v>
+      </c>
+      <c r="C214" t="n">
+        <v>158</v>
+      </c>
+      <c r="D214" t="n">
+        <v>159</v>
+      </c>
+      <c r="E214" t="n">
+        <v>158</v>
+      </c>
+      <c r="F214" t="n">
+        <v>12743.4587</v>
+      </c>
+      <c r="G214" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="H214" t="n">
+        <v>157.7166666666667</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>153</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>158</v>
+      </c>
+      <c r="C215" t="n">
+        <v>158</v>
+      </c>
+      <c r="D215" t="n">
+        <v>158</v>
+      </c>
+      <c r="E215" t="n">
+        <v>158</v>
+      </c>
+      <c r="F215" t="n">
+        <v>8182.8781</v>
+      </c>
+      <c r="G215" t="n">
+        <v>159.5333333333333</v>
+      </c>
+      <c r="H215" t="n">
+        <v>157.75</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>153</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>157</v>
+      </c>
+      <c r="C216" t="n">
+        <v>159</v>
+      </c>
+      <c r="D216" t="n">
+        <v>159</v>
+      </c>
+      <c r="E216" t="n">
+        <v>157</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2014.3821</v>
+      </c>
+      <c r="G216" t="n">
+        <v>159.4666666666667</v>
+      </c>
+      <c r="H216" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>153</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest ITC.xlsx
+++ b/BackTest/2019-11-01 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M245"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C2" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D2" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F2" t="n">
-        <v>5559.1715</v>
+        <v>259.13</v>
       </c>
       <c r="G2" t="n">
-        <v>63462.61834651163</v>
+        <v>74708.17544651165</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F3" t="n">
-        <v>2462</v>
+        <v>272.6613</v>
       </c>
       <c r="G3" t="n">
-        <v>65924.61834651163</v>
+        <v>74435.51414651165</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -506,25 +513,25 @@
         <v>161</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" t="n">
         <v>161</v>
       </c>
       <c r="F4" t="n">
-        <v>47</v>
+        <v>475.47</v>
       </c>
       <c r="G4" t="n">
-        <v>65971.61834651163</v>
+        <v>74910.98414651165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" t="n">
         <v>160</v>
       </c>
       <c r="D5" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E5" t="n">
         <v>160</v>
       </c>
       <c r="F5" t="n">
-        <v>724.8798</v>
+        <v>2470.2679</v>
       </c>
       <c r="G5" t="n">
-        <v>65246.73854651163</v>
+        <v>72440.71624651164</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C6" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D6" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F6" t="n">
-        <v>690.5803</v>
+        <v>139.97</v>
       </c>
       <c r="G6" t="n">
-        <v>65246.73854651163</v>
+        <v>72580.68624651164</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C7" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E7" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F7" t="n">
-        <v>1046.8857</v>
+        <v>434.5204</v>
       </c>
       <c r="G7" t="n">
-        <v>64199.85284651163</v>
+        <v>72580.68624651164</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C8" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D8" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E8" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F8" t="n">
-        <v>314.4699</v>
+        <v>1201.5709</v>
       </c>
       <c r="G8" t="n">
-        <v>64199.85284651163</v>
+        <v>73782.25714651165</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D9" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E9" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F9" t="n">
-        <v>309.9437</v>
+        <v>644.091</v>
       </c>
       <c r="G9" t="n">
-        <v>64199.85284651163</v>
+        <v>73138.16614651165</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D10" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F10" t="n">
-        <v>3111.1103</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>64199.85284651163</v>
+        <v>73138.16614651165</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,13 +755,14 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="n">
         <v>161</v>
@@ -757,19 +771,19 @@
         <v>161</v>
       </c>
       <c r="E11" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F11" t="n">
-        <v>3364.7114</v>
+        <v>5175.3123</v>
       </c>
       <c r="G11" t="n">
-        <v>67564.56424651164</v>
+        <v>78313.47844651165</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" t="n">
-        <v>276</v>
+        <v>270.7438</v>
       </c>
       <c r="G12" t="n">
-        <v>67564.56424651164</v>
+        <v>78042.73464651166</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -830,16 +846,16 @@
         <v>161</v>
       </c>
       <c r="F13" t="n">
-        <v>376</v>
+        <v>2280.8887</v>
       </c>
       <c r="G13" t="n">
-        <v>67564.56424651164</v>
+        <v>80323.62334651165</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F14" t="n">
-        <v>57815.3094</v>
+        <v>239.7315</v>
       </c>
       <c r="G14" t="n">
-        <v>125379.8736465116</v>
+        <v>80323.62334651165</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -900,16 +918,16 @@
         <v>161</v>
       </c>
       <c r="F15" t="n">
-        <v>278.234</v>
+        <v>500</v>
       </c>
       <c r="G15" t="n">
-        <v>125101.6396465116</v>
+        <v>80323.62334651165</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C16" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D16" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E16" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F16" t="n">
-        <v>62.1118</v>
+        <v>750</v>
       </c>
       <c r="G16" t="n">
-        <v>125163.7514465116</v>
+        <v>80323.62334651165</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D17" t="n">
         <v>163</v>
       </c>
       <c r="E17" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F17" t="n">
-        <v>4998.1827</v>
+        <v>6020.2954</v>
       </c>
       <c r="G17" t="n">
-        <v>125163.7514465116</v>
+        <v>80323.62334651165</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18" t="n">
-        <v>1705.3961</v>
+        <v>2201.244</v>
       </c>
       <c r="G18" t="n">
-        <v>123458.3553465116</v>
+        <v>80323.62334651165</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D19" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E19" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F19" t="n">
-        <v>171.3961</v>
+        <v>1714.981</v>
       </c>
       <c r="G19" t="n">
-        <v>123629.7514465116</v>
+        <v>78608.64234651165</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C20" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E20" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F20" t="n">
-        <v>21472.3792</v>
+        <v>2193.7615</v>
       </c>
       <c r="G20" t="n">
-        <v>102157.3722465116</v>
+        <v>80802.40384651165</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D21" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E21" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" t="n">
-        <v>382</v>
+        <v>3036.0413</v>
       </c>
       <c r="G21" t="n">
-        <v>102539.3722465116</v>
+        <v>80802.40384651165</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C22" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D22" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E22" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F22" t="n">
-        <v>1321.0275</v>
+        <v>10.5</v>
       </c>
       <c r="G22" t="n">
-        <v>102539.3722465116</v>
+        <v>80802.40384651165</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C23" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D23" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E23" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F23" t="n">
-        <v>9439.714400000001</v>
+        <v>14569.0394</v>
       </c>
       <c r="G23" t="n">
-        <v>111979.0866465116</v>
+        <v>66233.36444651165</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C24" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D24" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E24" t="n">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F24" t="n">
-        <v>1595.0121</v>
+        <v>1103.7081</v>
       </c>
       <c r="G24" t="n">
-        <v>111979.0866465116</v>
+        <v>66233.36444651165</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C25" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D25" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E25" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F25" t="n">
-        <v>620.0804000000001</v>
+        <v>939</v>
       </c>
       <c r="G25" t="n">
-        <v>111359.0062465116</v>
+        <v>66233.36444651165</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C26" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D26" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E26" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F26" t="n">
-        <v>241.3516</v>
+        <v>2176.7421</v>
       </c>
       <c r="G26" t="n">
-        <v>111600.3578465116</v>
+        <v>66233.36444651165</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C27" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D27" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E27" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F27" t="n">
-        <v>234.6952</v>
+        <v>2491.3911</v>
       </c>
       <c r="G27" t="n">
-        <v>111365.6626465116</v>
+        <v>66233.36444651165</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C28" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D28" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E28" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F28" t="n">
-        <v>8352.2839</v>
+        <v>1155.6007</v>
       </c>
       <c r="G28" t="n">
-        <v>103013.3787465116</v>
+        <v>65077.76374651165</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C29" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D29" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E29" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F29" t="n">
-        <v>670.9340999999999</v>
+        <v>294.1545</v>
       </c>
       <c r="G29" t="n">
-        <v>103684.3128465116</v>
+        <v>65077.76374651165</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C30" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D30" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E30" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F30" t="n">
-        <v>312.6617</v>
+        <v>710.2397999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>103684.3128465116</v>
+        <v>65788.00354651165</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C31" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D31" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E31" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F31" t="n">
-        <v>235.575</v>
+        <v>542.3807</v>
       </c>
       <c r="G31" t="n">
-        <v>103448.7378465116</v>
+        <v>65788.00354651165</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C32" t="n">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D32" t="n">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E32" t="n">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F32" t="n">
-        <v>5868.5332</v>
+        <v>13452.7438</v>
       </c>
       <c r="G32" t="n">
-        <v>109317.2710465116</v>
+        <v>52335.25974651166</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C33" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D33" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E33" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F33" t="n">
-        <v>1944.0538</v>
+        <v>874.5897</v>
       </c>
       <c r="G33" t="n">
-        <v>107373.2172465116</v>
+        <v>53209.84944651165</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C34" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D34" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E34" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F34" t="n">
-        <v>245.0405</v>
+        <v>17776.8551</v>
       </c>
       <c r="G34" t="n">
-        <v>107618.2577465116</v>
+        <v>53209.84944651165</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C35" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D35" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E35" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F35" t="n">
-        <v>7318.6027</v>
+        <v>4265.4774</v>
       </c>
       <c r="G35" t="n">
-        <v>100299.6550465116</v>
+        <v>53209.84944651165</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C36" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E36" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F36" t="n">
-        <v>11582.3798</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>100299.6550465116</v>
+        <v>53219.84944651165</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1670,10 +1710,10 @@
         <v>160</v>
       </c>
       <c r="F37" t="n">
-        <v>1604.7562</v>
+        <v>721.6592000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>98694.89884651164</v>
+        <v>53219.84944651165</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1696,19 +1737,19 @@
         <v>161</v>
       </c>
       <c r="C38" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" t="n">
         <v>161</v>
       </c>
       <c r="E38" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F38" t="n">
-        <v>141.8857</v>
+        <v>433.6845</v>
       </c>
       <c r="G38" t="n">
-        <v>98836.78454651164</v>
+        <v>53219.84944651165</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C39" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D39" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E39" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F39" t="n">
-        <v>62.1118</v>
+        <v>1439.3962</v>
       </c>
       <c r="G39" t="n">
-        <v>98836.78454651164</v>
+        <v>51780.45324651165</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1766,19 +1809,19 @@
         <v>161</v>
       </c>
       <c r="C40" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D40" t="n">
         <v>161</v>
       </c>
       <c r="E40" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F40" t="n">
-        <v>25000</v>
+        <v>9.6645</v>
       </c>
       <c r="G40" t="n">
-        <v>73836.78454651164</v>
+        <v>51790.11774651165</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C41" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D41" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E41" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F41" t="n">
-        <v>11655.7437</v>
+        <v>145.4668</v>
       </c>
       <c r="G41" t="n">
-        <v>85492.52824651165</v>
+        <v>51644.65094651165</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C42" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D42" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E42" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F42" t="n">
-        <v>216.34</v>
+        <v>327.7732</v>
       </c>
       <c r="G42" t="n">
-        <v>85708.86824651164</v>
+        <v>51972.42414651165</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C43" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D43" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F43" t="n">
-        <v>11259.8228</v>
+        <v>8000</v>
       </c>
       <c r="G43" t="n">
-        <v>74449.04544651165</v>
+        <v>43972.42414651165</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D44" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E44" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F44" t="n">
-        <v>259.13</v>
+        <v>832.6994999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>74708.17544651165</v>
+        <v>43972.42414651165</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C45" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D45" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E45" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F45" t="n">
-        <v>272.6613</v>
+        <v>3933</v>
       </c>
       <c r="G45" t="n">
-        <v>74435.51414651165</v>
+        <v>40039.42414651165</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C46" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D46" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E46" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F46" t="n">
-        <v>475.47</v>
+        <v>7613.4249</v>
       </c>
       <c r="G46" t="n">
-        <v>74910.98414651165</v>
+        <v>40039.42414651165</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C47" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D47" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E47" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F47" t="n">
-        <v>2470.2679</v>
+        <v>276.4439</v>
       </c>
       <c r="G47" t="n">
-        <v>72440.71624651164</v>
+        <v>40039.42414651165</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C48" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D48" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E48" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F48" t="n">
-        <v>139.97</v>
+        <v>138.222</v>
       </c>
       <c r="G48" t="n">
-        <v>72580.68624651164</v>
+        <v>40039.42414651165</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C49" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D49" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E49" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F49" t="n">
-        <v>434.5204</v>
+        <v>93.73950000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>72580.68624651164</v>
+        <v>40039.42414651165</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C50" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D50" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E50" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F50" t="n">
-        <v>1201.5709</v>
+        <v>6194.0341</v>
       </c>
       <c r="G50" t="n">
-        <v>73782.25714651165</v>
+        <v>33845.39004651165</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C51" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E51" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F51" t="n">
-        <v>644.091</v>
+        <v>4480</v>
       </c>
       <c r="G51" t="n">
-        <v>73138.16614651165</v>
+        <v>33845.39004651165</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C52" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E52" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>5282.9002</v>
       </c>
       <c r="G52" t="n">
-        <v>73138.16614651165</v>
+        <v>33845.39004651165</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C53" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D53" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E53" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F53" t="n">
-        <v>5175.3123</v>
+        <v>5028.9776</v>
       </c>
       <c r="G53" t="n">
-        <v>78313.47844651165</v>
+        <v>33845.39004651165</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C54" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D54" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E54" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F54" t="n">
-        <v>270.7438</v>
+        <v>8225.4828</v>
       </c>
       <c r="G54" t="n">
-        <v>78042.73464651166</v>
+        <v>25619.90724651166</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C55" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D55" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E55" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F55" t="n">
-        <v>2280.8887</v>
+        <v>223.2687</v>
       </c>
       <c r="G55" t="n">
-        <v>80323.62334651165</v>
+        <v>25843.17594651166</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C56" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D56" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E56" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F56" t="n">
-        <v>239.7315</v>
+        <v>10020</v>
       </c>
       <c r="G56" t="n">
-        <v>80323.62334651165</v>
+        <v>15823.17594651166</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C57" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D57" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E57" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>2441.5354</v>
       </c>
       <c r="G57" t="n">
-        <v>80323.62334651165</v>
+        <v>18264.71134651166</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C58" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D58" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E58" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F58" t="n">
-        <v>750</v>
+        <v>240.9413</v>
       </c>
       <c r="G58" t="n">
-        <v>80323.62334651165</v>
+        <v>18023.77004651166</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C59" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D59" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E59" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F59" t="n">
-        <v>6020.2954</v>
+        <v>253.9226</v>
       </c>
       <c r="G59" t="n">
-        <v>80323.62334651165</v>
+        <v>18023.77004651166</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C60" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D60" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E60" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F60" t="n">
-        <v>2201.244</v>
+        <v>1512.2397</v>
       </c>
       <c r="G60" t="n">
-        <v>80323.62334651165</v>
+        <v>18023.77004651166</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C61" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D61" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E61" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F61" t="n">
-        <v>1714.981</v>
+        <v>30</v>
       </c>
       <c r="G61" t="n">
-        <v>78608.64234651165</v>
+        <v>18053.77004651166</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C62" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D62" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E62" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F62" t="n">
-        <v>2193.7615</v>
+        <v>1892.0206</v>
       </c>
       <c r="G62" t="n">
-        <v>80802.40384651165</v>
+        <v>18053.77004651166</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C63" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D63" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E63" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F63" t="n">
-        <v>3036.0413</v>
+        <v>801.3933</v>
       </c>
       <c r="G63" t="n">
-        <v>80802.40384651165</v>
+        <v>18855.16334651166</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C64" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D64" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E64" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F64" t="n">
-        <v>10.5</v>
+        <v>25305.5054</v>
       </c>
       <c r="G64" t="n">
-        <v>80802.40384651165</v>
+        <v>-6450.342053488341</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C65" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D65" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E65" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F65" t="n">
-        <v>14569.0394</v>
+        <v>267.8727</v>
       </c>
       <c r="G65" t="n">
-        <v>66233.36444651165</v>
+        <v>-6182.469353488341</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C66" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D66" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E66" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F66" t="n">
-        <v>1103.7081</v>
+        <v>1503.4394</v>
       </c>
       <c r="G66" t="n">
-        <v>66233.36444651165</v>
+        <v>-6182.469353488341</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C67" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D67" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E67" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F67" t="n">
-        <v>939</v>
+        <v>178.8856</v>
       </c>
       <c r="G67" t="n">
-        <v>66233.36444651165</v>
+        <v>-6003.583753488341</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C68" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D68" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E68" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F68" t="n">
-        <v>2176.7421</v>
+        <v>411.1347</v>
       </c>
       <c r="G68" t="n">
-        <v>66233.36444651165</v>
+        <v>-6003.583753488341</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C69" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D69" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E69" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F69" t="n">
-        <v>2491.3911</v>
+        <v>261.98</v>
       </c>
       <c r="G69" t="n">
-        <v>66233.36444651165</v>
+        <v>-6265.563753488341</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C70" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D70" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E70" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F70" t="n">
-        <v>1155.6007</v>
+        <v>11720</v>
       </c>
       <c r="G70" t="n">
-        <v>65077.76374651165</v>
+        <v>-17985.56375348834</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C71" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D71" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E71" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F71" t="n">
-        <v>294.1545</v>
+        <v>5015.3455</v>
       </c>
       <c r="G71" t="n">
-        <v>65077.76374651165</v>
+        <v>-12970.21825348834</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C72" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D72" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E72" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F72" t="n">
-        <v>710.2397999999999</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>65788.00354651165</v>
+        <v>-12970.21825348834</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C73" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D73" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E73" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F73" t="n">
-        <v>542.3807</v>
+        <v>103</v>
       </c>
       <c r="G73" t="n">
-        <v>65788.00354651165</v>
+        <v>-12970.21825348834</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C74" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D74" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E74" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F74" t="n">
-        <v>13452.7438</v>
+        <v>293.5419</v>
       </c>
       <c r="G74" t="n">
-        <v>52335.25974651166</v>
+        <v>-12970.21825348834</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C75" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D75" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E75" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F75" t="n">
-        <v>874.5897</v>
+        <v>23045.0766</v>
       </c>
       <c r="G75" t="n">
-        <v>53209.84944651165</v>
+        <v>-36015.29485348835</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C76" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D76" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E76" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F76" t="n">
-        <v>17776.8551</v>
+        <v>1143.2673</v>
       </c>
       <c r="G76" t="n">
-        <v>53209.84944651165</v>
+        <v>-36015.29485348835</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C77" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D77" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E77" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F77" t="n">
-        <v>4265.4774</v>
+        <v>593.6926999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>53209.84944651165</v>
+        <v>-36015.29485348835</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C78" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D78" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E78" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
-        <v>53219.84944651165</v>
+        <v>-36015.29485348835</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C79" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D79" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E79" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F79" t="n">
-        <v>721.6592000000001</v>
+        <v>586.7219</v>
       </c>
       <c r="G79" t="n">
-        <v>53219.84944651165</v>
+        <v>-35428.57295348835</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C80" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D80" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E80" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F80" t="n">
-        <v>433.6845</v>
+        <v>291.2262</v>
       </c>
       <c r="G80" t="n">
-        <v>53219.84944651165</v>
+        <v>-35719.79915348835</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C81" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D81" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E81" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="n">
-        <v>1439.3962</v>
+        <v>4483.749</v>
       </c>
       <c r="G81" t="n">
-        <v>51780.45324651165</v>
+        <v>-35719.79915348835</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C82" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D82" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E82" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F82" t="n">
-        <v>9.6645</v>
+        <v>9853.9462</v>
       </c>
       <c r="G82" t="n">
-        <v>51790.11774651165</v>
+        <v>-45573.74535348835</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C83" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D83" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E83" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F83" t="n">
-        <v>145.4668</v>
+        <v>2257.4322</v>
       </c>
       <c r="G83" t="n">
-        <v>51644.65094651165</v>
+        <v>-43316.31315348834</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C84" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D84" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E84" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F84" t="n">
-        <v>327.7732</v>
+        <v>62089.8317</v>
       </c>
       <c r="G84" t="n">
-        <v>51972.42414651165</v>
+        <v>-105406.1448534883</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C85" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D85" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E85" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F85" t="n">
-        <v>8000</v>
+        <v>10752.2189</v>
       </c>
       <c r="G85" t="n">
-        <v>43972.42414651165</v>
+        <v>-105406.1448534883</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C86" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D86" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E86" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F86" t="n">
-        <v>832.6994999999999</v>
+        <v>116.9701</v>
       </c>
       <c r="G86" t="n">
-        <v>43972.42414651165</v>
+        <v>-105406.1448534883</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C87" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D87" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E87" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F87" t="n">
-        <v>3933</v>
+        <v>304.9278</v>
       </c>
       <c r="G87" t="n">
-        <v>40039.42414651165</v>
+        <v>-105406.1448534883</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C88" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D88" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E88" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F88" t="n">
-        <v>7613.4249</v>
+        <v>2377.5544</v>
       </c>
       <c r="G88" t="n">
-        <v>40039.42414651165</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C89" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D89" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E89" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F89" t="n">
-        <v>276.4439</v>
+        <v>5960</v>
       </c>
       <c r="G89" t="n">
-        <v>40039.42414651165</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C90" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D90" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E90" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F90" t="n">
-        <v>138.222</v>
+        <v>7219.8052</v>
       </c>
       <c r="G90" t="n">
-        <v>40039.42414651165</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C91" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D91" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E91" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F91" t="n">
-        <v>93.73950000000001</v>
+        <v>406.1298</v>
       </c>
       <c r="G91" t="n">
-        <v>40039.42414651165</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C92" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D92" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E92" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F92" t="n">
-        <v>6194.0341</v>
+        <v>2443.5236</v>
       </c>
       <c r="G92" t="n">
-        <v>33845.39004651165</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C93" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D93" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E93" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F93" t="n">
-        <v>4480</v>
+        <v>131.5609</v>
       </c>
       <c r="G93" t="n">
-        <v>33845.39004651165</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C94" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D94" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E94" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F94" t="n">
-        <v>5282.9002</v>
+        <v>257.9217</v>
       </c>
       <c r="G94" t="n">
-        <v>33845.39004651165</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C95" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D95" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E95" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F95" t="n">
-        <v>5028.9776</v>
+        <v>205.1892</v>
       </c>
       <c r="G95" t="n">
-        <v>33845.39004651165</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C96" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D96" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E96" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F96" t="n">
-        <v>8225.4828</v>
+        <v>1086.8694</v>
       </c>
       <c r="G96" t="n">
-        <v>25619.90724651166</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,146 +3851,175 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C97" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D97" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E97" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F97" t="n">
-        <v>223.2687</v>
+        <v>233.3358</v>
       </c>
       <c r="G97" t="n">
-        <v>25843.17594651166</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>152</v>
+      </c>
+      <c r="K97" t="n">
+        <v>152</v>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C98" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D98" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E98" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F98" t="n">
-        <v>10020</v>
+        <v>213.1213</v>
       </c>
       <c r="G98" t="n">
-        <v>15823.17594651166</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>152</v>
+      </c>
+      <c r="K98" t="n">
+        <v>152</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C99" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D99" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E99" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F99" t="n">
-        <v>2441.5354</v>
+        <v>4500</v>
       </c>
       <c r="G99" t="n">
-        <v>18264.71134651166</v>
+        <v>-103283.6992534883</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>152</v>
+      </c>
+      <c r="K99" t="n">
+        <v>152</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C100" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D100" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E100" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F100" t="n">
-        <v>240.9413</v>
+        <v>406.1298</v>
       </c>
       <c r="G100" t="n">
-        <v>18023.77004651166</v>
+        <v>-103283.6992534883</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>153</v>
+      </c>
+      <c r="K100" t="n">
+        <v>153</v>
+      </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3910,80 +4038,98 @@
         <v>154</v>
       </c>
       <c r="F101" t="n">
-        <v>253.9226</v>
+        <v>114.809</v>
       </c>
       <c r="G101" t="n">
-        <v>18023.77004651166</v>
+        <v>-103168.8902534883</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>153</v>
+      </c>
+      <c r="K101" t="n">
+        <v>153</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C102" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D102" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E102" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F102" t="n">
-        <v>1512.2397</v>
+        <v>1167.7225</v>
       </c>
       <c r="G102" t="n">
-        <v>18023.77004651166</v>
+        <v>-102001.1677534883</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>154</v>
+      </c>
+      <c r="K102" t="n">
+        <v>153</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D103" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E103" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F103" t="n">
-        <v>30</v>
+        <v>4165.7038</v>
       </c>
       <c r="G103" t="n">
-        <v>18053.77004651166</v>
+        <v>-106166.8715534883</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4143,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C104" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D104" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E104" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F104" t="n">
-        <v>1892.0206</v>
+        <v>4704.1493</v>
       </c>
       <c r="G104" t="n">
-        <v>18053.77004651166</v>
+        <v>-106166.8715534883</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4179,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C105" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D105" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E105" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F105" t="n">
-        <v>801.3933</v>
+        <v>2815.8238</v>
       </c>
       <c r="G105" t="n">
-        <v>18855.16334651166</v>
+        <v>-108982.6953534883</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4215,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C106" t="n">
         <v>153</v>
       </c>
       <c r="D106" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E106" t="n">
         <v>153</v>
       </c>
       <c r="F106" t="n">
-        <v>25305.5054</v>
+        <v>2546.7396</v>
       </c>
       <c r="G106" t="n">
-        <v>-6450.342053488341</v>
+        <v>-108982.6953534883</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4251,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C107" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D107" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E107" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F107" t="n">
-        <v>267.8727</v>
+        <v>1963.2843</v>
       </c>
       <c r="G107" t="n">
-        <v>-6182.469353488341</v>
+        <v>-107019.4110534883</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,6 +4287,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4146,19 +4297,19 @@
         <v>156</v>
       </c>
       <c r="C108" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D108" t="n">
         <v>156</v>
       </c>
       <c r="E108" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F108" t="n">
-        <v>1503.4394</v>
+        <v>1.3</v>
       </c>
       <c r="G108" t="n">
-        <v>-6182.469353488341</v>
+        <v>-107019.4110534883</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,6 +4323,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4190,10 +4342,10 @@
         <v>156</v>
       </c>
       <c r="F109" t="n">
-        <v>178.8856</v>
+        <v>18</v>
       </c>
       <c r="G109" t="n">
-        <v>-6003.583753488341</v>
+        <v>-107019.4110534883</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,13 +4359,14 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C110" t="n">
         <v>156</v>
@@ -4222,13 +4375,13 @@
         <v>156</v>
       </c>
       <c r="E110" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F110" t="n">
-        <v>411.1347</v>
+        <v>6024.2207</v>
       </c>
       <c r="G110" t="n">
-        <v>-6003.583753488341</v>
+        <v>-107019.4110534883</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4395,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C111" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D111" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E111" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F111" t="n">
-        <v>261.98</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>-6265.563753488341</v>
+        <v>-107018.4110534883</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,6 +4431,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4286,19 +4441,19 @@
         <v>155</v>
       </c>
       <c r="C112" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D112" t="n">
         <v>155</v>
       </c>
       <c r="E112" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F112" t="n">
-        <v>11720</v>
+        <v>266.0709</v>
       </c>
       <c r="G112" t="n">
-        <v>-17985.56375348834</v>
+        <v>-107284.4819534883</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,6 +4467,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4330,10 +4486,10 @@
         <v>155</v>
       </c>
       <c r="F113" t="n">
-        <v>5015.3455</v>
+        <v>119.0522</v>
       </c>
       <c r="G113" t="n">
-        <v>-12970.21825348834</v>
+        <v>-107284.4819534883</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4503,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C114" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D114" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E114" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F114" t="n">
-        <v>99.98999999999999</v>
+        <v>60</v>
       </c>
       <c r="G114" t="n">
-        <v>-12970.21825348834</v>
+        <v>-107224.4819534883</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4539,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C115" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D115" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E115" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F115" t="n">
-        <v>103</v>
+        <v>1284.705128205128</v>
       </c>
       <c r="G115" t="n">
-        <v>-12970.21825348834</v>
+        <v>-107224.4819534883</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,6 +4575,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4435,10 +4594,10 @@
         <v>155</v>
       </c>
       <c r="F116" t="n">
-        <v>293.5419</v>
+        <v>508.2651</v>
       </c>
       <c r="G116" t="n">
-        <v>-12970.21825348834</v>
+        <v>-107732.7470534883</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4611,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C117" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D117" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E117" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F117" t="n">
-        <v>23045.0766</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>-36015.29485348835</v>
+        <v>-107731.7470534883</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4647,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C118" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D118" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E118" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F118" t="n">
-        <v>1143.2673</v>
+        <v>279.0614</v>
       </c>
       <c r="G118" t="n">
-        <v>-36015.29485348835</v>
+        <v>-108010.8084534884</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4683,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C119" t="n">
         <v>154</v>
       </c>
       <c r="D119" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E119" t="n">
         <v>154</v>
       </c>
       <c r="F119" t="n">
-        <v>593.6926999999999</v>
+        <v>8301.693600000001</v>
       </c>
       <c r="G119" t="n">
-        <v>-36015.29485348835</v>
+        <v>-116312.5020534884</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,6 +4719,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4575,10 +4738,10 @@
         <v>154</v>
       </c>
       <c r="F120" t="n">
-        <v>150</v>
+        <v>3912.2574</v>
       </c>
       <c r="G120" t="n">
-        <v>-36015.29485348835</v>
+        <v>-116312.5020534884</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4755,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C121" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D121" t="n">
         <v>156</v>
       </c>
       <c r="E121" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F121" t="n">
-        <v>586.7219</v>
+        <v>2847.807</v>
       </c>
       <c r="G121" t="n">
-        <v>-35428.57295348835</v>
+        <v>-116312.5020534884</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4791,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C122" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D122" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E122" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F122" t="n">
-        <v>291.2262</v>
+        <v>1000</v>
       </c>
       <c r="G122" t="n">
-        <v>-35719.79915348835</v>
+        <v>-116312.5020534884</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4827,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C123" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D123" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E123" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F123" t="n">
-        <v>4483.749</v>
+        <v>1975.1665</v>
       </c>
       <c r="G123" t="n">
-        <v>-35719.79915348835</v>
+        <v>-116312.5020534884</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4863,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C124" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D124" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E124" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F124" t="n">
-        <v>9853.9462</v>
+        <v>2296.1991</v>
       </c>
       <c r="G124" t="n">
-        <v>-45573.74535348835</v>
+        <v>-114016.3029534884</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4899,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C125" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D125" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E125" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F125" t="n">
-        <v>2257.4322</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>-43316.31315348834</v>
+        <v>-114015.3029534884</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4935,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C126" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D126" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E126" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F126" t="n">
-        <v>62089.8317</v>
+        <v>264.9159</v>
       </c>
       <c r="G126" t="n">
-        <v>-105406.1448534883</v>
+        <v>-114280.2188534884</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4971,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C127" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D127" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E127" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F127" t="n">
-        <v>10752.2189</v>
+        <v>212.1266</v>
       </c>
       <c r="G127" t="n">
-        <v>-105406.1448534883</v>
+        <v>-114280.2188534884</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +5007,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C128" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D128" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E128" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F128" t="n">
-        <v>116.9701</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>-105406.1448534883</v>
+        <v>-114279.2188534884</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5043,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C129" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D129" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E129" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F129" t="n">
-        <v>304.9278</v>
+        <v>4287.9369</v>
       </c>
       <c r="G129" t="n">
-        <v>-105406.1448534883</v>
+        <v>-114279.2188534884</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5079,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C130" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D130" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E130" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F130" t="n">
-        <v>2377.5544</v>
+        <v>4189.6013</v>
       </c>
       <c r="G130" t="n">
-        <v>-107783.6992534883</v>
+        <v>-118468.8201534884</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5115,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C131" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D131" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E131" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F131" t="n">
-        <v>5960</v>
+        <v>528</v>
       </c>
       <c r="G131" t="n">
-        <v>-107783.6992534883</v>
+        <v>-118468.8201534884</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5151,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C132" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D132" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E132" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F132" t="n">
-        <v>7219.8052</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>-107783.6992534883</v>
+        <v>-118467.8201534884</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5187,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C133" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D133" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E133" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F133" t="n">
-        <v>406.1298</v>
+        <v>3925.2488</v>
       </c>
       <c r="G133" t="n">
-        <v>-107783.6992534883</v>
+        <v>-122393.0689534884</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5223,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C134" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D134" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E134" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F134" t="n">
-        <v>2443.5236</v>
+        <v>2298.4854</v>
       </c>
       <c r="G134" t="n">
-        <v>-107783.6992534883</v>
+        <v>-124691.5543534884</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5259,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C135" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D135" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E135" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F135" t="n">
-        <v>131.5609</v>
+        <v>265.7523</v>
       </c>
       <c r="G135" t="n">
-        <v>-107783.6992534883</v>
+        <v>-124425.8020534884</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5295,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C136" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D136" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E136" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F136" t="n">
-        <v>257.9217</v>
+        <v>150</v>
       </c>
       <c r="G136" t="n">
-        <v>-107783.6992534883</v>
+        <v>-124425.8020534884</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5331,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C137" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D137" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E137" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F137" t="n">
-        <v>205.1892</v>
+        <v>251</v>
       </c>
       <c r="G137" t="n">
-        <v>-107783.6992534883</v>
+        <v>-124425.8020534884</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5367,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C138" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D138" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E138" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F138" t="n">
-        <v>1086.8694</v>
+        <v>18.1937</v>
       </c>
       <c r="G138" t="n">
-        <v>-107783.6992534883</v>
+        <v>-124407.6083534884</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,28 +5403,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C139" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D139" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E139" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F139" t="n">
-        <v>233.3358</v>
+        <v>621.562</v>
       </c>
       <c r="G139" t="n">
-        <v>-107783.6992534883</v>
+        <v>-125029.1703534884</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5257,28 +5439,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C140" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D140" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E140" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F140" t="n">
-        <v>213.1213</v>
+        <v>1122</v>
       </c>
       <c r="G140" t="n">
-        <v>-107783.6992534883</v>
+        <v>-125029.1703534884</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,28 +5475,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C141" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D141" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E141" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F141" t="n">
-        <v>4500</v>
+        <v>756</v>
       </c>
       <c r="G141" t="n">
-        <v>-103283.6992534883</v>
+        <v>-125029.1703534884</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,28 +5511,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C142" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D142" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E142" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F142" t="n">
-        <v>406.1298</v>
+        <v>252</v>
       </c>
       <c r="G142" t="n">
-        <v>-103283.6992534883</v>
+        <v>-125029.1703534884</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5362,28 +5547,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C143" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D143" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E143" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F143" t="n">
-        <v>114.809</v>
+        <v>1607.8269</v>
       </c>
       <c r="G143" t="n">
-        <v>-103168.8902534883</v>
+        <v>-125029.1703534884</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5397,6 +5583,7 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5415,10 +5602,10 @@
         <v>155</v>
       </c>
       <c r="F144" t="n">
-        <v>1167.7225</v>
+        <v>4360.6079</v>
       </c>
       <c r="G144" t="n">
-        <v>-102001.1677534883</v>
+        <v>-129389.7782534884</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,28 +5619,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C145" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D145" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E145" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F145" t="n">
-        <v>4165.7038</v>
+        <v>157.1765</v>
       </c>
       <c r="G145" t="n">
-        <v>-106166.8715534883</v>
+        <v>-129389.7782534884</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5467,28 +5655,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C146" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D146" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E146" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F146" t="n">
-        <v>4704.1493</v>
+        <v>1381.0385</v>
       </c>
       <c r="G146" t="n">
-        <v>-106166.8715534883</v>
+        <v>-129389.7782534884</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5502,28 +5691,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C147" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D147" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E147" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F147" t="n">
-        <v>2815.8238</v>
+        <v>926.3176999999999</v>
       </c>
       <c r="G147" t="n">
-        <v>-108982.6953534883</v>
+        <v>-130316.0959534884</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5537,41 +5727,47 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C148" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D148" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E148" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F148" t="n">
-        <v>2546.7396</v>
+        <v>2541.3079</v>
       </c>
       <c r="G148" t="n">
-        <v>-108982.6953534883</v>
+        <v>-130316.0959534884</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>154</v>
+      </c>
+      <c r="K148" t="n">
+        <v>154</v>
+      </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5581,109 +5777,132 @@
         <v>153</v>
       </c>
       <c r="C149" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D149" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E149" t="n">
         <v>153</v>
       </c>
       <c r="F149" t="n">
-        <v>1963.2843</v>
+        <v>4441.7465</v>
       </c>
       <c r="G149" t="n">
-        <v>-107019.4110534883</v>
+        <v>-134757.8424534884</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>154</v>
+      </c>
+      <c r="K149" t="n">
+        <v>154</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C150" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D150" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E150" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F150" t="n">
-        <v>1.3</v>
+        <v>438</v>
       </c>
       <c r="G150" t="n">
-        <v>-107019.4110534883</v>
+        <v>-134319.8424534884</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>153</v>
+      </c>
+      <c r="K150" t="n">
+        <v>154</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C151" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D151" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E151" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F151" t="n">
-        <v>18</v>
+        <v>90.15479999999999</v>
       </c>
       <c r="G151" t="n">
-        <v>-107019.4110534883</v>
+        <v>-134319.8424534884</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>155</v>
+      </c>
+      <c r="K151" t="n">
+        <v>155</v>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C152" t="n">
         <v>156</v>
@@ -5692,538 +5911,673 @@
         <v>156</v>
       </c>
       <c r="E152" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F152" t="n">
-        <v>6024.2207</v>
+        <v>931</v>
       </c>
       <c r="G152" t="n">
-        <v>-107019.4110534883</v>
+        <v>-133388.8424534884</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>155</v>
+      </c>
+      <c r="K152" t="n">
+        <v>155</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C153" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D153" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E153" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>7157.326</v>
       </c>
       <c r="G153" t="n">
-        <v>-107018.4110534883</v>
+        <v>-140546.1684534884</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>156</v>
+      </c>
+      <c r="K153" t="n">
+        <v>155</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C154" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D154" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E154" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F154" t="n">
-        <v>266.0709</v>
+        <v>2130.6417</v>
       </c>
       <c r="G154" t="n">
-        <v>-107284.4819534883</v>
+        <v>-140546.1684534884</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>153</v>
+      </c>
+      <c r="K154" t="n">
+        <v>155</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C155" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D155" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E155" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F155" t="n">
-        <v>119.0522</v>
+        <v>99.15689999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>-107284.4819534883</v>
+        <v>-140447.0115534884</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>153</v>
+      </c>
+      <c r="K155" t="n">
+        <v>155</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C156" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D156" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E156" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F156" t="n">
-        <v>60</v>
+        <v>115.2991</v>
       </c>
       <c r="G156" t="n">
-        <v>-107224.4819534883</v>
+        <v>-140562.3106534884</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>156</v>
+      </c>
+      <c r="K156" t="n">
+        <v>155</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D157" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E157" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F157" t="n">
-        <v>1284.705128205128</v>
+        <v>146.8456</v>
       </c>
       <c r="G157" t="n">
-        <v>-107224.4819534883</v>
+        <v>-140562.3106534884</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>155</v>
+      </c>
+      <c r="K157" t="n">
+        <v>155</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C158" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D158" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E158" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F158" t="n">
-        <v>508.2651</v>
+        <v>5230.5958</v>
       </c>
       <c r="G158" t="n">
-        <v>-107732.7470534883</v>
+        <v>-135331.7148534884</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>155</v>
+      </c>
+      <c r="K158" t="n">
+        <v>155</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C159" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D159" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E159" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>4501.35</v>
       </c>
       <c r="G159" t="n">
-        <v>-107731.7470534883</v>
+        <v>-139833.0648534884</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>158</v>
+      </c>
+      <c r="K159" t="n">
+        <v>155</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C160" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D160" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E160" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F160" t="n">
-        <v>279.0614</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>-108010.8084534884</v>
+        <v>-139834.0648534884</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>155</v>
+      </c>
+      <c r="K160" t="n">
+        <v>155</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C161" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D161" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E161" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F161" t="n">
-        <v>8301.693600000001</v>
+        <v>4711.6592</v>
       </c>
       <c r="G161" t="n">
-        <v>-116312.5020534884</v>
+        <v>-135122.4056534884</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>153</v>
+      </c>
+      <c r="K161" t="n">
+        <v>155</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C162" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D162" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E162" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F162" t="n">
-        <v>3912.2574</v>
+        <v>6383.8934</v>
       </c>
       <c r="G162" t="n">
-        <v>-116312.5020534884</v>
+        <v>-128738.5122534884</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>156</v>
+      </c>
+      <c r="K162" t="n">
+        <v>155</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C163" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D163" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E163" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F163" t="n">
-        <v>2847.807</v>
+        <v>5196.8454</v>
       </c>
       <c r="G163" t="n">
-        <v>-116312.5020534884</v>
+        <v>-133935.3576534884</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>157</v>
+      </c>
+      <c r="K163" t="n">
+        <v>155</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C164" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D164" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E164" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F164" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G164" t="n">
-        <v>-116312.5020534884</v>
+        <v>-133635.3576534884</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>153</v>
+      </c>
+      <c r="K164" t="n">
+        <v>155</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C165" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D165" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E165" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F165" t="n">
-        <v>1975.1665</v>
+        <v>5076.3473</v>
       </c>
       <c r="G165" t="n">
-        <v>-116312.5020534884</v>
+        <v>-128559.0103534884</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>157</v>
+      </c>
+      <c r="K165" t="n">
+        <v>155</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C166" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D166" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E166" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F166" t="n">
-        <v>2296.1991</v>
+        <v>4581.174</v>
       </c>
       <c r="G166" t="n">
-        <v>-114016.3029534884</v>
+        <v>-128559.0103534884</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>159</v>
+      </c>
+      <c r="K166" t="n">
+        <v>155</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C167" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D167" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E167" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>2548.9559</v>
       </c>
       <c r="G167" t="n">
-        <v>-114015.3029534884</v>
+        <v>-128559.0103534884</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6232,33 +6586,40 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>155</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C168" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D168" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E168" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F168" t="n">
-        <v>264.9159</v>
+        <v>750</v>
       </c>
       <c r="G168" t="n">
-        <v>-114280.2188534884</v>
+        <v>-128559.0103534884</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6267,33 +6628,40 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>155</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C169" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D169" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E169" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F169" t="n">
-        <v>212.1266</v>
+        <v>2750</v>
       </c>
       <c r="G169" t="n">
-        <v>-114280.2188534884</v>
+        <v>-131309.0103534884</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6302,33 +6670,40 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>155</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C170" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D170" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E170" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>5245.7585</v>
       </c>
       <c r="G170" t="n">
-        <v>-114279.2188534884</v>
+        <v>-131309.0103534884</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6337,33 +6712,40 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>155</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C171" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D171" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E171" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F171" t="n">
-        <v>4287.9369</v>
+        <v>9180.497600000001</v>
       </c>
       <c r="G171" t="n">
-        <v>-114279.2188534884</v>
+        <v>-131309.0103534884</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6372,33 +6754,40 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>155</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C172" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D172" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E172" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F172" t="n">
-        <v>4189.6013</v>
+        <v>264.484</v>
       </c>
       <c r="G172" t="n">
-        <v>-118468.8201534884</v>
+        <v>-131044.5263534884</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6407,33 +6796,40 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>155</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C173" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D173" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E173" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F173" t="n">
-        <v>528</v>
+        <v>5712.0734</v>
       </c>
       <c r="G173" t="n">
-        <v>-118468.8201534884</v>
+        <v>-136756.5997534884</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6442,33 +6838,40 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>155</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C174" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D174" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E174" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>925.5086</v>
       </c>
       <c r="G174" t="n">
-        <v>-118467.8201534884</v>
+        <v>-136756.5997534884</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6477,33 +6880,40 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>155</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C175" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D175" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E175" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F175" t="n">
-        <v>3925.2488</v>
+        <v>2901.1257</v>
       </c>
       <c r="G175" t="n">
-        <v>-122393.0689534884</v>
+        <v>-133855.4740534884</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6512,33 +6922,40 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>155</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C176" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D176" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E176" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F176" t="n">
-        <v>2298.4854</v>
+        <v>1416.701</v>
       </c>
       <c r="G176" t="n">
-        <v>-124691.5543534884</v>
+        <v>-133855.4740534884</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6547,33 +6964,40 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>155</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C177" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D177" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E177" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F177" t="n">
-        <v>265.7523</v>
+        <v>2582.299</v>
       </c>
       <c r="G177" t="n">
-        <v>-124425.8020534884</v>
+        <v>-133855.4740534884</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6582,72 +7006,82 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>155</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C178" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D178" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E178" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F178" t="n">
-        <v>150</v>
+        <v>3518.2202</v>
       </c>
       <c r="G178" t="n">
-        <v>-124425.8020534884</v>
+        <v>-130337.2538534884</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>156</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>156</v>
-      </c>
-      <c r="L178" t="inlineStr"/>
+        <v>155</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C179" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D179" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E179" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F179" t="n">
-        <v>251</v>
+        <v>8906.2271</v>
       </c>
       <c r="G179" t="n">
-        <v>-124425.8020534884</v>
+        <v>-121431.0267534884</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6657,114 +7091,127 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C180" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D180" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E180" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F180" t="n">
-        <v>18.1937</v>
+        <v>2316.4674</v>
       </c>
       <c r="G180" t="n">
-        <v>-124407.6083534884</v>
+        <v>-121431.0267534884</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>161</v>
+      </c>
       <c r="K180" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C181" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D181" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E181" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F181" t="n">
-        <v>621.562</v>
+        <v>3146.4425</v>
       </c>
       <c r="G181" t="n">
-        <v>-125029.1703534884</v>
+        <v>-118284.5842534884</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>161</v>
+      </c>
+      <c r="K181" t="n">
+        <v>155</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C182" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D182" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E182" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F182" t="n">
-        <v>1122</v>
+        <v>637.3506</v>
       </c>
       <c r="G182" t="n">
-        <v>-125029.1703534884</v>
+        <v>-118921.9348534884</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6773,154 +7220,170 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>155</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C183" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D183" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E183" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F183" t="n">
-        <v>756</v>
+        <v>5297.4609</v>
       </c>
       <c r="G183" t="n">
-        <v>-125029.1703534884</v>
+        <v>-124219.3957534884</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>156</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>156</v>
-      </c>
-      <c r="L183" t="inlineStr"/>
+        <v>155</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C184" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D184" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E184" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F184" t="n">
-        <v>252</v>
+        <v>267.0992</v>
       </c>
       <c r="G184" t="n">
-        <v>-125029.1703534884</v>
+        <v>-123952.2965534884</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>159</v>
+      </c>
       <c r="K184" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C185" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D185" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E185" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F185" t="n">
-        <v>1607.8269</v>
+        <v>929.0683</v>
       </c>
       <c r="G185" t="n">
-        <v>-125029.1703534884</v>
+        <v>-124881.3648534884</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>161</v>
+      </c>
       <c r="K185" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C186" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D186" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E186" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F186" t="n">
-        <v>4360.6079</v>
+        <v>5245.7585</v>
       </c>
       <c r="G186" t="n">
-        <v>-129389.7782534884</v>
+        <v>-130127.1233534884</v>
       </c>
       <c r="H186" t="n">
         <v>1</v>
@@ -6929,37 +7392,42 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K186" t="n">
-        <v>156</v>
-      </c>
-      <c r="L186" t="inlineStr"/>
+        <v>155</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C187" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D187" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E187" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F187" t="n">
-        <v>157.1765</v>
+        <v>15015.5552</v>
       </c>
       <c r="G187" t="n">
-        <v>-129389.7782534884</v>
+        <v>-115111.5681534884</v>
       </c>
       <c r="H187" t="n">
         <v>1</v>
@@ -6968,41 +7436,42 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K187" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C188" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D188" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E188" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F188" t="n">
-        <v>1381.0385</v>
+        <v>5382.2038</v>
       </c>
       <c r="G188" t="n">
-        <v>-129389.7782534884</v>
+        <v>-109729.3643534884</v>
       </c>
       <c r="H188" t="n">
         <v>1</v>
@@ -7011,41 +7480,42 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K188" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C189" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D189" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E189" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F189" t="n">
-        <v>926.3176999999999</v>
+        <v>1718.2879</v>
       </c>
       <c r="G189" t="n">
-        <v>-130316.0959534884</v>
+        <v>-111447.6522534884</v>
       </c>
       <c r="H189" t="n">
         <v>1</v>
@@ -7054,37 +7524,42 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K189" t="n">
         <v>155</v>
       </c>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C190" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D190" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E190" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F190" t="n">
-        <v>2541.3079</v>
+        <v>492.6584</v>
       </c>
       <c r="G190" t="n">
-        <v>-130316.0959534884</v>
+        <v>-110954.9938534884</v>
       </c>
       <c r="H190" t="n">
         <v>1</v>
@@ -7093,209 +7568,210 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K190" t="n">
         <v>155</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C191" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D191" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E191" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F191" t="n">
-        <v>4441.7465</v>
+        <v>13493.9187</v>
       </c>
       <c r="G191" t="n">
-        <v>-134757.8424534884</v>
+        <v>-110954.9938534884</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>154</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
         <v>155</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C192" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D192" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E192" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F192" t="n">
-        <v>438</v>
+        <v>1702.7268</v>
       </c>
       <c r="G192" t="n">
-        <v>-134319.8424534884</v>
+        <v>-110954.9938534884</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>153</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>153</v>
-      </c>
-      <c r="L192" t="inlineStr"/>
+        <v>155</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C193" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D193" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E193" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F193" t="n">
-        <v>90.15479999999999</v>
+        <v>34823.4902</v>
       </c>
       <c r="G193" t="n">
-        <v>-134319.8424534884</v>
+        <v>-76131.50365348837</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>155</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C194" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D194" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E194" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F194" t="n">
-        <v>931</v>
+        <v>3288.903</v>
       </c>
       <c r="G194" t="n">
-        <v>-133388.8424534884</v>
+        <v>-79420.40665348838</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>155</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C195" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D195" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E195" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F195" t="n">
-        <v>7157.326</v>
+        <v>1935.3571</v>
       </c>
       <c r="G195" t="n">
-        <v>-140546.1684534884</v>
+        <v>-81355.76375348837</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7304,33 +7780,40 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>155</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C196" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D196" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E196" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F196" t="n">
-        <v>2130.6417</v>
+        <v>157.9416</v>
       </c>
       <c r="G196" t="n">
-        <v>-140546.1684534884</v>
+        <v>-81197.82215348836</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7339,33 +7822,40 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>155</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C197" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D197" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E197" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F197" t="n">
-        <v>99.15689999999999</v>
+        <v>10859.2021</v>
       </c>
       <c r="G197" t="n">
-        <v>-140447.0115534884</v>
+        <v>-81197.82215348836</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7374,33 +7864,40 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>155</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C198" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D198" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E198" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F198" t="n">
-        <v>115.2991</v>
+        <v>4140</v>
       </c>
       <c r="G198" t="n">
-        <v>-140562.3106534884</v>
+        <v>-85337.82215348836</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7409,33 +7906,40 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>155</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C199" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D199" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E199" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F199" t="n">
-        <v>146.8456</v>
+        <v>1958.6074</v>
       </c>
       <c r="G199" t="n">
-        <v>-140562.3106534884</v>
+        <v>-85337.82215348836</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7444,33 +7948,40 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>155</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C200" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D200" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E200" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F200" t="n">
-        <v>5230.5958</v>
+        <v>4614.801</v>
       </c>
       <c r="G200" t="n">
-        <v>-135331.7148534884</v>
+        <v>-85337.82215348836</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7479,33 +7990,40 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>155</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C201" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D201" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E201" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F201" t="n">
-        <v>4501.35</v>
+        <v>12743.4587</v>
       </c>
       <c r="G201" t="n">
-        <v>-139833.0648534884</v>
+        <v>-98081.28085348837</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7514,33 +8032,40 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>155</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C202" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D202" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E202" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F202" t="n">
-        <v>1</v>
+        <v>8182.8781</v>
       </c>
       <c r="G202" t="n">
-        <v>-139834.0648534884</v>
+        <v>-98081.28085348837</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7549,33 +8074,40 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>155</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C203" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D203" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E203" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F203" t="n">
-        <v>4711.6592</v>
+        <v>2014.3821</v>
       </c>
       <c r="G203" t="n">
-        <v>-135122.4056534884</v>
+        <v>-96066.89875348836</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7584,1481 +8116,18 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>155</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>157</v>
-      </c>
-      <c r="C204" t="n">
-        <v>157</v>
-      </c>
-      <c r="D204" t="n">
-        <v>157</v>
-      </c>
-      <c r="E204" t="n">
-        <v>157</v>
-      </c>
-      <c r="F204" t="n">
-        <v>6383.8934</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-128738.5122534884</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>157</v>
-      </c>
-      <c r="C205" t="n">
-        <v>153</v>
-      </c>
-      <c r="D205" t="n">
-        <v>157</v>
-      </c>
-      <c r="E205" t="n">
-        <v>153</v>
-      </c>
-      <c r="F205" t="n">
-        <v>5196.8454</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-133935.3576534884</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>157</v>
-      </c>
-      <c r="C206" t="n">
-        <v>157</v>
-      </c>
-      <c r="D206" t="n">
-        <v>157</v>
-      </c>
-      <c r="E206" t="n">
-        <v>157</v>
-      </c>
-      <c r="F206" t="n">
-        <v>300</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-133635.3576534884</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>158</v>
-      </c>
-      <c r="C207" t="n">
-        <v>159</v>
-      </c>
-      <c r="D207" t="n">
-        <v>159</v>
-      </c>
-      <c r="E207" t="n">
-        <v>158</v>
-      </c>
-      <c r="F207" t="n">
-        <v>5076.3473</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-128559.0103534884</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>160</v>
-      </c>
-      <c r="C208" t="n">
-        <v>159</v>
-      </c>
-      <c r="D208" t="n">
-        <v>161</v>
-      </c>
-      <c r="E208" t="n">
-        <v>159</v>
-      </c>
-      <c r="F208" t="n">
-        <v>4581.174</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-128559.0103534884</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>159</v>
-      </c>
-      <c r="C209" t="n">
-        <v>159</v>
-      </c>
-      <c r="D209" t="n">
-        <v>159</v>
-      </c>
-      <c r="E209" t="n">
-        <v>159</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2548.9559</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-128559.0103534884</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>159</v>
-      </c>
-      <c r="C210" t="n">
-        <v>159</v>
-      </c>
-      <c r="D210" t="n">
-        <v>159</v>
-      </c>
-      <c r="E210" t="n">
-        <v>159</v>
-      </c>
-      <c r="F210" t="n">
-        <v>750</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-128559.0103534884</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>159</v>
-      </c>
-      <c r="C211" t="n">
-        <v>158</v>
-      </c>
-      <c r="D211" t="n">
-        <v>159</v>
-      </c>
-      <c r="E211" t="n">
-        <v>158</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2750</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-131309.0103534884</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>158</v>
-      </c>
-      <c r="C212" t="n">
-        <v>158</v>
-      </c>
-      <c r="D212" t="n">
-        <v>158</v>
-      </c>
-      <c r="E212" t="n">
-        <v>158</v>
-      </c>
-      <c r="F212" t="n">
-        <v>5245.7585</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-131309.0103534884</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>160</v>
-      </c>
-      <c r="C213" t="n">
-        <v>158</v>
-      </c>
-      <c r="D213" t="n">
-        <v>160</v>
-      </c>
-      <c r="E213" t="n">
-        <v>158</v>
-      </c>
-      <c r="F213" t="n">
-        <v>9180.497600000001</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-131309.0103534884</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>159</v>
-      </c>
-      <c r="C214" t="n">
-        <v>159</v>
-      </c>
-      <c r="D214" t="n">
-        <v>159</v>
-      </c>
-      <c r="E214" t="n">
-        <v>159</v>
-      </c>
-      <c r="F214" t="n">
-        <v>264.484</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-131044.5263534884</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>159</v>
-      </c>
-      <c r="C215" t="n">
-        <v>158</v>
-      </c>
-      <c r="D215" t="n">
-        <v>159</v>
-      </c>
-      <c r="E215" t="n">
-        <v>158</v>
-      </c>
-      <c r="F215" t="n">
-        <v>5712.0734</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-136756.5997534884</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>158</v>
-      </c>
-      <c r="C216" t="n">
-        <v>158</v>
-      </c>
-      <c r="D216" t="n">
-        <v>158</v>
-      </c>
-      <c r="E216" t="n">
-        <v>158</v>
-      </c>
-      <c r="F216" t="n">
-        <v>925.5086</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-136756.5997534884</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>159</v>
-      </c>
-      <c r="C217" t="n">
-        <v>159</v>
-      </c>
-      <c r="D217" t="n">
-        <v>159</v>
-      </c>
-      <c r="E217" t="n">
-        <v>159</v>
-      </c>
-      <c r="F217" t="n">
-        <v>2901.1257</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-133855.4740534884</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>159</v>
-      </c>
-      <c r="C218" t="n">
-        <v>159</v>
-      </c>
-      <c r="D218" t="n">
-        <v>159</v>
-      </c>
-      <c r="E218" t="n">
-        <v>159</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1416.701</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-133855.4740534884</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>159</v>
-      </c>
-      <c r="C219" t="n">
-        <v>159</v>
-      </c>
-      <c r="D219" t="n">
-        <v>159</v>
-      </c>
-      <c r="E219" t="n">
-        <v>159</v>
-      </c>
-      <c r="F219" t="n">
-        <v>2582.299</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-133855.4740534884</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>160</v>
-      </c>
-      <c r="C220" t="n">
-        <v>160</v>
-      </c>
-      <c r="D220" t="n">
-        <v>160</v>
-      </c>
-      <c r="E220" t="n">
-        <v>160</v>
-      </c>
-      <c r="F220" t="n">
-        <v>3518.2202</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-130337.2538534884</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>160</v>
-      </c>
-      <c r="C221" t="n">
-        <v>161</v>
-      </c>
-      <c r="D221" t="n">
-        <v>161</v>
-      </c>
-      <c r="E221" t="n">
-        <v>160</v>
-      </c>
-      <c r="F221" t="n">
-        <v>8906.2271</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-121431.0267534884</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>161</v>
-      </c>
-      <c r="C222" t="n">
-        <v>161</v>
-      </c>
-      <c r="D222" t="n">
-        <v>161</v>
-      </c>
-      <c r="E222" t="n">
-        <v>161</v>
-      </c>
-      <c r="F222" t="n">
-        <v>2316.4674</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-121431.0267534884</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>161</v>
-      </c>
-      <c r="C223" t="n">
-        <v>162</v>
-      </c>
-      <c r="D223" t="n">
-        <v>162</v>
-      </c>
-      <c r="E223" t="n">
-        <v>161</v>
-      </c>
-      <c r="F223" t="n">
-        <v>3146.4425</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-118284.5842534884</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>161</v>
-      </c>
-      <c r="C224" t="n">
-        <v>161</v>
-      </c>
-      <c r="D224" t="n">
-        <v>161</v>
-      </c>
-      <c r="E224" t="n">
-        <v>161</v>
-      </c>
-      <c r="F224" t="n">
-        <v>637.3506</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-118921.9348534884</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>160</v>
-      </c>
-      <c r="C225" t="n">
-        <v>159</v>
-      </c>
-      <c r="D225" t="n">
-        <v>160</v>
-      </c>
-      <c r="E225" t="n">
-        <v>159</v>
-      </c>
-      <c r="F225" t="n">
-        <v>5297.4609</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-124219.3957534884</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>161</v>
-      </c>
-      <c r="C226" t="n">
-        <v>161</v>
-      </c>
-      <c r="D226" t="n">
-        <v>161</v>
-      </c>
-      <c r="E226" t="n">
-        <v>161</v>
-      </c>
-      <c r="F226" t="n">
-        <v>267.0992</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-123952.2965534884</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>159</v>
-      </c>
-      <c r="C227" t="n">
-        <v>159</v>
-      </c>
-      <c r="D227" t="n">
-        <v>159</v>
-      </c>
-      <c r="E227" t="n">
-        <v>159</v>
-      </c>
-      <c r="F227" t="n">
-        <v>929.0683</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-124881.3648534884</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>158</v>
-      </c>
-      <c r="C228" t="n">
-        <v>158</v>
-      </c>
-      <c r="D228" t="n">
-        <v>158</v>
-      </c>
-      <c r="E228" t="n">
-        <v>158</v>
-      </c>
-      <c r="F228" t="n">
-        <v>5245.7585</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-130127.1233534884</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>158</v>
-      </c>
-      <c r="C229" t="n">
-        <v>159</v>
-      </c>
-      <c r="D229" t="n">
-        <v>159</v>
-      </c>
-      <c r="E229" t="n">
-        <v>156</v>
-      </c>
-      <c r="F229" t="n">
-        <v>15015.5552</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-115111.5681534884</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>159</v>
-      </c>
-      <c r="C230" t="n">
-        <v>160</v>
-      </c>
-      <c r="D230" t="n">
-        <v>160</v>
-      </c>
-      <c r="E230" t="n">
-        <v>159</v>
-      </c>
-      <c r="F230" t="n">
-        <v>5382.2038</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-109729.3643534884</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>158</v>
-      </c>
-      <c r="C231" t="n">
-        <v>158</v>
-      </c>
-      <c r="D231" t="n">
-        <v>158</v>
-      </c>
-      <c r="E231" t="n">
-        <v>158</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1718.2879</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-111447.6522534884</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>160</v>
-      </c>
-      <c r="C232" t="n">
-        <v>160</v>
-      </c>
-      <c r="D232" t="n">
-        <v>160</v>
-      </c>
-      <c r="E232" t="n">
-        <v>160</v>
-      </c>
-      <c r="F232" t="n">
-        <v>492.6584</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-110954.9938534884</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>160</v>
-      </c>
-      <c r="C233" t="n">
-        <v>160</v>
-      </c>
-      <c r="D233" t="n">
-        <v>160</v>
-      </c>
-      <c r="E233" t="n">
-        <v>160</v>
-      </c>
-      <c r="F233" t="n">
-        <v>13493.9187</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-110954.9938534884</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>160</v>
-      </c>
-      <c r="C234" t="n">
-        <v>160</v>
-      </c>
-      <c r="D234" t="n">
-        <v>160</v>
-      </c>
-      <c r="E234" t="n">
-        <v>160</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1702.7268</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-110954.9938534884</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>160</v>
-      </c>
-      <c r="C235" t="n">
-        <v>163</v>
-      </c>
-      <c r="D235" t="n">
-        <v>163</v>
-      </c>
-      <c r="E235" t="n">
-        <v>160</v>
-      </c>
-      <c r="F235" t="n">
-        <v>34823.4902</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-76131.50365348837</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>163</v>
-      </c>
-      <c r="C236" t="n">
-        <v>160</v>
-      </c>
-      <c r="D236" t="n">
-        <v>163</v>
-      </c>
-      <c r="E236" t="n">
-        <v>160</v>
-      </c>
-      <c r="F236" t="n">
-        <v>3288.903</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-79420.40665348838</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>160</v>
-      </c>
-      <c r="C237" t="n">
-        <v>159</v>
-      </c>
-      <c r="D237" t="n">
-        <v>160</v>
-      </c>
-      <c r="E237" t="n">
-        <v>159</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1935.3571</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-81355.76375348837</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>160</v>
-      </c>
-      <c r="C238" t="n">
-        <v>160</v>
-      </c>
-      <c r="D238" t="n">
-        <v>160</v>
-      </c>
-      <c r="E238" t="n">
-        <v>160</v>
-      </c>
-      <c r="F238" t="n">
-        <v>157.9416</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-81197.82215348836</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>160</v>
-      </c>
-      <c r="C239" t="n">
-        <v>160</v>
-      </c>
-      <c r="D239" t="n">
-        <v>160</v>
-      </c>
-      <c r="E239" t="n">
-        <v>160</v>
-      </c>
-      <c r="F239" t="n">
-        <v>10859.2021</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-81197.82215348836</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>159</v>
-      </c>
-      <c r="C240" t="n">
-        <v>159</v>
-      </c>
-      <c r="D240" t="n">
-        <v>159</v>
-      </c>
-      <c r="E240" t="n">
-        <v>159</v>
-      </c>
-      <c r="F240" t="n">
-        <v>4140</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-85337.82215348836</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>159</v>
-      </c>
-      <c r="C241" t="n">
-        <v>159</v>
-      </c>
-      <c r="D241" t="n">
-        <v>159</v>
-      </c>
-      <c r="E241" t="n">
-        <v>159</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1958.6074</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-85337.82215348836</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>159</v>
-      </c>
-      <c r="C242" t="n">
-        <v>159</v>
-      </c>
-      <c r="D242" t="n">
-        <v>159</v>
-      </c>
-      <c r="E242" t="n">
-        <v>159</v>
-      </c>
-      <c r="F242" t="n">
-        <v>4614.801</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-85337.82215348836</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>159</v>
-      </c>
-      <c r="C243" t="n">
-        <v>158</v>
-      </c>
-      <c r="D243" t="n">
-        <v>159</v>
-      </c>
-      <c r="E243" t="n">
-        <v>158</v>
-      </c>
-      <c r="F243" t="n">
-        <v>12743.4587</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-98081.28085348837</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>158</v>
-      </c>
-      <c r="C244" t="n">
-        <v>158</v>
-      </c>
-      <c r="D244" t="n">
-        <v>158</v>
-      </c>
-      <c r="E244" t="n">
-        <v>158</v>
-      </c>
-      <c r="F244" t="n">
-        <v>8182.8781</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-98081.28085348837</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>157</v>
-      </c>
-      <c r="C245" t="n">
-        <v>159</v>
-      </c>
-      <c r="D245" t="n">
-        <v>159</v>
-      </c>
-      <c r="E245" t="n">
-        <v>157</v>
-      </c>
-      <c r="F245" t="n">
-        <v>2014.3821</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-96066.89875348836</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
+      <c r="N203" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest ITC.xlsx
+++ b/BackTest/2019-11-01 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N203"/>
+  <dimension ref="A1:N274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D2" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E2" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F2" t="n">
-        <v>259.13</v>
+        <v>1635.2099</v>
       </c>
       <c r="G2" t="n">
-        <v>74708.17544651165</v>
+        <v>59380.90394651162</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D3" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E3" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F3" t="n">
-        <v>272.6613</v>
+        <v>111.8647</v>
       </c>
       <c r="G3" t="n">
-        <v>74435.51414651165</v>
+        <v>59380.90394651162</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E4" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F4" t="n">
-        <v>475.47</v>
+        <v>2000.98</v>
       </c>
       <c r="G4" t="n">
-        <v>74910.98414651165</v>
+        <v>59380.90394651162</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C5" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D5" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F5" t="n">
-        <v>2470.2679</v>
+        <v>2505.8875</v>
       </c>
       <c r="G5" t="n">
-        <v>72440.71624651164</v>
+        <v>59380.90394651162</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C6" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D6" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E6" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F6" t="n">
-        <v>139.97</v>
+        <v>982.242</v>
       </c>
       <c r="G6" t="n">
-        <v>72580.68624651164</v>
+        <v>59380.90394651162</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C7" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D7" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E7" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F7" t="n">
-        <v>434.5204</v>
+        <v>4934.3195</v>
       </c>
       <c r="G7" t="n">
-        <v>72580.68624651164</v>
+        <v>54446.58444651162</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" t="n">
-        <v>1201.5709</v>
+        <v>2887.5954</v>
       </c>
       <c r="G8" t="n">
-        <v>73782.25714651165</v>
+        <v>51558.98904651163</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C9" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D9" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E9" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F9" t="n">
-        <v>644.091</v>
+        <v>1540.343</v>
       </c>
       <c r="G9" t="n">
-        <v>73138.16614651165</v>
+        <v>51558.98904651163</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E10" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>875.3287</v>
       </c>
       <c r="G10" t="n">
-        <v>73138.16614651165</v>
+        <v>51558.98904651163</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" t="n">
         <v>161</v>
@@ -771,13 +771,13 @@
         <v>161</v>
       </c>
       <c r="E11" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F11" t="n">
-        <v>5175.3123</v>
+        <v>1235.9021</v>
       </c>
       <c r="G11" t="n">
-        <v>78313.47844651165</v>
+        <v>51558.98904651163</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -801,19 +801,19 @@
         <v>160</v>
       </c>
       <c r="C12" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E12" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" t="n">
-        <v>270.7438</v>
+        <v>11253.6578</v>
       </c>
       <c r="G12" t="n">
-        <v>78042.73464651166</v>
+        <v>40305.33124651163</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F13" t="n">
-        <v>2280.8887</v>
+        <v>3610.7859</v>
       </c>
       <c r="G13" t="n">
-        <v>80323.62334651165</v>
+        <v>40305.33124651163</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D14" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F14" t="n">
-        <v>239.7315</v>
+        <v>6548.2515</v>
       </c>
       <c r="G14" t="n">
-        <v>80323.62334651165</v>
+        <v>33757.07974651163</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C15" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D15" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F15" t="n">
-        <v>500</v>
+        <v>506.6479</v>
       </c>
       <c r="G15" t="n">
-        <v>80323.62334651165</v>
+        <v>34263.72764651163</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" t="n">
         <v>161</v>
       </c>
       <c r="D16" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E16" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16" t="n">
-        <v>750</v>
+        <v>22036.7969</v>
       </c>
       <c r="G16" t="n">
-        <v>80323.62334651165</v>
+        <v>56300.52454651163</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -984,22 +984,22 @@
         <v>161</v>
       </c>
       <c r="D17" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E17" t="n">
         <v>161</v>
       </c>
       <c r="F17" t="n">
-        <v>6020.2954</v>
+        <v>152.1997</v>
       </c>
       <c r="G17" t="n">
-        <v>80323.62334651165</v>
+        <v>56300.52454651163</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D18" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E18" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F18" t="n">
-        <v>2201.244</v>
+        <v>9922.6463</v>
       </c>
       <c r="G18" t="n">
-        <v>80323.62334651165</v>
+        <v>66223.17084651164</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C19" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D19" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E19" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F19" t="n">
-        <v>1714.981</v>
+        <v>2593.9615</v>
       </c>
       <c r="G19" t="n">
-        <v>78608.64234651165</v>
+        <v>66223.17084651164</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C20" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D20" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E20" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F20" t="n">
-        <v>2193.7615</v>
+        <v>12977.145</v>
       </c>
       <c r="G20" t="n">
-        <v>80802.40384651165</v>
+        <v>66223.17084651164</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C21" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D21" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E21" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F21" t="n">
-        <v>3036.0413</v>
+        <v>277.7213</v>
       </c>
       <c r="G21" t="n">
-        <v>80802.40384651165</v>
+        <v>65945.44954651163</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C22" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D22" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E22" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F22" t="n">
-        <v>10.5</v>
+        <v>3989.4552</v>
       </c>
       <c r="G22" t="n">
-        <v>80802.40384651165</v>
+        <v>69934.90474651163</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C23" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D23" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E23" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F23" t="n">
-        <v>14569.0394</v>
+        <v>1206.1029</v>
       </c>
       <c r="G23" t="n">
-        <v>66233.36444651165</v>
+        <v>68728.80184651163</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C24" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D24" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E24" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F24" t="n">
-        <v>1103.7081</v>
+        <v>3277.4192</v>
       </c>
       <c r="G24" t="n">
-        <v>66233.36444651165</v>
+        <v>68728.80184651163</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C25" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D25" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E25" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F25" t="n">
-        <v>939</v>
+        <v>293.1525</v>
       </c>
       <c r="G25" t="n">
-        <v>66233.36444651165</v>
+        <v>69021.95434651163</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C26" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D26" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E26" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F26" t="n">
-        <v>2176.7421</v>
+        <v>4421.1029</v>
       </c>
       <c r="G26" t="n">
-        <v>66233.36444651165</v>
+        <v>69021.95434651163</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C27" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D27" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E27" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F27" t="n">
-        <v>2491.3911</v>
+        <v>5456.7607</v>
       </c>
       <c r="G27" t="n">
-        <v>66233.36444651165</v>
+        <v>69021.95434651163</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C28" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D28" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E28" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" t="n">
-        <v>1155.6007</v>
+        <v>2258.5618</v>
       </c>
       <c r="G28" t="n">
-        <v>65077.76374651165</v>
+        <v>69021.95434651163</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C29" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D29" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E29" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F29" t="n">
-        <v>294.1545</v>
+        <v>89.7055</v>
       </c>
       <c r="G29" t="n">
-        <v>65077.76374651165</v>
+        <v>69111.65984651163</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C30" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D30" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E30" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F30" t="n">
-        <v>710.2397999999999</v>
+        <v>89.87</v>
       </c>
       <c r="G30" t="n">
-        <v>65788.00354651165</v>
+        <v>69021.78984651163</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C31" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E31" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" t="n">
-        <v>542.3807</v>
+        <v>5559.1715</v>
       </c>
       <c r="G31" t="n">
-        <v>65788.00354651165</v>
+        <v>63462.61834651163</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C32" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D32" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E32" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F32" t="n">
-        <v>13452.7438</v>
+        <v>2462</v>
       </c>
       <c r="G32" t="n">
-        <v>52335.25974651166</v>
+        <v>65924.61834651163</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C33" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D33" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E33" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F33" t="n">
-        <v>874.5897</v>
+        <v>47</v>
       </c>
       <c r="G33" t="n">
-        <v>53209.84944651165</v>
+        <v>65971.61834651163</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C34" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D34" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E34" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F34" t="n">
-        <v>17776.8551</v>
+        <v>724.8798</v>
       </c>
       <c r="G34" t="n">
-        <v>53209.84944651165</v>
+        <v>65246.73854651163</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F35" t="n">
-        <v>4265.4774</v>
+        <v>690.5803</v>
       </c>
       <c r="G35" t="n">
-        <v>53209.84944651165</v>
+        <v>65246.73854651163</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1665,19 +1665,19 @@
         <v>160</v>
       </c>
       <c r="C36" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" t="n">
         <v>160</v>
       </c>
       <c r="E36" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>1046.8857</v>
       </c>
       <c r="G36" t="n">
-        <v>53219.84944651165</v>
+        <v>64199.85284651163</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37" t="n">
-        <v>721.6592000000001</v>
+        <v>314.4699</v>
       </c>
       <c r="G37" t="n">
-        <v>53219.84944651165</v>
+        <v>64199.85284651163</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C38" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D38" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E38" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F38" t="n">
-        <v>433.6845</v>
+        <v>309.9437</v>
       </c>
       <c r="G38" t="n">
-        <v>53219.84944651165</v>
+        <v>64199.85284651163</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C39" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D39" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E39" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F39" t="n">
-        <v>1439.3962</v>
+        <v>3111.1103</v>
       </c>
       <c r="G39" t="n">
-        <v>51780.45324651165</v>
+        <v>64199.85284651163</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>161</v>
       </c>
       <c r="E40" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F40" t="n">
-        <v>9.6645</v>
+        <v>3364.7114</v>
       </c>
       <c r="G40" t="n">
-        <v>51790.11774651165</v>
+        <v>67564.56424651164</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C41" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D41" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E41" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F41" t="n">
-        <v>145.4668</v>
+        <v>276</v>
       </c>
       <c r="G41" t="n">
-        <v>51644.65094651165</v>
+        <v>67564.56424651164</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C42" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D42" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E42" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F42" t="n">
-        <v>327.7732</v>
+        <v>376</v>
       </c>
       <c r="G42" t="n">
-        <v>51972.42414651165</v>
+        <v>67564.56424651164</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C43" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D43" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E43" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F43" t="n">
-        <v>8000</v>
+        <v>57815.3094</v>
       </c>
       <c r="G43" t="n">
-        <v>43972.42414651165</v>
+        <v>125379.8736465116</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C44" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D44" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E44" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F44" t="n">
-        <v>832.6994999999999</v>
+        <v>278.234</v>
       </c>
       <c r="G44" t="n">
-        <v>43972.42414651165</v>
+        <v>125101.6396465116</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C45" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D45" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E45" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F45" t="n">
-        <v>3933</v>
+        <v>62.1118</v>
       </c>
       <c r="G45" t="n">
-        <v>40039.42414651165</v>
+        <v>125163.7514465116</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C46" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D46" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E46" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F46" t="n">
-        <v>7613.4249</v>
+        <v>4998.1827</v>
       </c>
       <c r="G46" t="n">
-        <v>40039.42414651165</v>
+        <v>125163.7514465116</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C47" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D47" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E47" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F47" t="n">
-        <v>276.4439</v>
+        <v>1705.3961</v>
       </c>
       <c r="G47" t="n">
-        <v>40039.42414651165</v>
+        <v>123458.3553465116</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C48" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D48" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E48" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F48" t="n">
-        <v>138.222</v>
+        <v>171.3961</v>
       </c>
       <c r="G48" t="n">
-        <v>40039.42414651165</v>
+        <v>123629.7514465116</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C49" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D49" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E49" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F49" t="n">
-        <v>93.73950000000001</v>
+        <v>21472.3792</v>
       </c>
       <c r="G49" t="n">
-        <v>40039.42414651165</v>
+        <v>102157.3722465116</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C50" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D50" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E50" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F50" t="n">
-        <v>6194.0341</v>
+        <v>382</v>
       </c>
       <c r="G50" t="n">
-        <v>33845.39004651165</v>
+        <v>102539.3722465116</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C51" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D51" t="n">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E51" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F51" t="n">
-        <v>4480</v>
+        <v>1321.0275</v>
       </c>
       <c r="G51" t="n">
-        <v>33845.39004651165</v>
+        <v>102539.3722465116</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C52" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D52" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E52" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F52" t="n">
-        <v>5282.9002</v>
+        <v>9439.714400000001</v>
       </c>
       <c r="G52" t="n">
-        <v>33845.39004651165</v>
+        <v>111979.0866465116</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C53" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D53" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E53" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F53" t="n">
-        <v>5028.9776</v>
+        <v>1595.0121</v>
       </c>
       <c r="G53" t="n">
-        <v>33845.39004651165</v>
+        <v>111979.0866465116</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C54" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D54" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E54" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F54" t="n">
-        <v>8225.4828</v>
+        <v>620.0804000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>25619.90724651166</v>
+        <v>111359.0062465116</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C55" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D55" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E55" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F55" t="n">
-        <v>223.2687</v>
+        <v>241.3516</v>
       </c>
       <c r="G55" t="n">
-        <v>25843.17594651166</v>
+        <v>111600.3578465116</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C56" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D56" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E56" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F56" t="n">
-        <v>10020</v>
+        <v>234.6952</v>
       </c>
       <c r="G56" t="n">
-        <v>15823.17594651166</v>
+        <v>111365.6626465116</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C57" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D57" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E57" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F57" t="n">
-        <v>2441.5354</v>
+        <v>8352.2839</v>
       </c>
       <c r="G57" t="n">
-        <v>18264.71134651166</v>
+        <v>103013.3787465116</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C58" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D58" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E58" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F58" t="n">
-        <v>240.9413</v>
+        <v>670.9340999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>18023.77004651166</v>
+        <v>103684.3128465116</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,28 +2490,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C59" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D59" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E59" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F59" t="n">
-        <v>253.9226</v>
+        <v>312.6617</v>
       </c>
       <c r="G59" t="n">
-        <v>18023.77004651166</v>
+        <v>103684.3128465116</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2526,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C60" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D60" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E60" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F60" t="n">
-        <v>1512.2397</v>
+        <v>235.575</v>
       </c>
       <c r="G60" t="n">
-        <v>18023.77004651166</v>
+        <v>103448.7378465116</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C61" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D61" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E61" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F61" t="n">
-        <v>30</v>
+        <v>5868.5332</v>
       </c>
       <c r="G61" t="n">
-        <v>18053.77004651166</v>
+        <v>109317.2710465116</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,28 +2598,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C62" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D62" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E62" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F62" t="n">
-        <v>1892.0206</v>
+        <v>1944.0538</v>
       </c>
       <c r="G62" t="n">
-        <v>18053.77004651166</v>
+        <v>107373.2172465116</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2634,28 +2634,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C63" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D63" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E63" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F63" t="n">
-        <v>801.3933</v>
+        <v>245.0405</v>
       </c>
       <c r="G63" t="n">
-        <v>18855.16334651166</v>
+        <v>107618.2577465116</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2670,28 +2670,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C64" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D64" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E64" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F64" t="n">
-        <v>25305.5054</v>
+        <v>7318.6027</v>
       </c>
       <c r="G64" t="n">
-        <v>-6450.342053488341</v>
+        <v>100299.6550465116</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,28 +2706,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C65" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D65" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E65" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F65" t="n">
-        <v>267.8727</v>
+        <v>11582.3798</v>
       </c>
       <c r="G65" t="n">
-        <v>-6182.469353488341</v>
+        <v>100299.6550465116</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2742,28 +2742,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C66" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D66" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E66" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F66" t="n">
-        <v>1503.4394</v>
+        <v>1604.7562</v>
       </c>
       <c r="G66" t="n">
-        <v>-6182.469353488341</v>
+        <v>98694.89884651164</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C67" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D67" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E67" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F67" t="n">
-        <v>178.8856</v>
+        <v>141.8857</v>
       </c>
       <c r="G67" t="n">
-        <v>-6003.583753488341</v>
+        <v>98836.78454651164</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C68" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D68" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E68" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F68" t="n">
-        <v>411.1347</v>
+        <v>62.1118</v>
       </c>
       <c r="G68" t="n">
-        <v>-6003.583753488341</v>
+        <v>98836.78454651164</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C69" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D69" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E69" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F69" t="n">
-        <v>261.98</v>
+        <v>25000</v>
       </c>
       <c r="G69" t="n">
-        <v>-6265.563753488341</v>
+        <v>73836.78454651164</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C70" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D70" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E70" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F70" t="n">
-        <v>11720</v>
+        <v>11655.7437</v>
       </c>
       <c r="G70" t="n">
-        <v>-17985.56375348834</v>
+        <v>85492.52824651165</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C71" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D71" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E71" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F71" t="n">
-        <v>5015.3455</v>
+        <v>216.34</v>
       </c>
       <c r="G71" t="n">
-        <v>-12970.21825348834</v>
+        <v>85708.86824651164</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C72" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D72" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E72" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F72" t="n">
-        <v>99.98999999999999</v>
+        <v>11259.8228</v>
       </c>
       <c r="G72" t="n">
-        <v>-12970.21825348834</v>
+        <v>74449.04544651165</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C73" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D73" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E73" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F73" t="n">
-        <v>103</v>
+        <v>259.13</v>
       </c>
       <c r="G73" t="n">
-        <v>-12970.21825348834</v>
+        <v>74708.17544651165</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C74" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D74" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E74" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F74" t="n">
-        <v>293.5419</v>
+        <v>272.6613</v>
       </c>
       <c r="G74" t="n">
-        <v>-12970.21825348834</v>
+        <v>74435.51414651165</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C75" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D75" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E75" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F75" t="n">
-        <v>23045.0766</v>
+        <v>475.47</v>
       </c>
       <c r="G75" t="n">
-        <v>-36015.29485348835</v>
+        <v>74910.98414651165</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C76" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D76" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E76" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F76" t="n">
-        <v>1143.2673</v>
+        <v>2470.2679</v>
       </c>
       <c r="G76" t="n">
-        <v>-36015.29485348835</v>
+        <v>72440.71624651164</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C77" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D77" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E77" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F77" t="n">
-        <v>593.6926999999999</v>
+        <v>139.97</v>
       </c>
       <c r="G77" t="n">
-        <v>-36015.29485348835</v>
+        <v>72580.68624651164</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C78" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D78" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E78" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F78" t="n">
-        <v>150</v>
+        <v>434.5204</v>
       </c>
       <c r="G78" t="n">
-        <v>-36015.29485348835</v>
+        <v>72580.68624651164</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C79" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D79" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E79" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F79" t="n">
-        <v>586.7219</v>
+        <v>1201.5709</v>
       </c>
       <c r="G79" t="n">
-        <v>-35428.57295348835</v>
+        <v>73782.25714651165</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C80" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D80" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E80" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F80" t="n">
-        <v>291.2262</v>
+        <v>644.091</v>
       </c>
       <c r="G80" t="n">
-        <v>-35719.79915348835</v>
+        <v>73138.16614651165</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C81" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D81" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E81" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F81" t="n">
-        <v>4483.749</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>-35719.79915348835</v>
+        <v>73138.16614651165</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C82" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D82" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E82" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F82" t="n">
-        <v>9853.9462</v>
+        <v>5175.3123</v>
       </c>
       <c r="G82" t="n">
-        <v>-45573.74535348835</v>
+        <v>78313.47844651165</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C83" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D83" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E83" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F83" t="n">
-        <v>2257.4322</v>
+        <v>270.7438</v>
       </c>
       <c r="G83" t="n">
-        <v>-43316.31315348834</v>
+        <v>78042.73464651166</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C84" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D84" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E84" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F84" t="n">
-        <v>62089.8317</v>
+        <v>2280.8887</v>
       </c>
       <c r="G84" t="n">
-        <v>-105406.1448534883</v>
+        <v>80323.62334651165</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C85" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D85" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E85" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F85" t="n">
-        <v>10752.2189</v>
+        <v>239.7315</v>
       </c>
       <c r="G85" t="n">
-        <v>-105406.1448534883</v>
+        <v>80323.62334651165</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C86" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D86" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E86" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F86" t="n">
-        <v>116.9701</v>
+        <v>500</v>
       </c>
       <c r="G86" t="n">
-        <v>-105406.1448534883</v>
+        <v>80323.62334651165</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C87" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D87" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E87" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F87" t="n">
-        <v>304.9278</v>
+        <v>750</v>
       </c>
       <c r="G87" t="n">
-        <v>-105406.1448534883</v>
+        <v>80323.62334651165</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C88" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D88" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E88" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F88" t="n">
-        <v>2377.5544</v>
+        <v>6020.2954</v>
       </c>
       <c r="G88" t="n">
-        <v>-107783.6992534883</v>
+        <v>80323.62334651165</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C89" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D89" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E89" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F89" t="n">
-        <v>5960</v>
+        <v>2201.244</v>
       </c>
       <c r="G89" t="n">
-        <v>-107783.6992534883</v>
+        <v>80323.62334651165</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3606,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C90" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D90" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E90" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F90" t="n">
-        <v>7219.8052</v>
+        <v>1714.981</v>
       </c>
       <c r="G90" t="n">
-        <v>-107783.6992534883</v>
+        <v>78608.64234651165</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C91" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D91" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E91" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F91" t="n">
-        <v>406.1298</v>
+        <v>2193.7615</v>
       </c>
       <c r="G91" t="n">
-        <v>-107783.6992534883</v>
+        <v>80802.40384651165</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C92" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D92" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E92" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F92" t="n">
-        <v>2443.5236</v>
+        <v>3036.0413</v>
       </c>
       <c r="G92" t="n">
-        <v>-107783.6992534883</v>
+        <v>80802.40384651165</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C93" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D93" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E93" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F93" t="n">
-        <v>131.5609</v>
+        <v>10.5</v>
       </c>
       <c r="G93" t="n">
-        <v>-107783.6992534883</v>
+        <v>80802.40384651165</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C94" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D94" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E94" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F94" t="n">
-        <v>257.9217</v>
+        <v>14569.0394</v>
       </c>
       <c r="G94" t="n">
-        <v>-107783.6992534883</v>
+        <v>66233.36444651165</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C95" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D95" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E95" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F95" t="n">
-        <v>205.1892</v>
+        <v>1103.7081</v>
       </c>
       <c r="G95" t="n">
-        <v>-107783.6992534883</v>
+        <v>66233.36444651165</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C96" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D96" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E96" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F96" t="n">
-        <v>1086.8694</v>
+        <v>939</v>
       </c>
       <c r="G96" t="n">
-        <v>-107783.6992534883</v>
+        <v>66233.36444651165</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,35 +3858,31 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C97" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D97" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E97" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F97" t="n">
-        <v>233.3358</v>
+        <v>2176.7421</v>
       </c>
       <c r="G97" t="n">
-        <v>-107783.6992534883</v>
+        <v>66233.36444651165</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>152</v>
-      </c>
-      <c r="K97" t="n">
-        <v>152</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
@@ -3898,40 +3894,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C98" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D98" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E98" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F98" t="n">
-        <v>213.1213</v>
+        <v>2491.3911</v>
       </c>
       <c r="G98" t="n">
-        <v>-107783.6992534883</v>
+        <v>66233.36444651165</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>152</v>
-      </c>
-      <c r="K98" t="n">
-        <v>152</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3942,40 +3930,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C99" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D99" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E99" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F99" t="n">
-        <v>4500</v>
+        <v>1155.6007</v>
       </c>
       <c r="G99" t="n">
-        <v>-103283.6992534883</v>
+        <v>65077.76374651165</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>152</v>
-      </c>
-      <c r="K99" t="n">
-        <v>152</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3986,35 +3966,31 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C100" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D100" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E100" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F100" t="n">
-        <v>406.1298</v>
+        <v>294.1545</v>
       </c>
       <c r="G100" t="n">
-        <v>-103283.6992534883</v>
+        <v>65077.76374651165</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>153</v>
-      </c>
-      <c r="K100" t="n">
-        <v>153</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
@@ -4026,40 +4002,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C101" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D101" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E101" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F101" t="n">
-        <v>114.809</v>
+        <v>710.2397999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>-103168.8902534883</v>
+        <v>65788.00354651165</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>153</v>
-      </c>
-      <c r="K101" t="n">
-        <v>153</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4070,40 +4038,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C102" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D102" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E102" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F102" t="n">
-        <v>1167.7225</v>
+        <v>542.3807</v>
       </c>
       <c r="G102" t="n">
-        <v>-102001.1677534883</v>
+        <v>65788.00354651165</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>154</v>
-      </c>
-      <c r="K102" t="n">
-        <v>153</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4114,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C103" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D103" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E103" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F103" t="n">
-        <v>4165.7038</v>
+        <v>13452.7438</v>
       </c>
       <c r="G103" t="n">
-        <v>-106166.8715534883</v>
+        <v>52335.25974651166</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4150,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C104" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D104" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E104" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F104" t="n">
-        <v>4704.1493</v>
+        <v>874.5897</v>
       </c>
       <c r="G104" t="n">
-        <v>-106166.8715534883</v>
+        <v>53209.84944651165</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4186,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C105" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D105" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E105" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F105" t="n">
-        <v>2815.8238</v>
+        <v>17776.8551</v>
       </c>
       <c r="G105" t="n">
-        <v>-108982.6953534883</v>
+        <v>53209.84944651165</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4222,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C106" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D106" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E106" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F106" t="n">
-        <v>2546.7396</v>
+        <v>4265.4774</v>
       </c>
       <c r="G106" t="n">
-        <v>-108982.6953534883</v>
+        <v>53209.84944651165</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4258,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C107" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D107" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E107" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F107" t="n">
-        <v>1963.2843</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-107019.4110534883</v>
+        <v>53219.84944651165</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4294,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C108" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D108" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E108" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F108" t="n">
-        <v>1.3</v>
+        <v>721.6592000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>-107019.4110534883</v>
+        <v>53219.84944651165</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4330,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C109" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D109" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E109" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F109" t="n">
-        <v>18</v>
+        <v>433.6845</v>
       </c>
       <c r="G109" t="n">
-        <v>-107019.4110534883</v>
+        <v>53219.84944651165</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4366,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C110" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D110" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E110" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F110" t="n">
-        <v>6024.2207</v>
+        <v>1439.3962</v>
       </c>
       <c r="G110" t="n">
-        <v>-107019.4110534883</v>
+        <v>51780.45324651165</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4402,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C111" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D111" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E111" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>9.6645</v>
       </c>
       <c r="G111" t="n">
-        <v>-107018.4110534883</v>
+        <v>51790.11774651165</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4438,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C112" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D112" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E112" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F112" t="n">
-        <v>266.0709</v>
+        <v>145.4668</v>
       </c>
       <c r="G112" t="n">
-        <v>-107284.4819534883</v>
+        <v>51644.65094651165</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4474,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C113" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D113" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E113" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F113" t="n">
-        <v>119.0522</v>
+        <v>327.7732</v>
       </c>
       <c r="G113" t="n">
-        <v>-107284.4819534883</v>
+        <v>51972.42414651165</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4510,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C114" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D114" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E114" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F114" t="n">
-        <v>60</v>
+        <v>8000</v>
       </c>
       <c r="G114" t="n">
-        <v>-107224.4819534883</v>
+        <v>43972.42414651165</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4546,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C115" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D115" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E115" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F115" t="n">
-        <v>1284.705128205128</v>
+        <v>832.6994999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>-107224.4819534883</v>
+        <v>43972.42414651165</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4582,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C116" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D116" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E116" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F116" t="n">
-        <v>508.2651</v>
+        <v>3933</v>
       </c>
       <c r="G116" t="n">
-        <v>-107732.7470534883</v>
+        <v>40039.42414651165</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4618,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C117" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D117" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E117" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>7613.4249</v>
       </c>
       <c r="G117" t="n">
-        <v>-107731.7470534883</v>
+        <v>40039.42414651165</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4654,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C118" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D118" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E118" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F118" t="n">
-        <v>279.0614</v>
+        <v>276.4439</v>
       </c>
       <c r="G118" t="n">
-        <v>-108010.8084534884</v>
+        <v>40039.42414651165</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4690,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C119" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D119" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E119" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F119" t="n">
-        <v>8301.693600000001</v>
+        <v>138.222</v>
       </c>
       <c r="G119" t="n">
-        <v>-116312.5020534884</v>
+        <v>40039.42414651165</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4726,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C120" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D120" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E120" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F120" t="n">
-        <v>3912.2574</v>
+        <v>93.73950000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>-116312.5020534884</v>
+        <v>40039.42414651165</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4762,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C121" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D121" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E121" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F121" t="n">
-        <v>2847.807</v>
+        <v>6194.0341</v>
       </c>
       <c r="G121" t="n">
-        <v>-116312.5020534884</v>
+        <v>33845.39004651165</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4798,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C122" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D122" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E122" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F122" t="n">
-        <v>1000</v>
+        <v>4480</v>
       </c>
       <c r="G122" t="n">
-        <v>-116312.5020534884</v>
+        <v>33845.39004651165</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4834,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C123" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D123" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E123" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F123" t="n">
-        <v>1975.1665</v>
+        <v>5282.9002</v>
       </c>
       <c r="G123" t="n">
-        <v>-116312.5020534884</v>
+        <v>33845.39004651165</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4870,7 +4830,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C124" t="n">
         <v>157</v>
@@ -4879,13 +4839,13 @@
         <v>157</v>
       </c>
       <c r="E124" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F124" t="n">
-        <v>2296.1991</v>
+        <v>5028.9776</v>
       </c>
       <c r="G124" t="n">
-        <v>-114016.3029534884</v>
+        <v>33845.39004651165</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4906,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C125" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D125" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E125" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>8225.4828</v>
       </c>
       <c r="G125" t="n">
-        <v>-114015.3029534884</v>
+        <v>25619.90724651166</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4954,10 +4914,10 @@
         <v>156</v>
       </c>
       <c r="F126" t="n">
-        <v>264.9159</v>
+        <v>223.2687</v>
       </c>
       <c r="G126" t="n">
-        <v>-114280.2188534884</v>
+        <v>25843.17594651166</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4981,19 +4941,19 @@
         <v>156</v>
       </c>
       <c r="C127" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D127" t="n">
         <v>156</v>
       </c>
       <c r="E127" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F127" t="n">
-        <v>212.1266</v>
+        <v>10020</v>
       </c>
       <c r="G127" t="n">
-        <v>-114280.2188534884</v>
+        <v>15823.17594651166</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5014,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C128" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D128" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E128" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>2441.5354</v>
       </c>
       <c r="G128" t="n">
-        <v>-114279.2188534884</v>
+        <v>18264.71134651166</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5050,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C129" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D129" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E129" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F129" t="n">
-        <v>4287.9369</v>
+        <v>240.9413</v>
       </c>
       <c r="G129" t="n">
-        <v>-114279.2188534884</v>
+        <v>18023.77004651166</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5086,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C130" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D130" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E130" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F130" t="n">
-        <v>4189.6013</v>
+        <v>253.9226</v>
       </c>
       <c r="G130" t="n">
-        <v>-118468.8201534884</v>
+        <v>18023.77004651166</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5122,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C131" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D131" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E131" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F131" t="n">
-        <v>528</v>
+        <v>1512.2397</v>
       </c>
       <c r="G131" t="n">
-        <v>-118468.8201534884</v>
+        <v>18023.77004651166</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5158,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C132" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D132" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E132" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G132" t="n">
-        <v>-118467.8201534884</v>
+        <v>18053.77004651166</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5194,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C133" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D133" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E133" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F133" t="n">
-        <v>3925.2488</v>
+        <v>1892.0206</v>
       </c>
       <c r="G133" t="n">
-        <v>-122393.0689534884</v>
+        <v>18053.77004651166</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5233,19 +5193,19 @@
         <v>156</v>
       </c>
       <c r="C134" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D134" t="n">
         <v>156</v>
       </c>
       <c r="E134" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F134" t="n">
-        <v>2298.4854</v>
+        <v>801.3933</v>
       </c>
       <c r="G134" t="n">
-        <v>-124691.5543534884</v>
+        <v>18855.16334651166</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5266,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C135" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D135" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E135" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F135" t="n">
-        <v>265.7523</v>
+        <v>25305.5054</v>
       </c>
       <c r="G135" t="n">
-        <v>-124425.8020534884</v>
+        <v>-6450.342053488341</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5302,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C136" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D136" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E136" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F136" t="n">
-        <v>150</v>
+        <v>267.8727</v>
       </c>
       <c r="G136" t="n">
-        <v>-124425.8020534884</v>
+        <v>-6182.469353488341</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5341,19 +5301,19 @@
         <v>156</v>
       </c>
       <c r="C137" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D137" t="n">
         <v>156</v>
       </c>
       <c r="E137" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F137" t="n">
-        <v>251</v>
+        <v>1503.4394</v>
       </c>
       <c r="G137" t="n">
-        <v>-124425.8020534884</v>
+        <v>-6182.469353488341</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5374,22 +5334,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C138" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D138" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E138" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F138" t="n">
-        <v>18.1937</v>
+        <v>178.8856</v>
       </c>
       <c r="G138" t="n">
-        <v>-124407.6083534884</v>
+        <v>-6003.583753488341</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5410,7 +5370,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C139" t="n">
         <v>156</v>
@@ -5419,13 +5379,13 @@
         <v>156</v>
       </c>
       <c r="E139" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F139" t="n">
-        <v>621.562</v>
+        <v>411.1347</v>
       </c>
       <c r="G139" t="n">
-        <v>-125029.1703534884</v>
+        <v>-6003.583753488341</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5449,19 +5409,19 @@
         <v>156</v>
       </c>
       <c r="C140" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D140" t="n">
         <v>156</v>
       </c>
       <c r="E140" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F140" t="n">
-        <v>1122</v>
+        <v>261.98</v>
       </c>
       <c r="G140" t="n">
-        <v>-125029.1703534884</v>
+        <v>-6265.563753488341</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5482,22 +5442,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C141" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D141" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E141" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F141" t="n">
-        <v>756</v>
+        <v>11720</v>
       </c>
       <c r="G141" t="n">
-        <v>-125029.1703534884</v>
+        <v>-17985.56375348834</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5518,22 +5478,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C142" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D142" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E142" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F142" t="n">
-        <v>252</v>
+        <v>5015.3455</v>
       </c>
       <c r="G142" t="n">
-        <v>-125029.1703534884</v>
+        <v>-12970.21825348834</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5554,22 +5514,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C143" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D143" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E143" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F143" t="n">
-        <v>1607.8269</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G143" t="n">
-        <v>-125029.1703534884</v>
+        <v>-12970.21825348834</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5602,10 +5562,10 @@
         <v>155</v>
       </c>
       <c r="F144" t="n">
-        <v>4360.6079</v>
+        <v>103</v>
       </c>
       <c r="G144" t="n">
-        <v>-129389.7782534884</v>
+        <v>-12970.21825348834</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5638,10 +5598,10 @@
         <v>155</v>
       </c>
       <c r="F145" t="n">
-        <v>157.1765</v>
+        <v>293.5419</v>
       </c>
       <c r="G145" t="n">
-        <v>-129389.7782534884</v>
+        <v>-12970.21825348834</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5662,22 +5622,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C146" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D146" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E146" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F146" t="n">
-        <v>1381.0385</v>
+        <v>23045.0766</v>
       </c>
       <c r="G146" t="n">
-        <v>-129389.7782534884</v>
+        <v>-36015.29485348835</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5710,10 +5670,10 @@
         <v>154</v>
       </c>
       <c r="F147" t="n">
-        <v>926.3176999999999</v>
+        <v>1143.2673</v>
       </c>
       <c r="G147" t="n">
-        <v>-130316.0959534884</v>
+        <v>-36015.29485348835</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5746,23 +5706,19 @@
         <v>154</v>
       </c>
       <c r="F148" t="n">
-        <v>2541.3079</v>
+        <v>593.6926999999999</v>
       </c>
       <c r="G148" t="n">
-        <v>-130316.0959534884</v>
+        <v>-36015.29485348835</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>154</v>
-      </c>
-      <c r="K148" t="n">
-        <v>154</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
@@ -5774,40 +5730,32 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C149" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D149" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E149" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F149" t="n">
-        <v>4441.7465</v>
+        <v>150</v>
       </c>
       <c r="G149" t="n">
-        <v>-134757.8424534884</v>
+        <v>-36015.29485348835</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>154</v>
-      </c>
-      <c r="K149" t="n">
-        <v>154</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5818,40 +5766,32 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C150" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D150" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E150" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F150" t="n">
-        <v>438</v>
+        <v>586.7219</v>
       </c>
       <c r="G150" t="n">
-        <v>-134319.8424534884</v>
+        <v>-35428.57295348835</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>153</v>
-      </c>
-      <c r="K150" t="n">
-        <v>154</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5874,23 +5814,19 @@
         <v>155</v>
       </c>
       <c r="F151" t="n">
-        <v>90.15479999999999</v>
+        <v>291.2262</v>
       </c>
       <c r="G151" t="n">
-        <v>-134319.8424534884</v>
+        <v>-35719.79915348835</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>155</v>
-      </c>
-      <c r="K151" t="n">
-        <v>155</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
@@ -5905,37 +5841,29 @@
         <v>155</v>
       </c>
       <c r="C152" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D152" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E152" t="n">
         <v>155</v>
       </c>
       <c r="F152" t="n">
-        <v>931</v>
+        <v>4483.749</v>
       </c>
       <c r="G152" t="n">
-        <v>-133388.8424534884</v>
+        <v>-35719.79915348835</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>155</v>
-      </c>
-      <c r="K152" t="n">
-        <v>155</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5949,37 +5877,29 @@
         <v>154</v>
       </c>
       <c r="C153" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D153" t="n">
         <v>154</v>
       </c>
       <c r="E153" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F153" t="n">
-        <v>7157.326</v>
+        <v>9853.9462</v>
       </c>
       <c r="G153" t="n">
-        <v>-140546.1684534884</v>
+        <v>-45573.74535348835</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>156</v>
-      </c>
-      <c r="K153" t="n">
-        <v>155</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5990,40 +5910,32 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C154" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D154" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E154" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F154" t="n">
-        <v>2130.6417</v>
+        <v>2257.4322</v>
       </c>
       <c r="G154" t="n">
-        <v>-140546.1684534884</v>
+        <v>-43316.31315348834</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>153</v>
-      </c>
-      <c r="K154" t="n">
-        <v>155</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6034,40 +5946,32 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C155" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D155" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E155" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F155" t="n">
-        <v>99.15689999999999</v>
+        <v>62089.8317</v>
       </c>
       <c r="G155" t="n">
-        <v>-140447.0115534884</v>
+        <v>-105406.1448534883</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>153</v>
-      </c>
-      <c r="K155" t="n">
-        <v>155</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6078,40 +5982,32 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D156" t="n">
         <v>155</v>
       </c>
       <c r="E156" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F156" t="n">
-        <v>115.2991</v>
+        <v>10752.2189</v>
       </c>
       <c r="G156" t="n">
-        <v>-140562.3106534884</v>
+        <v>-105406.1448534883</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>156</v>
-      </c>
-      <c r="K156" t="n">
-        <v>155</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6122,40 +6018,32 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C157" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D157" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E157" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F157" t="n">
-        <v>146.8456</v>
+        <v>116.9701</v>
       </c>
       <c r="G157" t="n">
-        <v>-140562.3106534884</v>
+        <v>-105406.1448534883</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>155</v>
-      </c>
-      <c r="K157" t="n">
-        <v>155</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6166,40 +6054,32 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C158" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D158" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E158" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F158" t="n">
-        <v>5230.5958</v>
+        <v>304.9278</v>
       </c>
       <c r="G158" t="n">
-        <v>-135331.7148534884</v>
+        <v>-105406.1448534883</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>155</v>
-      </c>
-      <c r="K158" t="n">
-        <v>155</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6210,40 +6090,32 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C159" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D159" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E159" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F159" t="n">
-        <v>4501.35</v>
+        <v>2377.5544</v>
       </c>
       <c r="G159" t="n">
-        <v>-139833.0648534884</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>158</v>
-      </c>
-      <c r="K159" t="n">
-        <v>155</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6254,40 +6126,32 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C160" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D160" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E160" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>5960</v>
       </c>
       <c r="G160" t="n">
-        <v>-139834.0648534884</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>155</v>
-      </c>
-      <c r="K160" t="n">
-        <v>155</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6298,40 +6162,32 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C161" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D161" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E161" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F161" t="n">
-        <v>4711.6592</v>
+        <v>7219.8052</v>
       </c>
       <c r="G161" t="n">
-        <v>-135122.4056534884</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>153</v>
-      </c>
-      <c r="K161" t="n">
-        <v>155</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6342,40 +6198,32 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C162" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D162" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E162" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F162" t="n">
-        <v>6383.8934</v>
+        <v>406.1298</v>
       </c>
       <c r="G162" t="n">
-        <v>-128738.5122534884</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>156</v>
-      </c>
-      <c r="K162" t="n">
-        <v>155</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6386,40 +6234,32 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C163" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D163" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E163" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F163" t="n">
-        <v>5196.8454</v>
+        <v>2443.5236</v>
       </c>
       <c r="G163" t="n">
-        <v>-133935.3576534884</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>157</v>
-      </c>
-      <c r="K163" t="n">
-        <v>155</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6430,40 +6270,32 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C164" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D164" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E164" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F164" t="n">
-        <v>300</v>
+        <v>131.5609</v>
       </c>
       <c r="G164" t="n">
-        <v>-133635.3576534884</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>153</v>
-      </c>
-      <c r="K164" t="n">
-        <v>155</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6474,40 +6306,32 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C165" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D165" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E165" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F165" t="n">
-        <v>5076.3473</v>
+        <v>257.9217</v>
       </c>
       <c r="G165" t="n">
-        <v>-128559.0103534884</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>157</v>
-      </c>
-      <c r="K165" t="n">
-        <v>155</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6518,40 +6342,32 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C166" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D166" t="n">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E166" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F166" t="n">
-        <v>4581.174</v>
+        <v>205.1892</v>
       </c>
       <c r="G166" t="n">
-        <v>-128559.0103534884</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>159</v>
-      </c>
-      <c r="K166" t="n">
-        <v>155</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6562,22 +6378,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C167" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D167" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E167" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F167" t="n">
-        <v>2548.9559</v>
+        <v>1086.8694</v>
       </c>
       <c r="G167" t="n">
-        <v>-128559.0103534884</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6586,14 +6402,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>155</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6604,22 +6414,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C168" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D168" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E168" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F168" t="n">
-        <v>750</v>
+        <v>233.3358</v>
       </c>
       <c r="G168" t="n">
-        <v>-128559.0103534884</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6628,14 +6438,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>155</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6646,38 +6450,36 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C169" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D169" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E169" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F169" t="n">
-        <v>2750</v>
+        <v>213.1213</v>
       </c>
       <c r="G169" t="n">
-        <v>-131309.0103534884</v>
+        <v>-107783.6992534883</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>152</v>
+      </c>
       <c r="K169" t="n">
-        <v>155</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6688,36 +6490,38 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C170" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D170" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E170" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F170" t="n">
-        <v>5245.7585</v>
+        <v>4500</v>
       </c>
       <c r="G170" t="n">
-        <v>-131309.0103534884</v>
+        <v>-103283.6992534883</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>152</v>
+      </c>
       <c r="K170" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M170" t="n">
@@ -6730,36 +6534,38 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C171" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D171" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E171" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F171" t="n">
-        <v>9180.497600000001</v>
+        <v>406.1298</v>
       </c>
       <c r="G171" t="n">
-        <v>-131309.0103534884</v>
+        <v>-103283.6992534883</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>153</v>
+      </c>
       <c r="K171" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M171" t="n">
@@ -6772,38 +6578,36 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C172" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D172" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E172" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F172" t="n">
-        <v>264.484</v>
+        <v>114.809</v>
       </c>
       <c r="G172" t="n">
-        <v>-131044.5263534884</v>
+        <v>-103168.8902534883</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>153</v>
+      </c>
       <c r="K172" t="n">
-        <v>155</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6814,22 +6618,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C173" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D173" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E173" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F173" t="n">
-        <v>5712.0734</v>
+        <v>1167.7225</v>
       </c>
       <c r="G173" t="n">
-        <v>-136756.5997534884</v>
+        <v>-102001.1677534883</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6839,11 +6643,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M173" t="n">
@@ -6856,22 +6660,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C174" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D174" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E174" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F174" t="n">
-        <v>925.5086</v>
+        <v>4165.7038</v>
       </c>
       <c r="G174" t="n">
-        <v>-136756.5997534884</v>
+        <v>-106166.8715534883</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6881,11 +6685,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M174" t="n">
@@ -6898,22 +6702,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C175" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D175" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E175" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F175" t="n">
-        <v>2901.1257</v>
+        <v>4704.1493</v>
       </c>
       <c r="G175" t="n">
-        <v>-133855.4740534884</v>
+        <v>-106166.8715534883</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6922,14 +6726,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>155</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6940,22 +6738,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C176" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D176" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E176" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F176" t="n">
-        <v>1416.701</v>
+        <v>2815.8238</v>
       </c>
       <c r="G176" t="n">
-        <v>-133855.4740534884</v>
+        <v>-108982.6953534883</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6964,14 +6762,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>155</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6982,22 +6774,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C177" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D177" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E177" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F177" t="n">
-        <v>2582.299</v>
+        <v>2546.7396</v>
       </c>
       <c r="G177" t="n">
-        <v>-133855.4740534884</v>
+        <v>-108982.6953534883</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7006,14 +6798,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>155</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7024,36 +6810,36 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C178" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D178" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E178" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F178" t="n">
-        <v>3518.2202</v>
+        <v>1963.2843</v>
       </c>
       <c r="G178" t="n">
-        <v>-130337.2538534884</v>
+        <v>-107019.4110534883</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>155</v>
-      </c>
+      <c r="J178" t="n">
+        <v>153</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M178" t="n">
@@ -7066,22 +6852,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C179" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D179" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E179" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F179" t="n">
-        <v>8906.2271</v>
+        <v>1.3</v>
       </c>
       <c r="G179" t="n">
-        <v>-121431.0267534884</v>
+        <v>-107019.4110534883</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7090,9 +6876,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>155</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7108,35 +6892,31 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C180" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D180" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E180" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F180" t="n">
-        <v>2316.4674</v>
+        <v>18</v>
       </c>
       <c r="G180" t="n">
-        <v>-121431.0267534884</v>
+        <v>-107019.4110534883</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>161</v>
-      </c>
-      <c r="K180" t="n">
-        <v>155</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7152,35 +6932,31 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C181" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D181" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E181" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F181" t="n">
-        <v>3146.4425</v>
+        <v>6024.2207</v>
       </c>
       <c r="G181" t="n">
-        <v>-118284.5842534884</v>
+        <v>-107019.4110534883</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>161</v>
-      </c>
-      <c r="K181" t="n">
-        <v>155</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7196,22 +6972,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C182" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D182" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E182" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F182" t="n">
-        <v>637.3506</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>-118921.9348534884</v>
+        <v>-107018.4110534883</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7220,9 +6996,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>155</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7238,22 +7012,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C183" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D183" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E183" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F183" t="n">
-        <v>5297.4609</v>
+        <v>266.0709</v>
       </c>
       <c r="G183" t="n">
-        <v>-124219.3957534884</v>
+        <v>-107284.4819534883</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7262,9 +7036,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>155</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7280,35 +7052,31 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C184" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D184" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E184" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F184" t="n">
-        <v>267.0992</v>
+        <v>119.0522</v>
       </c>
       <c r="G184" t="n">
-        <v>-123952.2965534884</v>
+        <v>-107284.4819534883</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>159</v>
-      </c>
-      <c r="K184" t="n">
-        <v>155</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7324,35 +7092,31 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C185" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D185" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E185" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F185" t="n">
-        <v>929.0683</v>
+        <v>60</v>
       </c>
       <c r="G185" t="n">
-        <v>-124881.3648534884</v>
+        <v>-107224.4819534883</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>161</v>
-      </c>
-      <c r="K185" t="n">
-        <v>155</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7368,35 +7132,31 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C186" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D186" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E186" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F186" t="n">
-        <v>5245.7585</v>
+        <v>1284.705128205128</v>
       </c>
       <c r="G186" t="n">
-        <v>-130127.1233534884</v>
+        <v>-107224.4819534883</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>159</v>
-      </c>
-      <c r="K186" t="n">
-        <v>155</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7412,35 +7172,31 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C187" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D187" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E187" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F187" t="n">
-        <v>15015.5552</v>
+        <v>508.2651</v>
       </c>
       <c r="G187" t="n">
-        <v>-115111.5681534884</v>
+        <v>-107732.7470534883</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>158</v>
-      </c>
-      <c r="K187" t="n">
-        <v>155</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7456,35 +7212,31 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C188" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D188" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E188" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F188" t="n">
-        <v>5382.2038</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>-109729.3643534884</v>
+        <v>-107731.7470534883</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>159</v>
-      </c>
-      <c r="K188" t="n">
-        <v>155</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7500,35 +7252,31 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C189" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D189" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E189" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F189" t="n">
-        <v>1718.2879</v>
+        <v>279.0614</v>
       </c>
       <c r="G189" t="n">
-        <v>-111447.6522534884</v>
+        <v>-108010.8084534884</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>160</v>
-      </c>
-      <c r="K189" t="n">
-        <v>155</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7544,35 +7292,31 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C190" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D190" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E190" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F190" t="n">
-        <v>492.6584</v>
+        <v>8301.693600000001</v>
       </c>
       <c r="G190" t="n">
-        <v>-110954.9938534884</v>
+        <v>-116312.5020534884</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>158</v>
-      </c>
-      <c r="K190" t="n">
-        <v>155</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7588,33 +7332,33 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C191" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D191" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E191" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F191" t="n">
-        <v>13493.9187</v>
+        <v>3912.2574</v>
       </c>
       <c r="G191" t="n">
-        <v>-110954.9938534884</v>
+        <v>-116312.5020534884</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>155</v>
-      </c>
+      <c r="J191" t="n">
+        <v>154</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7630,33 +7374,33 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C192" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D192" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E192" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F192" t="n">
-        <v>1702.7268</v>
+        <v>2847.807</v>
       </c>
       <c r="G192" t="n">
-        <v>-110954.9938534884</v>
+        <v>-116312.5020534884</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>155</v>
-      </c>
+      <c r="J192" t="n">
+        <v>154</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7672,33 +7416,33 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C193" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D193" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E193" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F193" t="n">
-        <v>34823.4902</v>
+        <v>1000</v>
       </c>
       <c r="G193" t="n">
-        <v>-76131.50365348837</v>
+        <v>-116312.5020534884</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>155</v>
-      </c>
+      <c r="J193" t="n">
+        <v>154</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7714,33 +7458,33 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C194" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D194" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E194" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F194" t="n">
-        <v>3288.903</v>
+        <v>1975.1665</v>
       </c>
       <c r="G194" t="n">
-        <v>-79420.40665348838</v>
+        <v>-116312.5020534884</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>155</v>
-      </c>
+      <c r="J194" t="n">
+        <v>154</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7756,33 +7500,33 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C195" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D195" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E195" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F195" t="n">
-        <v>1935.3571</v>
+        <v>2296.1991</v>
       </c>
       <c r="G195" t="n">
-        <v>-81355.76375348837</v>
+        <v>-114016.3029534884</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>155</v>
-      </c>
+      <c r="J195" t="n">
+        <v>154</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7798,33 +7542,33 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C196" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D196" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E196" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F196" t="n">
-        <v>157.9416</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>-81197.82215348836</v>
+        <v>-114015.3029534884</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>155</v>
-      </c>
+      <c r="J196" t="n">
+        <v>157</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7840,22 +7584,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C197" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D197" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E197" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F197" t="n">
-        <v>10859.2021</v>
+        <v>264.9159</v>
       </c>
       <c r="G197" t="n">
-        <v>-81197.82215348836</v>
+        <v>-114280.2188534884</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7864,9 +7608,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>155</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7882,33 +7624,33 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C198" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D198" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E198" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F198" t="n">
-        <v>4140</v>
+        <v>212.1266</v>
       </c>
       <c r="G198" t="n">
-        <v>-85337.82215348836</v>
+        <v>-114280.2188534884</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>155</v>
-      </c>
+      <c r="J198" t="n">
+        <v>156</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7924,22 +7666,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C199" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D199" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E199" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F199" t="n">
-        <v>1958.6074</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>-85337.82215348836</v>
+        <v>-114279.2188534884</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7948,9 +7690,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>155</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7966,33 +7706,33 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C200" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D200" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E200" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F200" t="n">
-        <v>4614.801</v>
+        <v>4287.9369</v>
       </c>
       <c r="G200" t="n">
-        <v>-85337.82215348836</v>
+        <v>-114279.2188534884</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>155</v>
-      </c>
+      <c r="J200" t="n">
+        <v>157</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8008,22 +7748,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C201" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D201" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E201" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F201" t="n">
-        <v>12743.4587</v>
+        <v>4189.6013</v>
       </c>
       <c r="G201" t="n">
-        <v>-98081.28085348837</v>
+        <v>-118468.8201534884</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8032,9 +7772,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>155</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8050,22 +7788,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C202" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D202" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E202" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F202" t="n">
-        <v>8182.8781</v>
+        <v>528</v>
       </c>
       <c r="G202" t="n">
-        <v>-98081.28085348837</v>
+        <v>-118468.8201534884</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8074,9 +7812,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>155</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8095,39 +7831,2923 @@
         <v>157</v>
       </c>
       <c r="C203" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D203" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E203" t="n">
         <v>157</v>
       </c>
       <c r="F203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-118467.8201534884</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>156</v>
+      </c>
+      <c r="C204" t="n">
+        <v>156</v>
+      </c>
+      <c r="D204" t="n">
+        <v>156</v>
+      </c>
+      <c r="E204" t="n">
+        <v>156</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3925.2488</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-122393.0689534884</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>156</v>
+      </c>
+      <c r="C205" t="n">
+        <v>155</v>
+      </c>
+      <c r="D205" t="n">
+        <v>156</v>
+      </c>
+      <c r="E205" t="n">
+        <v>155</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2298.4854</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-124691.5543534884</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>156</v>
+      </c>
+      <c r="C206" t="n">
+        <v>156</v>
+      </c>
+      <c r="D206" t="n">
+        <v>156</v>
+      </c>
+      <c r="E206" t="n">
+        <v>156</v>
+      </c>
+      <c r="F206" t="n">
+        <v>265.7523</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-124425.8020534884</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>156</v>
+      </c>
+      <c r="C207" t="n">
+        <v>156</v>
+      </c>
+      <c r="D207" t="n">
+        <v>156</v>
+      </c>
+      <c r="E207" t="n">
+        <v>156</v>
+      </c>
+      <c r="F207" t="n">
+        <v>150</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-124425.8020534884</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>156</v>
+      </c>
+      <c r="C208" t="n">
+        <v>156</v>
+      </c>
+      <c r="D208" t="n">
+        <v>156</v>
+      </c>
+      <c r="E208" t="n">
+        <v>156</v>
+      </c>
+      <c r="F208" t="n">
+        <v>251</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-124425.8020534884</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>157</v>
+      </c>
+      <c r="C209" t="n">
+        <v>157</v>
+      </c>
+      <c r="D209" t="n">
+        <v>157</v>
+      </c>
+      <c r="E209" t="n">
+        <v>157</v>
+      </c>
+      <c r="F209" t="n">
+        <v>18.1937</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-124407.6083534884</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>156</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>156</v>
+      </c>
+      <c r="C210" t="n">
+        <v>156</v>
+      </c>
+      <c r="D210" t="n">
+        <v>156</v>
+      </c>
+      <c r="E210" t="n">
+        <v>156</v>
+      </c>
+      <c r="F210" t="n">
+        <v>621.562</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-125029.1703534884</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>157</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>156</v>
+      </c>
+      <c r="C211" t="n">
+        <v>156</v>
+      </c>
+      <c r="D211" t="n">
+        <v>156</v>
+      </c>
+      <c r="E211" t="n">
+        <v>156</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1122</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-125029.1703534884</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>156</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>156</v>
+      </c>
+      <c r="C212" t="n">
+        <v>156</v>
+      </c>
+      <c r="D212" t="n">
+        <v>156</v>
+      </c>
+      <c r="E212" t="n">
+        <v>156</v>
+      </c>
+      <c r="F212" t="n">
+        <v>756</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-125029.1703534884</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>156</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>156</v>
+      </c>
+      <c r="C213" t="n">
+        <v>156</v>
+      </c>
+      <c r="D213" t="n">
+        <v>156</v>
+      </c>
+      <c r="E213" t="n">
+        <v>156</v>
+      </c>
+      <c r="F213" t="n">
+        <v>252</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-125029.1703534884</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>156</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>156</v>
+      </c>
+      <c r="C214" t="n">
+        <v>156</v>
+      </c>
+      <c r="D214" t="n">
+        <v>156</v>
+      </c>
+      <c r="E214" t="n">
+        <v>156</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1607.8269</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-125029.1703534884</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>156</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>155</v>
+      </c>
+      <c r="C215" t="n">
+        <v>155</v>
+      </c>
+      <c r="D215" t="n">
+        <v>155</v>
+      </c>
+      <c r="E215" t="n">
+        <v>155</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4360.6079</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-129389.7782534884</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>156</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>155</v>
+      </c>
+      <c r="C216" t="n">
+        <v>155</v>
+      </c>
+      <c r="D216" t="n">
+        <v>155</v>
+      </c>
+      <c r="E216" t="n">
+        <v>155</v>
+      </c>
+      <c r="F216" t="n">
+        <v>157.1765</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-129389.7782534884</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>155</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>155</v>
+      </c>
+      <c r="C217" t="n">
+        <v>155</v>
+      </c>
+      <c r="D217" t="n">
+        <v>155</v>
+      </c>
+      <c r="E217" t="n">
+        <v>155</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1381.0385</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-129389.7782534884</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>155</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>154</v>
+      </c>
+      <c r="C218" t="n">
+        <v>154</v>
+      </c>
+      <c r="D218" t="n">
+        <v>154</v>
+      </c>
+      <c r="E218" t="n">
+        <v>154</v>
+      </c>
+      <c r="F218" t="n">
+        <v>926.3176999999999</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-130316.0959534884</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>155</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>154</v>
+      </c>
+      <c r="C219" t="n">
+        <v>154</v>
+      </c>
+      <c r="D219" t="n">
+        <v>154</v>
+      </c>
+      <c r="E219" t="n">
+        <v>154</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2541.3079</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-130316.0959534884</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>154</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>153</v>
+      </c>
+      <c r="C220" t="n">
+        <v>153</v>
+      </c>
+      <c r="D220" t="n">
+        <v>153</v>
+      </c>
+      <c r="E220" t="n">
+        <v>153</v>
+      </c>
+      <c r="F220" t="n">
+        <v>4441.7465</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-134757.8424534884</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>154</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>155</v>
+      </c>
+      <c r="C221" t="n">
+        <v>155</v>
+      </c>
+      <c r="D221" t="n">
+        <v>155</v>
+      </c>
+      <c r="E221" t="n">
+        <v>155</v>
+      </c>
+      <c r="F221" t="n">
+        <v>438</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-134319.8424534884</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>153</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>155</v>
+      </c>
+      <c r="C222" t="n">
+        <v>155</v>
+      </c>
+      <c r="D222" t="n">
+        <v>155</v>
+      </c>
+      <c r="E222" t="n">
+        <v>155</v>
+      </c>
+      <c r="F222" t="n">
+        <v>90.15479999999999</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-134319.8424534884</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>155</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>155</v>
+      </c>
+      <c r="C223" t="n">
+        <v>156</v>
+      </c>
+      <c r="D223" t="n">
+        <v>156</v>
+      </c>
+      <c r="E223" t="n">
+        <v>155</v>
+      </c>
+      <c r="F223" t="n">
+        <v>931</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-133388.8424534884</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>155</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>154</v>
+      </c>
+      <c r="C224" t="n">
+        <v>153</v>
+      </c>
+      <c r="D224" t="n">
+        <v>154</v>
+      </c>
+      <c r="E224" t="n">
+        <v>153</v>
+      </c>
+      <c r="F224" t="n">
+        <v>7157.326</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-140546.1684534884</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>156</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>153</v>
+      </c>
+      <c r="C225" t="n">
+        <v>153</v>
+      </c>
+      <c r="D225" t="n">
+        <v>153</v>
+      </c>
+      <c r="E225" t="n">
+        <v>153</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2130.6417</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-140546.1684534884</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>153</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>156</v>
+      </c>
+      <c r="C226" t="n">
+        <v>156</v>
+      </c>
+      <c r="D226" t="n">
+        <v>156</v>
+      </c>
+      <c r="E226" t="n">
+        <v>156</v>
+      </c>
+      <c r="F226" t="n">
+        <v>99.15689999999999</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-140447.0115534884</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>153</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>155</v>
+      </c>
+      <c r="C227" t="n">
+        <v>155</v>
+      </c>
+      <c r="D227" t="n">
+        <v>155</v>
+      </c>
+      <c r="E227" t="n">
+        <v>155</v>
+      </c>
+      <c r="F227" t="n">
+        <v>115.2991</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-140562.3106534884</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>156</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>155</v>
+      </c>
+      <c r="C228" t="n">
+        <v>155</v>
+      </c>
+      <c r="D228" t="n">
+        <v>155</v>
+      </c>
+      <c r="E228" t="n">
+        <v>155</v>
+      </c>
+      <c r="F228" t="n">
+        <v>146.8456</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-140562.3106534884</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>155</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>157</v>
+      </c>
+      <c r="C229" t="n">
+        <v>158</v>
+      </c>
+      <c r="D229" t="n">
+        <v>158</v>
+      </c>
+      <c r="E229" t="n">
+        <v>157</v>
+      </c>
+      <c r="F229" t="n">
+        <v>5230.5958</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-135331.7148534884</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>155</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>155</v>
+      </c>
+      <c r="C230" t="n">
+        <v>155</v>
+      </c>
+      <c r="D230" t="n">
+        <v>155</v>
+      </c>
+      <c r="E230" t="n">
+        <v>155</v>
+      </c>
+      <c r="F230" t="n">
+        <v>4501.35</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-139833.0648534884</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>153</v>
+      </c>
+      <c r="C231" t="n">
+        <v>153</v>
+      </c>
+      <c r="D231" t="n">
+        <v>153</v>
+      </c>
+      <c r="E231" t="n">
+        <v>153</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-139834.0648534884</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>155</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>156</v>
+      </c>
+      <c r="C232" t="n">
+        <v>156</v>
+      </c>
+      <c r="D232" t="n">
+        <v>156</v>
+      </c>
+      <c r="E232" t="n">
+        <v>156</v>
+      </c>
+      <c r="F232" t="n">
+        <v>4711.6592</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-135122.4056534884</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>153</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>157</v>
+      </c>
+      <c r="C233" t="n">
+        <v>157</v>
+      </c>
+      <c r="D233" t="n">
+        <v>157</v>
+      </c>
+      <c r="E233" t="n">
+        <v>157</v>
+      </c>
+      <c r="F233" t="n">
+        <v>6383.8934</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-128738.5122534884</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>157</v>
+      </c>
+      <c r="C234" t="n">
+        <v>153</v>
+      </c>
+      <c r="D234" t="n">
+        <v>157</v>
+      </c>
+      <c r="E234" t="n">
+        <v>153</v>
+      </c>
+      <c r="F234" t="n">
+        <v>5196.8454</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-133935.3576534884</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>157</v>
+      </c>
+      <c r="C235" t="n">
+        <v>157</v>
+      </c>
+      <c r="D235" t="n">
+        <v>157</v>
+      </c>
+      <c r="E235" t="n">
+        <v>157</v>
+      </c>
+      <c r="F235" t="n">
+        <v>300</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-133635.3576534884</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>158</v>
+      </c>
+      <c r="C236" t="n">
+        <v>159</v>
+      </c>
+      <c r="D236" t="n">
+        <v>159</v>
+      </c>
+      <c r="E236" t="n">
+        <v>158</v>
+      </c>
+      <c r="F236" t="n">
+        <v>5076.3473</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-128559.0103534884</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>160</v>
+      </c>
+      <c r="C237" t="n">
+        <v>159</v>
+      </c>
+      <c r="D237" t="n">
+        <v>161</v>
+      </c>
+      <c r="E237" t="n">
+        <v>159</v>
+      </c>
+      <c r="F237" t="n">
+        <v>4581.174</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-128559.0103534884</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>159</v>
+      </c>
+      <c r="C238" t="n">
+        <v>159</v>
+      </c>
+      <c r="D238" t="n">
+        <v>159</v>
+      </c>
+      <c r="E238" t="n">
+        <v>159</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2548.9559</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-128559.0103534884</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>159</v>
+      </c>
+      <c r="C239" t="n">
+        <v>159</v>
+      </c>
+      <c r="D239" t="n">
+        <v>159</v>
+      </c>
+      <c r="E239" t="n">
+        <v>159</v>
+      </c>
+      <c r="F239" t="n">
+        <v>750</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-128559.0103534884</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>159</v>
+      </c>
+      <c r="C240" t="n">
+        <v>158</v>
+      </c>
+      <c r="D240" t="n">
+        <v>159</v>
+      </c>
+      <c r="E240" t="n">
+        <v>158</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-131309.0103534884</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>158</v>
+      </c>
+      <c r="C241" t="n">
+        <v>158</v>
+      </c>
+      <c r="D241" t="n">
+        <v>158</v>
+      </c>
+      <c r="E241" t="n">
+        <v>158</v>
+      </c>
+      <c r="F241" t="n">
+        <v>5245.7585</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-131309.0103534884</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>160</v>
+      </c>
+      <c r="C242" t="n">
+        <v>158</v>
+      </c>
+      <c r="D242" t="n">
+        <v>160</v>
+      </c>
+      <c r="E242" t="n">
+        <v>158</v>
+      </c>
+      <c r="F242" t="n">
+        <v>9180.497600000001</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-131309.0103534884</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>159</v>
+      </c>
+      <c r="C243" t="n">
+        <v>159</v>
+      </c>
+      <c r="D243" t="n">
+        <v>159</v>
+      </c>
+      <c r="E243" t="n">
+        <v>159</v>
+      </c>
+      <c r="F243" t="n">
+        <v>264.484</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-131044.5263534884</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>159</v>
+      </c>
+      <c r="C244" t="n">
+        <v>158</v>
+      </c>
+      <c r="D244" t="n">
+        <v>159</v>
+      </c>
+      <c r="E244" t="n">
+        <v>158</v>
+      </c>
+      <c r="F244" t="n">
+        <v>5712.0734</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-136756.5997534884</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>158</v>
+      </c>
+      <c r="C245" t="n">
+        <v>158</v>
+      </c>
+      <c r="D245" t="n">
+        <v>158</v>
+      </c>
+      <c r="E245" t="n">
+        <v>158</v>
+      </c>
+      <c r="F245" t="n">
+        <v>925.5086</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-136756.5997534884</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>159</v>
+      </c>
+      <c r="C246" t="n">
+        <v>159</v>
+      </c>
+      <c r="D246" t="n">
+        <v>159</v>
+      </c>
+      <c r="E246" t="n">
+        <v>159</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2901.1257</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-133855.4740534884</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>159</v>
+      </c>
+      <c r="C247" t="n">
+        <v>159</v>
+      </c>
+      <c r="D247" t="n">
+        <v>159</v>
+      </c>
+      <c r="E247" t="n">
+        <v>159</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1416.701</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-133855.4740534884</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>159</v>
+      </c>
+      <c r="C248" t="n">
+        <v>159</v>
+      </c>
+      <c r="D248" t="n">
+        <v>159</v>
+      </c>
+      <c r="E248" t="n">
+        <v>159</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2582.299</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-133855.4740534884</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>160</v>
+      </c>
+      <c r="C249" t="n">
+        <v>160</v>
+      </c>
+      <c r="D249" t="n">
+        <v>160</v>
+      </c>
+      <c r="E249" t="n">
+        <v>160</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3518.2202</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-130337.2538534884</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>160</v>
+      </c>
+      <c r="C250" t="n">
+        <v>161</v>
+      </c>
+      <c r="D250" t="n">
+        <v>161</v>
+      </c>
+      <c r="E250" t="n">
+        <v>160</v>
+      </c>
+      <c r="F250" t="n">
+        <v>8906.2271</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-121431.0267534884</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>161</v>
+      </c>
+      <c r="C251" t="n">
+        <v>161</v>
+      </c>
+      <c r="D251" t="n">
+        <v>161</v>
+      </c>
+      <c r="E251" t="n">
+        <v>161</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2316.4674</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-121431.0267534884</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>161</v>
+      </c>
+      <c r="C252" t="n">
+        <v>162</v>
+      </c>
+      <c r="D252" t="n">
+        <v>162</v>
+      </c>
+      <c r="E252" t="n">
+        <v>161</v>
+      </c>
+      <c r="F252" t="n">
+        <v>3146.4425</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-118284.5842534884</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>161</v>
+      </c>
+      <c r="C253" t="n">
+        <v>161</v>
+      </c>
+      <c r="D253" t="n">
+        <v>161</v>
+      </c>
+      <c r="E253" t="n">
+        <v>161</v>
+      </c>
+      <c r="F253" t="n">
+        <v>637.3506</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-118921.9348534884</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>160</v>
+      </c>
+      <c r="C254" t="n">
+        <v>159</v>
+      </c>
+      <c r="D254" t="n">
+        <v>160</v>
+      </c>
+      <c r="E254" t="n">
+        <v>159</v>
+      </c>
+      <c r="F254" t="n">
+        <v>5297.4609</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-124219.3957534884</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>161</v>
+      </c>
+      <c r="C255" t="n">
+        <v>161</v>
+      </c>
+      <c r="D255" t="n">
+        <v>161</v>
+      </c>
+      <c r="E255" t="n">
+        <v>161</v>
+      </c>
+      <c r="F255" t="n">
+        <v>267.0992</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-123952.2965534884</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>159</v>
+      </c>
+      <c r="C256" t="n">
+        <v>159</v>
+      </c>
+      <c r="D256" t="n">
+        <v>159</v>
+      </c>
+      <c r="E256" t="n">
+        <v>159</v>
+      </c>
+      <c r="F256" t="n">
+        <v>929.0683</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-124881.3648534884</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>158</v>
+      </c>
+      <c r="C257" t="n">
+        <v>158</v>
+      </c>
+      <c r="D257" t="n">
+        <v>158</v>
+      </c>
+      <c r="E257" t="n">
+        <v>158</v>
+      </c>
+      <c r="F257" t="n">
+        <v>5245.7585</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-130127.1233534884</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>158</v>
+      </c>
+      <c r="C258" t="n">
+        <v>159</v>
+      </c>
+      <c r="D258" t="n">
+        <v>159</v>
+      </c>
+      <c r="E258" t="n">
+        <v>156</v>
+      </c>
+      <c r="F258" t="n">
+        <v>15015.5552</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-115111.5681534884</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>159</v>
+      </c>
+      <c r="C259" t="n">
+        <v>160</v>
+      </c>
+      <c r="D259" t="n">
+        <v>160</v>
+      </c>
+      <c r="E259" t="n">
+        <v>159</v>
+      </c>
+      <c r="F259" t="n">
+        <v>5382.2038</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-109729.3643534884</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>158</v>
+      </c>
+      <c r="C260" t="n">
+        <v>158</v>
+      </c>
+      <c r="D260" t="n">
+        <v>158</v>
+      </c>
+      <c r="E260" t="n">
+        <v>158</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1718.2879</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-111447.6522534884</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>160</v>
+      </c>
+      <c r="C261" t="n">
+        <v>160</v>
+      </c>
+      <c r="D261" t="n">
+        <v>160</v>
+      </c>
+      <c r="E261" t="n">
+        <v>160</v>
+      </c>
+      <c r="F261" t="n">
+        <v>492.6584</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-110954.9938534884</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>160</v>
+      </c>
+      <c r="C262" t="n">
+        <v>160</v>
+      </c>
+      <c r="D262" t="n">
+        <v>160</v>
+      </c>
+      <c r="E262" t="n">
+        <v>160</v>
+      </c>
+      <c r="F262" t="n">
+        <v>13493.9187</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-110954.9938534884</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>160</v>
+      </c>
+      <c r="C263" t="n">
+        <v>160</v>
+      </c>
+      <c r="D263" t="n">
+        <v>160</v>
+      </c>
+      <c r="E263" t="n">
+        <v>160</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1702.7268</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-110954.9938534884</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>160</v>
+      </c>
+      <c r="C264" t="n">
+        <v>163</v>
+      </c>
+      <c r="D264" t="n">
+        <v>163</v>
+      </c>
+      <c r="E264" t="n">
+        <v>160</v>
+      </c>
+      <c r="F264" t="n">
+        <v>34823.4902</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-76131.50365348837</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>163</v>
+      </c>
+      <c r="C265" t="n">
+        <v>160</v>
+      </c>
+      <c r="D265" t="n">
+        <v>163</v>
+      </c>
+      <c r="E265" t="n">
+        <v>160</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3288.903</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-79420.40665348838</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>160</v>
+      </c>
+      <c r="C266" t="n">
+        <v>159</v>
+      </c>
+      <c r="D266" t="n">
+        <v>160</v>
+      </c>
+      <c r="E266" t="n">
+        <v>159</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1935.3571</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-81355.76375348837</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>160</v>
+      </c>
+      <c r="C267" t="n">
+        <v>160</v>
+      </c>
+      <c r="D267" t="n">
+        <v>160</v>
+      </c>
+      <c r="E267" t="n">
+        <v>160</v>
+      </c>
+      <c r="F267" t="n">
+        <v>157.9416</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-81197.82215348836</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>160</v>
+      </c>
+      <c r="C268" t="n">
+        <v>160</v>
+      </c>
+      <c r="D268" t="n">
+        <v>160</v>
+      </c>
+      <c r="E268" t="n">
+        <v>160</v>
+      </c>
+      <c r="F268" t="n">
+        <v>10859.2021</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-81197.82215348836</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>159</v>
+      </c>
+      <c r="C269" t="n">
+        <v>159</v>
+      </c>
+      <c r="D269" t="n">
+        <v>159</v>
+      </c>
+      <c r="E269" t="n">
+        <v>159</v>
+      </c>
+      <c r="F269" t="n">
+        <v>4140</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-85337.82215348836</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>159</v>
+      </c>
+      <c r="C270" t="n">
+        <v>159</v>
+      </c>
+      <c r="D270" t="n">
+        <v>159</v>
+      </c>
+      <c r="E270" t="n">
+        <v>159</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1958.6074</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-85337.82215348836</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>159</v>
+      </c>
+      <c r="C271" t="n">
+        <v>159</v>
+      </c>
+      <c r="D271" t="n">
+        <v>159</v>
+      </c>
+      <c r="E271" t="n">
+        <v>159</v>
+      </c>
+      <c r="F271" t="n">
+        <v>4614.801</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-85337.82215348836</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>159</v>
+      </c>
+      <c r="C272" t="n">
+        <v>158</v>
+      </c>
+      <c r="D272" t="n">
+        <v>159</v>
+      </c>
+      <c r="E272" t="n">
+        <v>158</v>
+      </c>
+      <c r="F272" t="n">
+        <v>12743.4587</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-98081.28085348837</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>158</v>
+      </c>
+      <c r="C273" t="n">
+        <v>158</v>
+      </c>
+      <c r="D273" t="n">
+        <v>158</v>
+      </c>
+      <c r="E273" t="n">
+        <v>158</v>
+      </c>
+      <c r="F273" t="n">
+        <v>8182.8781</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-98081.28085348837</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>157</v>
+      </c>
+      <c r="C274" t="n">
+        <v>159</v>
+      </c>
+      <c r="D274" t="n">
+        <v>159</v>
+      </c>
+      <c r="E274" t="n">
+        <v>157</v>
+      </c>
+      <c r="F274" t="n">
         <v>2014.3821</v>
       </c>
-      <c r="G203" t="n">
+      <c r="G274" t="n">
         <v>-96066.89875348836</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>155</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest ITC.xlsx
+++ b/BackTest/2019-11-01 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N274"/>
+  <dimension ref="A1:M274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>54446.58444651162</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>34263.72764651163</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>56300.52454651163</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>111600.3578465116</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>100299.6550465116</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>100299.6550465116</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>98694.89884651164</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>98836.78454651164</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6360,18 +5863,19 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="J166" t="n">
+        <v>152</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6396,18 +5900,23 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="J167" t="n">
+        <v>152</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5943,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>152</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6468,22 +5980,15 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>152</v>
-      </c>
-      <c r="K169" t="n">
-        <v>152</v>
-      </c>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6508,26 +6013,15 @@
         <v>-103283.6992534883</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>152</v>
-      </c>
-      <c r="K170" t="n">
-        <v>152</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6552,26 +6046,15 @@
         <v>-103283.6992534883</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>153</v>
-      </c>
-      <c r="K171" t="n">
-        <v>152</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6596,22 +6079,15 @@
         <v>-103168.8902534883</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>153</v>
-      </c>
-      <c r="K172" t="n">
-        <v>153</v>
-      </c>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6638,22 +6114,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>153</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6680,22 +6147,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>153</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6722,16 +6180,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6758,16 +6213,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6794,16 +6246,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6828,24 +6277,21 @@
         <v>-107019.4110534883</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
         <v>153</v>
       </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6870,22 +6316,21 @@
         <v>-107019.4110534883</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6910,22 +6355,21 @@
         <v>-107019.4110534883</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6952,20 +6396,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6992,20 +6433,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7032,20 +6470,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7072,20 +6507,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7112,20 +6544,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7152,20 +6581,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7192,20 +6618,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7230,22 +6653,21 @@
         <v>-107731.7470534883</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7270,22 +6692,21 @@
         <v>-108010.8084534884</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7310,22 +6731,21 @@
         <v>-116312.5020534884</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7350,24 +6770,19 @@
         <v>-116312.5020534884</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>154</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7392,24 +6807,19 @@
         <v>-116312.5020534884</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>154</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7434,24 +6844,21 @@
         <v>-116312.5020534884</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
         <v>154</v>
       </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7476,24 +6883,19 @@
         <v>-116312.5020534884</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>154</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7518,24 +6920,21 @@
         <v>-114016.3029534884</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
         <v>154</v>
       </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7560,24 +6959,21 @@
         <v>-114015.3029534884</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
         <v>157</v>
       </c>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7602,22 +6998,21 @@
         <v>-114280.2188534884</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7642,24 +7037,19 @@
         <v>-114280.2188534884</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>156</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7686,20 +7076,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7724,24 +7111,19 @@
         <v>-114279.2188534884</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>157</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7768,20 +7150,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7808,20 +7187,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7848,20 +7224,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7888,20 +7261,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7928,20 +7298,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7968,20 +7335,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8008,20 +7372,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8048,20 +7409,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8086,24 +7444,19 @@
         <v>-124407.6083534884</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>156</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8128,24 +7481,21 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
         <v>157</v>
       </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8170,24 +7520,19 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>156</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8212,24 +7557,21 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>156</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+        <v>156</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8254,24 +7596,21 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>156</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+        <v>156</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8296,24 +7635,19 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>156</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8338,24 +7672,19 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>156</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8380,24 +7709,19 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>155</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8422,24 +7746,19 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>155</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8464,24 +7783,21 @@
         <v>-130316.0959534884</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>155</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+        <v>155</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8506,24 +7822,21 @@
         <v>-130316.0959534884</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
         <v>154</v>
       </c>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8548,24 +7861,21 @@
         <v>-134757.8424534884</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
         <v>154</v>
       </c>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8590,24 +7900,21 @@
         <v>-134319.8424534884</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
         <v>153</v>
       </c>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8632,24 +7939,21 @@
         <v>-134319.8424534884</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>155</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
+        <v>155</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8674,24 +7978,21 @@
         <v>-133388.8424534884</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>155</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
+        <v>155</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8716,24 +8017,19 @@
         <v>-140546.1684534884</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>156</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8758,24 +8054,19 @@
         <v>-140546.1684534884</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>153</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8800,24 +8091,19 @@
         <v>-140447.0115534884</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>153</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8842,24 +8128,19 @@
         <v>-140562.3106534884</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>156</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8884,24 +8165,19 @@
         <v>-140562.3106534884</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>155</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8926,24 +8202,19 @@
         <v>-135331.7148534884</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>155</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8970,20 +8241,17 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9008,24 +8276,19 @@
         <v>-139834.0648534884</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>155</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9050,24 +8313,19 @@
         <v>-135122.4056534884</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>153</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9094,20 +8352,17 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9134,20 +8389,17 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9174,20 +8426,17 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9214,20 +8463,17 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9254,20 +8500,17 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9294,20 +8537,17 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9334,20 +8574,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9374,20 +8611,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9414,20 +8648,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9454,20 +8685,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9494,20 +8722,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9534,20 +8759,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9574,20 +8796,17 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9614,20 +8833,17 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9654,20 +8870,17 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9694,20 +8907,17 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9734,20 +8944,17 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9774,20 +8981,17 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9814,20 +9018,17 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9854,20 +9055,17 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9894,20 +9092,17 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9934,20 +9129,17 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9974,20 +9166,17 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10014,20 +9203,17 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10054,20 +9240,17 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10094,20 +9277,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10134,20 +9314,17 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10174,20 +9351,17 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10214,20 +9388,17 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10254,20 +9425,17 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10294,20 +9462,17 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10334,20 +9499,17 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10374,20 +9536,17 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10414,20 +9573,17 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10454,20 +9610,17 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10494,20 +9647,17 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10534,20 +9684,17 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10574,20 +9721,17 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10612,22 +9756,21 @@
         <v>-85337.82215348836</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10654,20 +9797,17 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10694,20 +9834,17 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10734,22 +9871,19 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ITC.xlsx
+++ b/BackTest/2019-11-01 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>54446.58444651162</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>40305.33124651163</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>34263.72764651163</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>56300.52454651163</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>56300.52454651163</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>66223.17084651164</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>66223.17084651164</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>66223.17084651164</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>65945.44954651163</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>69934.90474651163</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>68728.80184651163</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>68728.80184651163</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>69021.95434651163</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>69021.95434651163</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>69021.95434651163</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>69021.95434651163</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>69111.65984651163</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>69021.78984651163</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>63462.61834651163</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>65924.61834651163</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>65971.61834651163</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>65246.73854651163</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>65246.73854651163</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>64199.85284651163</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>67564.56424651164</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>67564.56424651164</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>67564.56424651164</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>111600.3578465116</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>107373.2172465116</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>100299.6550465116</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>100299.6550465116</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>98694.89884651164</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>98836.78454651164</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>98836.78454651164</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>73836.78454651164</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>85492.52824651165</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>85708.86824651164</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>74449.04544651165</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>74435.51414651165</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>74910.98414651165</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>72440.71624651164</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>72580.68624651164</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>72580.68624651164</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>73138.16614651165</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>73138.16614651165</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>78313.47844651165</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>78042.73464651166</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>80323.62334651165</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>80323.62334651165</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>80323.62334651165</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>80323.62334651165</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>80323.62334651165</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>80323.62334651165</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>78608.64234651165</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>80802.40384651165</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>80802.40384651165</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>80802.40384651165</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>66233.36444651165</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>66233.36444651165</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>66233.36444651165</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>66233.36444651165</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>66233.36444651165</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>65077.76374651165</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>65077.76374651165</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>65788.00354651165</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -5797,10 +5797,14 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>152</v>
+      </c>
+      <c r="J164" t="n">
+        <v>152</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
@@ -5833,8 +5837,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>152</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,7 +5873,7 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>152</v>
@@ -5871,7 +5881,11 @@
       <c r="J166" t="n">
         <v>152</v>
       </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +5914,7 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>152</v>
@@ -5908,11 +5922,7 @@
       <c r="J167" t="n">
         <v>152</v>
       </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5941,9 +5951,11 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>152</v>
+      </c>
       <c r="J168" t="n">
         <v>152</v>
       </c>
@@ -5980,11 +5992,19 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>152</v>
+      </c>
+      <c r="J169" t="n">
+        <v>152</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6013,10 +6033,14 @@
         <v>-103283.6992534883</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>152</v>
+      </c>
+      <c r="J170" t="n">
+        <v>152</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
@@ -6046,11 +6070,19 @@
         <v>-103283.6992534883</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>153</v>
+      </c>
+      <c r="J171" t="n">
+        <v>152</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6079,11 +6111,19 @@
         <v>-103168.8902534883</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>153</v>
+      </c>
+      <c r="J172" t="n">
+        <v>152</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6112,10 +6152,14 @@
         <v>-102001.1677534883</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>154</v>
+      </c>
+      <c r="J173" t="n">
+        <v>154</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
@@ -6145,11 +6189,19 @@
         <v>-106166.8715534883</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>155</v>
+      </c>
+      <c r="J174" t="n">
+        <v>154</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6181,8 +6233,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>154</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6277,17 +6335,11 @@
         <v>-107019.4110534883</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6316,17 +6368,11 @@
         <v>-107019.4110534883</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6355,17 +6401,11 @@
         <v>-107019.4110534883</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6398,11 +6438,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6435,11 +6471,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6472,11 +6504,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6509,11 +6537,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6546,11 +6570,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6583,11 +6603,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6620,11 +6636,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6653,17 +6665,11 @@
         <v>-107731.7470534883</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6692,17 +6698,11 @@
         <v>-108010.8084534884</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6731,17 +6731,11 @@
         <v>-116312.5020534884</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6770,15 +6764,15 @@
         <v>-116312.5020534884</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>154</v>
+      </c>
+      <c r="J191" t="n">
+        <v>154</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6807,13 +6801,17 @@
         <v>-116312.5020534884</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>154</v>
+      </c>
+      <c r="J192" t="n">
+        <v>154</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -6844,12 +6842,14 @@
         <v>-116312.5020534884</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>154</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>154</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6883,10 +6883,14 @@
         <v>-116312.5020534884</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>154</v>
+      </c>
+      <c r="J194" t="n">
+        <v>154</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6920,12 +6924,14 @@
         <v>-114016.3029534884</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>154</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>154</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6959,12 +6965,14 @@
         <v>-114015.3029534884</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>157</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>154</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6998,12 +7006,12 @@
         <v>-114280.2188534884</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>158</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>154</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7040,7 +7048,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>154</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7077,7 +7087,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>154</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7114,7 +7126,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>154</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7148,10 +7162,14 @@
         <v>-118468.8201534884</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>157</v>
+      </c>
+      <c r="J201" t="n">
+        <v>154</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7185,10 +7203,14 @@
         <v>-118468.8201534884</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>156</v>
+      </c>
+      <c r="J202" t="n">
+        <v>154</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7222,10 +7244,14 @@
         <v>-118467.8201534884</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>156</v>
+      </c>
+      <c r="J203" t="n">
+        <v>154</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7262,7 +7288,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>154</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7299,7 +7327,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>154</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7336,7 +7366,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>154</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7370,10 +7402,14 @@
         <v>-124425.8020534884</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>156</v>
+      </c>
+      <c r="J207" t="n">
+        <v>154</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7410,7 +7446,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>154</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7444,10 +7482,14 @@
         <v>-124407.6083534884</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>156</v>
+      </c>
+      <c r="J209" t="n">
+        <v>154</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7481,12 +7523,14 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>157</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>154</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7520,10 +7564,14 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>156</v>
+      </c>
+      <c r="J211" t="n">
+        <v>154</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7557,12 +7605,14 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>156</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>154</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7596,12 +7646,14 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>156</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>154</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7635,10 +7687,14 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>156</v>
+      </c>
+      <c r="J214" t="n">
+        <v>154</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7672,10 +7728,14 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>156</v>
+      </c>
+      <c r="J215" t="n">
+        <v>154</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7709,10 +7769,14 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>155</v>
+      </c>
+      <c r="J216" t="n">
+        <v>154</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7746,10 +7810,14 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>155</v>
+      </c>
+      <c r="J217" t="n">
+        <v>154</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7783,12 +7851,14 @@
         <v>-130316.0959534884</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>155</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>154</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7822,12 +7892,14 @@
         <v>-130316.0959534884</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>154</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>154</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7861,12 +7933,14 @@
         <v>-134757.8424534884</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>154</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>154</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7900,12 +7974,14 @@
         <v>-134319.8424534884</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>153</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>154</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7939,12 +8015,14 @@
         <v>-134319.8424534884</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>155</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>154</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7978,12 +8056,14 @@
         <v>-133388.8424534884</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>155</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>154</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8017,10 +8097,14 @@
         <v>-140546.1684534884</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>156</v>
+      </c>
+      <c r="J224" t="n">
+        <v>154</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8054,10 +8138,14 @@
         <v>-140546.1684534884</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>153</v>
+      </c>
+      <c r="J225" t="n">
+        <v>154</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8091,10 +8179,14 @@
         <v>-140447.0115534884</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>153</v>
+      </c>
+      <c r="J226" t="n">
+        <v>154</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8128,10 +8220,14 @@
         <v>-140562.3106534884</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>156</v>
+      </c>
+      <c r="J227" t="n">
+        <v>154</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8165,10 +8261,14 @@
         <v>-140562.3106534884</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>155</v>
+      </c>
+      <c r="J228" t="n">
+        <v>154</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8202,10 +8302,14 @@
         <v>-135331.7148534884</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>155</v>
+      </c>
+      <c r="J229" t="n">
+        <v>154</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8239,10 +8343,14 @@
         <v>-139833.0648534884</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>158</v>
+      </c>
+      <c r="J230" t="n">
+        <v>154</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8276,10 +8384,14 @@
         <v>-139834.0648534884</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>155</v>
+      </c>
+      <c r="J231" t="n">
+        <v>154</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8313,10 +8425,14 @@
         <v>-135122.4056534884</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>153</v>
+      </c>
+      <c r="J232" t="n">
+        <v>154</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8350,10 +8466,14 @@
         <v>-128738.5122534884</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>156</v>
+      </c>
+      <c r="J233" t="n">
+        <v>154</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8387,10 +8507,14 @@
         <v>-133935.3576534884</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>157</v>
+      </c>
+      <c r="J234" t="n">
+        <v>154</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8424,10 +8548,14 @@
         <v>-133635.3576534884</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>153</v>
+      </c>
+      <c r="J235" t="n">
+        <v>154</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8464,7 +8592,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>154</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8501,7 +8631,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>154</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8538,7 +8670,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>154</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8575,7 +8709,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>154</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8612,7 +8748,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>154</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8649,7 +8787,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>154</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8683,10 +8823,14 @@
         <v>-131309.0103534884</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>158</v>
+      </c>
+      <c r="J242" t="n">
+        <v>154</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8723,7 +8867,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>154</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8757,10 +8903,14 @@
         <v>-136756.5997534884</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>159</v>
+      </c>
+      <c r="J244" t="n">
+        <v>154</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8797,7 +8947,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>154</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8834,7 +8986,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>154</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8871,7 +9025,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>154</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8908,7 +9064,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>154</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8945,7 +9103,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>154</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8982,7 +9142,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>154</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9019,7 +9181,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>154</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9056,7 +9220,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>154</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9093,7 +9259,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>154</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9130,7 +9298,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>154</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9167,7 +9337,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>154</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9204,7 +9376,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>154</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9241,7 +9415,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>154</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9278,7 +9454,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>154</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9315,7 +9493,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>154</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9352,7 +9532,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>154</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9389,7 +9571,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>154</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9426,7 +9610,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>154</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9463,7 +9649,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>154</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9500,7 +9688,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>154</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9537,7 +9727,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>154</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9574,7 +9766,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>154</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9611,7 +9805,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>154</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9648,7 +9844,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>154</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9685,7 +9883,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>154</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9722,7 +9922,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>154</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9756,12 +9958,12 @@
         <v>-85337.82215348836</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>159</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>154</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9798,7 +10000,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>154</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9835,7 +10039,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>154</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9872,7 +10078,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>154</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9884,6 +10092,6 @@
       <c r="M274" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ITC.xlsx
+++ b/BackTest/2019-11-01 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>54446.58444651162</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>40305.33124651163</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>56300.52454651163</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>56300.52454651163</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>66223.17084651164</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>66223.17084651164</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>66223.17084651164</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>65945.44954651163</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>69934.90474651163</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>68728.80184651163</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>68728.80184651163</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>69021.95434651163</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>69021.95434651163</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>69021.95434651163</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>69021.95434651163</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>69111.65984651163</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>69021.78984651163</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>63462.61834651163</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>65924.61834651163</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>65971.61834651163</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>65246.73854651163</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>65246.73854651163</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>64199.85284651163</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>67564.56424651164</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>67564.56424651164</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>67564.56424651164</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>107373.2172465116</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>100299.6550465116</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>100299.6550465116</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>98694.89884651164</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>98836.78454651164</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>98836.78454651164</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>73836.78454651164</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>85492.52824651165</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>85708.86824651164</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>74449.04544651165</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>74435.51414651165</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>74910.98414651165</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>72440.71624651164</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>72580.68624651164</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>72580.68624651164</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>73138.16614651165</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>73138.16614651165</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>78313.47844651165</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>78042.73464651166</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>80323.62334651165</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>80323.62334651165</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>80323.62334651165</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>80323.62334651165</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>80323.62334651165</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>80323.62334651165</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>78608.64234651165</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>80802.40384651165</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>80802.40384651165</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>80802.40384651165</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>66233.36444651165</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>66233.36444651165</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>66233.36444651165</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>66233.36444651165</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>66233.36444651165</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>65077.76374651165</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>65077.76374651165</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>65788.00354651165</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -5797,14 +5797,10 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>152</v>
-      </c>
-      <c r="J164" t="n">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
@@ -5837,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>152</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5873,19 +5863,11 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>152</v>
-      </c>
-      <c r="J166" t="n">
-        <v>152</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5914,14 +5896,10 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>152</v>
-      </c>
-      <c r="J167" t="n">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
@@ -5951,19 +5929,11 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>152</v>
-      </c>
-      <c r="J168" t="n">
-        <v>152</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5992,19 +5962,11 @@
         <v>-107783.6992534883</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>152</v>
-      </c>
-      <c r="J169" t="n">
-        <v>152</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6033,14 +5995,10 @@
         <v>-103283.6992534883</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>152</v>
-      </c>
-      <c r="J170" t="n">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
@@ -6070,19 +6028,11 @@
         <v>-103283.6992534883</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>153</v>
-      </c>
-      <c r="J171" t="n">
-        <v>152</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6111,19 +6061,11 @@
         <v>-103168.8902534883</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>153</v>
-      </c>
-      <c r="J172" t="n">
-        <v>152</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6152,14 +6094,10 @@
         <v>-102001.1677534883</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>154</v>
-      </c>
-      <c r="J173" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
@@ -6189,19 +6127,11 @@
         <v>-106166.8715534883</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>155</v>
-      </c>
-      <c r="J174" t="n">
-        <v>154</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6233,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>154</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6764,14 +6688,10 @@
         <v>-116312.5020534884</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>154</v>
-      </c>
-      <c r="J191" t="n">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
@@ -6801,1274 +6721,1066 @@
         <v>-116312.5020534884</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
         <v>154</v>
       </c>
-      <c r="J192" t="n">
+      <c r="C193" t="n">
         <v>154</v>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="D193" t="n">
+        <v>154</v>
+      </c>
+      <c r="E193" t="n">
+        <v>154</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-116312.5020534884</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>154</v>
+      </c>
+      <c r="C194" t="n">
+        <v>154</v>
+      </c>
+      <c r="D194" t="n">
+        <v>154</v>
+      </c>
+      <c r="E194" t="n">
+        <v>154</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1975.1665</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-116312.5020534884</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>156</v>
+      </c>
+      <c r="C195" t="n">
+        <v>157</v>
+      </c>
+      <c r="D195" t="n">
+        <v>157</v>
+      </c>
+      <c r="E195" t="n">
+        <v>156</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2296.1991</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-114016.3029534884</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>158</v>
+      </c>
+      <c r="C196" t="n">
+        <v>158</v>
+      </c>
+      <c r="D196" t="n">
+        <v>158</v>
+      </c>
+      <c r="E196" t="n">
+        <v>158</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-114015.3029534884</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>156</v>
+      </c>
+      <c r="C197" t="n">
+        <v>156</v>
+      </c>
+      <c r="D197" t="n">
+        <v>156</v>
+      </c>
+      <c r="E197" t="n">
+        <v>156</v>
+      </c>
+      <c r="F197" t="n">
+        <v>264.9159</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-114280.2188534884</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>156</v>
+      </c>
+      <c r="C198" t="n">
+        <v>156</v>
+      </c>
+      <c r="D198" t="n">
+        <v>156</v>
+      </c>
+      <c r="E198" t="n">
+        <v>156</v>
+      </c>
+      <c r="F198" t="n">
+        <v>212.1266</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-114280.2188534884</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>157</v>
+      </c>
+      <c r="C199" t="n">
+        <v>157</v>
+      </c>
+      <c r="D199" t="n">
+        <v>157</v>
+      </c>
+      <c r="E199" t="n">
+        <v>157</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-114279.2188534884</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>157</v>
+      </c>
+      <c r="C200" t="n">
+        <v>157</v>
+      </c>
+      <c r="D200" t="n">
+        <v>157</v>
+      </c>
+      <c r="E200" t="n">
+        <v>157</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4287.9369</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-114279.2188534884</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>157</v>
+      </c>
+      <c r="C201" t="n">
+        <v>156</v>
+      </c>
+      <c r="D201" t="n">
+        <v>157</v>
+      </c>
+      <c r="E201" t="n">
+        <v>156</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4189.6013</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-118468.8201534884</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>156</v>
+      </c>
+      <c r="C202" t="n">
+        <v>156</v>
+      </c>
+      <c r="D202" t="n">
+        <v>156</v>
+      </c>
+      <c r="E202" t="n">
+        <v>156</v>
+      </c>
+      <c r="F202" t="n">
+        <v>528</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-118468.8201534884</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>157</v>
+      </c>
+      <c r="C203" t="n">
+        <v>157</v>
+      </c>
+      <c r="D203" t="n">
+        <v>157</v>
+      </c>
+      <c r="E203" t="n">
+        <v>157</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-118467.8201534884</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>156</v>
+      </c>
+      <c r="C204" t="n">
+        <v>156</v>
+      </c>
+      <c r="D204" t="n">
+        <v>156</v>
+      </c>
+      <c r="E204" t="n">
+        <v>156</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3925.2488</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-122393.0689534884</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>156</v>
+      </c>
+      <c r="C205" t="n">
+        <v>155</v>
+      </c>
+      <c r="D205" t="n">
+        <v>156</v>
+      </c>
+      <c r="E205" t="n">
+        <v>155</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2298.4854</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-124691.5543534884</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>156</v>
+      </c>
+      <c r="C206" t="n">
+        <v>156</v>
+      </c>
+      <c r="D206" t="n">
+        <v>156</v>
+      </c>
+      <c r="E206" t="n">
+        <v>156</v>
+      </c>
+      <c r="F206" t="n">
+        <v>265.7523</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-124425.8020534884</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>156</v>
+      </c>
+      <c r="C207" t="n">
+        <v>156</v>
+      </c>
+      <c r="D207" t="n">
+        <v>156</v>
+      </c>
+      <c r="E207" t="n">
+        <v>156</v>
+      </c>
+      <c r="F207" t="n">
+        <v>150</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-124425.8020534884</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>156</v>
+      </c>
+      <c r="C208" t="n">
+        <v>156</v>
+      </c>
+      <c r="D208" t="n">
+        <v>156</v>
+      </c>
+      <c r="E208" t="n">
+        <v>156</v>
+      </c>
+      <c r="F208" t="n">
+        <v>251</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-124425.8020534884</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>157</v>
+      </c>
+      <c r="C209" t="n">
+        <v>157</v>
+      </c>
+      <c r="D209" t="n">
+        <v>157</v>
+      </c>
+      <c r="E209" t="n">
+        <v>157</v>
+      </c>
+      <c r="F209" t="n">
+        <v>18.1937</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-124407.6083534884</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>156</v>
+      </c>
+      <c r="C210" t="n">
+        <v>156</v>
+      </c>
+      <c r="D210" t="n">
+        <v>156</v>
+      </c>
+      <c r="E210" t="n">
+        <v>156</v>
+      </c>
+      <c r="F210" t="n">
+        <v>621.562</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-125029.1703534884</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>156</v>
+      </c>
+      <c r="C211" t="n">
+        <v>156</v>
+      </c>
+      <c r="D211" t="n">
+        <v>156</v>
+      </c>
+      <c r="E211" t="n">
+        <v>156</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1122</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-125029.1703534884</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>156</v>
+      </c>
+      <c r="C212" t="n">
+        <v>156</v>
+      </c>
+      <c r="D212" t="n">
+        <v>156</v>
+      </c>
+      <c r="E212" t="n">
+        <v>156</v>
+      </c>
+      <c r="F212" t="n">
+        <v>756</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-125029.1703534884</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>156</v>
+      </c>
+      <c r="C213" t="n">
+        <v>156</v>
+      </c>
+      <c r="D213" t="n">
+        <v>156</v>
+      </c>
+      <c r="E213" t="n">
+        <v>156</v>
+      </c>
+      <c r="F213" t="n">
+        <v>252</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-125029.1703534884</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>156</v>
+      </c>
+      <c r="C214" t="n">
+        <v>156</v>
+      </c>
+      <c r="D214" t="n">
+        <v>156</v>
+      </c>
+      <c r="E214" t="n">
+        <v>156</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1607.8269</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-125029.1703534884</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>155</v>
+      </c>
+      <c r="C215" t="n">
+        <v>155</v>
+      </c>
+      <c r="D215" t="n">
+        <v>155</v>
+      </c>
+      <c r="E215" t="n">
+        <v>155</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4360.6079</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-129389.7782534884</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>155</v>
+      </c>
+      <c r="C216" t="n">
+        <v>155</v>
+      </c>
+      <c r="D216" t="n">
+        <v>155</v>
+      </c>
+      <c r="E216" t="n">
+        <v>155</v>
+      </c>
+      <c r="F216" t="n">
+        <v>157.1765</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-129389.7782534884</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>155</v>
+      </c>
+      <c r="C217" t="n">
+        <v>155</v>
+      </c>
+      <c r="D217" t="n">
+        <v>155</v>
+      </c>
+      <c r="E217" t="n">
+        <v>155</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1381.0385</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-129389.7782534884</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>154</v>
+      </c>
+      <c r="C218" t="n">
+        <v>154</v>
+      </c>
+      <c r="D218" t="n">
+        <v>154</v>
+      </c>
+      <c r="E218" t="n">
+        <v>154</v>
+      </c>
+      <c r="F218" t="n">
+        <v>926.3176999999999</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-130316.0959534884</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>154</v>
+      </c>
+      <c r="C219" t="n">
+        <v>154</v>
+      </c>
+      <c r="D219" t="n">
+        <v>154</v>
+      </c>
+      <c r="E219" t="n">
+        <v>154</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2541.3079</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-130316.0959534884</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>154</v>
+      </c>
+      <c r="J219" t="n">
+        <v>154</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>153</v>
+      </c>
+      <c r="C220" t="n">
+        <v>153</v>
+      </c>
+      <c r="D220" t="n">
+        <v>153</v>
+      </c>
+      <c r="E220" t="n">
+        <v>153</v>
+      </c>
+      <c r="F220" t="n">
+        <v>4441.7465</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-134757.8424534884</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>154</v>
+      </c>
+      <c r="J220" t="n">
+        <v>154</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>155</v>
+      </c>
+      <c r="C221" t="n">
+        <v>155</v>
+      </c>
+      <c r="D221" t="n">
+        <v>155</v>
+      </c>
+      <c r="E221" t="n">
+        <v>155</v>
+      </c>
+      <c r="F221" t="n">
+        <v>438</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-134319.8424534884</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>153</v>
+      </c>
+      <c r="J221" t="n">
+        <v>154</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>155</v>
+      </c>
+      <c r="C222" t="n">
+        <v>155</v>
+      </c>
+      <c r="D222" t="n">
+        <v>155</v>
+      </c>
+      <c r="E222" t="n">
+        <v>155</v>
+      </c>
+      <c r="F222" t="n">
+        <v>90.15479999999999</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-134319.8424534884</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>155</v>
+      </c>
+      <c r="J222" t="n">
+        <v>155</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>155</v>
+      </c>
+      <c r="C223" t="n">
+        <v>156</v>
+      </c>
+      <c r="D223" t="n">
+        <v>156</v>
+      </c>
+      <c r="E223" t="n">
+        <v>155</v>
+      </c>
+      <c r="F223" t="n">
+        <v>931</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-133388.8424534884</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>155</v>
+      </c>
+      <c r="J223" t="n">
+        <v>155</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>154</v>
-      </c>
-      <c r="C193" t="n">
-        <v>154</v>
-      </c>
-      <c r="D193" t="n">
-        <v>154</v>
-      </c>
-      <c r="E193" t="n">
-        <v>154</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-116312.5020534884</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>154</v>
-      </c>
-      <c r="J193" t="n">
-        <v>154</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>154</v>
-      </c>
-      <c r="C194" t="n">
-        <v>154</v>
-      </c>
-      <c r="D194" t="n">
-        <v>154</v>
-      </c>
-      <c r="E194" t="n">
-        <v>154</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1975.1665</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-116312.5020534884</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>154</v>
-      </c>
-      <c r="J194" t="n">
-        <v>154</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>156</v>
-      </c>
-      <c r="C195" t="n">
-        <v>157</v>
-      </c>
-      <c r="D195" t="n">
-        <v>157</v>
-      </c>
-      <c r="E195" t="n">
-        <v>156</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2296.1991</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-114016.3029534884</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>154</v>
-      </c>
-      <c r="J195" t="n">
-        <v>154</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>158</v>
-      </c>
-      <c r="C196" t="n">
-        <v>158</v>
-      </c>
-      <c r="D196" t="n">
-        <v>158</v>
-      </c>
-      <c r="E196" t="n">
-        <v>158</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-114015.3029534884</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>157</v>
-      </c>
-      <c r="J196" t="n">
-        <v>154</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>156</v>
-      </c>
-      <c r="C197" t="n">
-        <v>156</v>
-      </c>
-      <c r="D197" t="n">
-        <v>156</v>
-      </c>
-      <c r="E197" t="n">
-        <v>156</v>
-      </c>
-      <c r="F197" t="n">
-        <v>264.9159</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-114280.2188534884</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>154</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>156</v>
-      </c>
-      <c r="C198" t="n">
-        <v>156</v>
-      </c>
-      <c r="D198" t="n">
-        <v>156</v>
-      </c>
-      <c r="E198" t="n">
-        <v>156</v>
-      </c>
-      <c r="F198" t="n">
-        <v>212.1266</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-114280.2188534884</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>154</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>157</v>
-      </c>
-      <c r="C199" t="n">
-        <v>157</v>
-      </c>
-      <c r="D199" t="n">
-        <v>157</v>
-      </c>
-      <c r="E199" t="n">
-        <v>157</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-114279.2188534884</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>154</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>157</v>
-      </c>
-      <c r="C200" t="n">
-        <v>157</v>
-      </c>
-      <c r="D200" t="n">
-        <v>157</v>
-      </c>
-      <c r="E200" t="n">
-        <v>157</v>
-      </c>
-      <c r="F200" t="n">
-        <v>4287.9369</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-114279.2188534884</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>154</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>157</v>
-      </c>
-      <c r="C201" t="n">
-        <v>156</v>
-      </c>
-      <c r="D201" t="n">
-        <v>157</v>
-      </c>
-      <c r="E201" t="n">
-        <v>156</v>
-      </c>
-      <c r="F201" t="n">
-        <v>4189.6013</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-118468.8201534884</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>157</v>
-      </c>
-      <c r="J201" t="n">
-        <v>154</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>156</v>
-      </c>
-      <c r="C202" t="n">
-        <v>156</v>
-      </c>
-      <c r="D202" t="n">
-        <v>156</v>
-      </c>
-      <c r="E202" t="n">
-        <v>156</v>
-      </c>
-      <c r="F202" t="n">
-        <v>528</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-118468.8201534884</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>156</v>
-      </c>
-      <c r="J202" t="n">
-        <v>154</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>157</v>
-      </c>
-      <c r="C203" t="n">
-        <v>157</v>
-      </c>
-      <c r="D203" t="n">
-        <v>157</v>
-      </c>
-      <c r="E203" t="n">
-        <v>157</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-118467.8201534884</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>156</v>
-      </c>
-      <c r="J203" t="n">
-        <v>154</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>156</v>
-      </c>
-      <c r="C204" t="n">
-        <v>156</v>
-      </c>
-      <c r="D204" t="n">
-        <v>156</v>
-      </c>
-      <c r="E204" t="n">
-        <v>156</v>
-      </c>
-      <c r="F204" t="n">
-        <v>3925.2488</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-122393.0689534884</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>154</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>156</v>
-      </c>
-      <c r="C205" t="n">
-        <v>155</v>
-      </c>
-      <c r="D205" t="n">
-        <v>156</v>
-      </c>
-      <c r="E205" t="n">
-        <v>155</v>
-      </c>
-      <c r="F205" t="n">
-        <v>2298.4854</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-124691.5543534884</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>154</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>156</v>
-      </c>
-      <c r="C206" t="n">
-        <v>156</v>
-      </c>
-      <c r="D206" t="n">
-        <v>156</v>
-      </c>
-      <c r="E206" t="n">
-        <v>156</v>
-      </c>
-      <c r="F206" t="n">
-        <v>265.7523</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-124425.8020534884</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>154</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>156</v>
-      </c>
-      <c r="C207" t="n">
-        <v>156</v>
-      </c>
-      <c r="D207" t="n">
-        <v>156</v>
-      </c>
-      <c r="E207" t="n">
-        <v>156</v>
-      </c>
-      <c r="F207" t="n">
-        <v>150</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-124425.8020534884</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>156</v>
-      </c>
-      <c r="J207" t="n">
-        <v>154</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>156</v>
-      </c>
-      <c r="C208" t="n">
-        <v>156</v>
-      </c>
-      <c r="D208" t="n">
-        <v>156</v>
-      </c>
-      <c r="E208" t="n">
-        <v>156</v>
-      </c>
-      <c r="F208" t="n">
-        <v>251</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-124425.8020534884</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>154</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>157</v>
-      </c>
-      <c r="C209" t="n">
-        <v>157</v>
-      </c>
-      <c r="D209" t="n">
-        <v>157</v>
-      </c>
-      <c r="E209" t="n">
-        <v>157</v>
-      </c>
-      <c r="F209" t="n">
-        <v>18.1937</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-124407.6083534884</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>156</v>
-      </c>
-      <c r="J209" t="n">
-        <v>154</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>156</v>
-      </c>
-      <c r="C210" t="n">
-        <v>156</v>
-      </c>
-      <c r="D210" t="n">
-        <v>156</v>
-      </c>
-      <c r="E210" t="n">
-        <v>156</v>
-      </c>
-      <c r="F210" t="n">
-        <v>621.562</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-125029.1703534884</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>157</v>
-      </c>
-      <c r="J210" t="n">
-        <v>154</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>156</v>
-      </c>
-      <c r="C211" t="n">
-        <v>156</v>
-      </c>
-      <c r="D211" t="n">
-        <v>156</v>
-      </c>
-      <c r="E211" t="n">
-        <v>156</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1122</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-125029.1703534884</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>156</v>
-      </c>
-      <c r="J211" t="n">
-        <v>154</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>156</v>
-      </c>
-      <c r="C212" t="n">
-        <v>156</v>
-      </c>
-      <c r="D212" t="n">
-        <v>156</v>
-      </c>
-      <c r="E212" t="n">
-        <v>156</v>
-      </c>
-      <c r="F212" t="n">
-        <v>756</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-125029.1703534884</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>156</v>
-      </c>
-      <c r="J212" t="n">
-        <v>154</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>156</v>
-      </c>
-      <c r="C213" t="n">
-        <v>156</v>
-      </c>
-      <c r="D213" t="n">
-        <v>156</v>
-      </c>
-      <c r="E213" t="n">
-        <v>156</v>
-      </c>
-      <c r="F213" t="n">
-        <v>252</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-125029.1703534884</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>156</v>
-      </c>
-      <c r="J213" t="n">
-        <v>154</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>156</v>
-      </c>
-      <c r="C214" t="n">
-        <v>156</v>
-      </c>
-      <c r="D214" t="n">
-        <v>156</v>
-      </c>
-      <c r="E214" t="n">
-        <v>156</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1607.8269</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-125029.1703534884</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>156</v>
-      </c>
-      <c r="J214" t="n">
-        <v>154</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>155</v>
-      </c>
-      <c r="C215" t="n">
-        <v>155</v>
-      </c>
-      <c r="D215" t="n">
-        <v>155</v>
-      </c>
-      <c r="E215" t="n">
-        <v>155</v>
-      </c>
-      <c r="F215" t="n">
-        <v>4360.6079</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-129389.7782534884</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>156</v>
-      </c>
-      <c r="J215" t="n">
-        <v>154</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>155</v>
-      </c>
-      <c r="C216" t="n">
-        <v>155</v>
-      </c>
-      <c r="D216" t="n">
-        <v>155</v>
-      </c>
-      <c r="E216" t="n">
-        <v>155</v>
-      </c>
-      <c r="F216" t="n">
-        <v>157.1765</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-129389.7782534884</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>155</v>
-      </c>
-      <c r="J216" t="n">
-        <v>154</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>155</v>
-      </c>
-      <c r="C217" t="n">
-        <v>155</v>
-      </c>
-      <c r="D217" t="n">
-        <v>155</v>
-      </c>
-      <c r="E217" t="n">
-        <v>155</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1381.0385</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-129389.7782534884</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>155</v>
-      </c>
-      <c r="J217" t="n">
-        <v>154</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>154</v>
-      </c>
-      <c r="C218" t="n">
-        <v>154</v>
-      </c>
-      <c r="D218" t="n">
-        <v>154</v>
-      </c>
-      <c r="E218" t="n">
-        <v>154</v>
-      </c>
-      <c r="F218" t="n">
-        <v>926.3176999999999</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-130316.0959534884</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>155</v>
-      </c>
-      <c r="J218" t="n">
-        <v>154</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>154</v>
-      </c>
-      <c r="C219" t="n">
-        <v>154</v>
-      </c>
-      <c r="D219" t="n">
-        <v>154</v>
-      </c>
-      <c r="E219" t="n">
-        <v>154</v>
-      </c>
-      <c r="F219" t="n">
-        <v>2541.3079</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-130316.0959534884</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>154</v>
-      </c>
-      <c r="J219" t="n">
-        <v>154</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>153</v>
-      </c>
-      <c r="C220" t="n">
-        <v>153</v>
-      </c>
-      <c r="D220" t="n">
-        <v>153</v>
-      </c>
-      <c r="E220" t="n">
-        <v>153</v>
-      </c>
-      <c r="F220" t="n">
-        <v>4441.7465</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-134757.8424534884</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>154</v>
-      </c>
-      <c r="J220" t="n">
-        <v>154</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>155</v>
-      </c>
-      <c r="C221" t="n">
-        <v>155</v>
-      </c>
-      <c r="D221" t="n">
-        <v>155</v>
-      </c>
-      <c r="E221" t="n">
-        <v>155</v>
-      </c>
-      <c r="F221" t="n">
-        <v>438</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-134319.8424534884</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>153</v>
-      </c>
-      <c r="J221" t="n">
-        <v>154</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>155</v>
-      </c>
-      <c r="C222" t="n">
-        <v>155</v>
-      </c>
-      <c r="D222" t="n">
-        <v>155</v>
-      </c>
-      <c r="E222" t="n">
-        <v>155</v>
-      </c>
-      <c r="F222" t="n">
-        <v>90.15479999999999</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-134319.8424534884</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>155</v>
-      </c>
-      <c r="J222" t="n">
-        <v>154</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>155</v>
-      </c>
-      <c r="C223" t="n">
-        <v>156</v>
-      </c>
-      <c r="D223" t="n">
-        <v>156</v>
-      </c>
-      <c r="E223" t="n">
-        <v>155</v>
-      </c>
-      <c r="F223" t="n">
-        <v>931</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-133388.8424534884</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>155</v>
-      </c>
-      <c r="J223" t="n">
-        <v>154</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8103,7 +7815,7 @@
         <v>156</v>
       </c>
       <c r="J224" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8144,7 +7856,7 @@
         <v>153</v>
       </c>
       <c r="J225" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8185,7 +7897,7 @@
         <v>153</v>
       </c>
       <c r="J226" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8226,7 +7938,7 @@
         <v>156</v>
       </c>
       <c r="J227" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8267,7 +7979,7 @@
         <v>155</v>
       </c>
       <c r="J228" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8308,7 +8020,7 @@
         <v>155</v>
       </c>
       <c r="J229" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8343,13 +8055,11 @@
         <v>-139833.0648534884</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8384,13 +8094,11 @@
         <v>-139834.0648534884</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8431,7 +8139,7 @@
         <v>153</v>
       </c>
       <c r="J232" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8466,13 +8174,11 @@
         <v>-128738.5122534884</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8507,13 +8213,11 @@
         <v>-133935.3576534884</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8554,7 +8258,7 @@
         <v>153</v>
       </c>
       <c r="J235" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8593,7 +8297,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8632,7 +8336,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8671,7 +8375,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8710,7 +8414,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8749,7 +8453,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8788,7 +8492,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8823,13 +8527,11 @@
         <v>-131309.0103534884</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8868,7 +8570,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8903,13 +8605,11 @@
         <v>-136756.5997534884</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8948,7 +8648,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8987,7 +8687,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9026,7 +8726,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9065,7 +8765,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9104,7 +8804,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9143,7 +8843,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9182,7 +8882,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9221,7 +8921,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9260,7 +8960,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9299,7 +8999,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9338,7 +9038,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9377,7 +9077,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9416,7 +9116,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9455,7 +9155,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9494,7 +9194,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9533,7 +9233,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9572,7 +9272,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9611,7 +9311,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9650,7 +9350,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9689,7 +9389,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9728,7 +9428,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9767,7 +9467,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9806,7 +9506,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9845,7 +9545,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9884,7 +9584,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9923,7 +9623,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9962,7 +9662,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10001,7 +9701,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10040,7 +9740,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10079,7 +9779,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10092,6 +9792,6 @@
       <c r="M274" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ITC.xlsx
+++ b/BackTest/2019-11-01 BackTest ITC.xlsx
@@ -484,7 +484,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>54446.58444651162</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>40305.33124651163</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>66223.17084651164</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>66223.17084651164</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>65945.44954651163</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>69934.90474651163</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>68728.80184651163</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>69021.95434651163</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>69021.95434651163</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>69021.78984651163</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>63462.61834651163</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>65246.73854651163</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>67564.56424651164</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>125101.6396465116</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>125163.7514465116</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>125163.7514465116</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>123458.3553465116</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>123629.7514465116</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>102157.3722465116</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>102539.3722465116</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>102539.3722465116</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>111979.0866465116</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>111979.0866465116</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>111359.0062465116</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>111600.3578465116</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>111365.6626465116</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>103013.3787465116</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>103684.3128465116</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>103684.3128465116</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>103448.7378465116</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>107373.2172465116</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>100299.6550465116</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>74449.04544651165</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -7315,10 +7315,14 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>157</v>
+      </c>
+      <c r="J210" t="n">
+        <v>157</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
@@ -7348,11 +7352,19 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>156</v>
+      </c>
+      <c r="J211" t="n">
+        <v>157</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7393,19 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>156</v>
+      </c>
+      <c r="J212" t="n">
+        <v>157</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,10 +7434,14 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>156</v>
+      </c>
+      <c r="J213" t="n">
+        <v>156</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
@@ -7447,11 +7471,19 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>156</v>
+      </c>
+      <c r="J214" t="n">
+        <v>156</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7512,19 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>156</v>
+      </c>
+      <c r="J215" t="n">
+        <v>156</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,10 +7553,14 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>155</v>
+      </c>
+      <c r="J216" t="n">
+        <v>155</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
@@ -7546,11 +7590,19 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>155</v>
+      </c>
+      <c r="J217" t="n">
+        <v>155</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7631,19 @@
         <v>-130316.0959534884</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>155</v>
+      </c>
+      <c r="J218" t="n">
+        <v>155</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8055,9 +8115,11 @@
         <v>-139833.0648534884</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>158</v>
+      </c>
       <c r="J230" t="n">
         <v>155</v>
       </c>
@@ -8094,9 +8156,11 @@
         <v>-139834.0648534884</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>155</v>
+      </c>
       <c r="J231" t="n">
         <v>155</v>
       </c>
@@ -8252,11 +8316,9 @@
         <v>-133635.3576534884</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
         <v>155</v>
       </c>

--- a/BackTest/2019-11-01 BackTest ITC.xlsx
+++ b/BackTest/2019-11-01 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M274"/>
+  <dimension ref="A1:L274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1635.2099</v>
       </c>
       <c r="G2" t="n">
-        <v>59380.90394651162</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>111.8647</v>
       </c>
       <c r="G3" t="n">
-        <v>59380.90394651162</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2000.98</v>
       </c>
       <c r="G4" t="n">
-        <v>59380.90394651162</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2505.8875</v>
       </c>
       <c r="G5" t="n">
-        <v>59380.90394651162</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>982.242</v>
       </c>
       <c r="G6" t="n">
-        <v>59380.90394651162</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4934.3195</v>
       </c>
       <c r="G7" t="n">
-        <v>54446.58444651162</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2887.5954</v>
       </c>
       <c r="G8" t="n">
-        <v>51558.98904651163</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1540.343</v>
       </c>
       <c r="G9" t="n">
-        <v>51558.98904651163</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>875.3287</v>
       </c>
       <c r="G10" t="n">
-        <v>51558.98904651163</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1235.9021</v>
       </c>
       <c r="G11" t="n">
-        <v>51558.98904651163</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>11253.6578</v>
       </c>
       <c r="G12" t="n">
-        <v>40305.33124651163</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>3610.7859</v>
       </c>
       <c r="G13" t="n">
-        <v>40305.33124651163</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>6548.2515</v>
       </c>
       <c r="G14" t="n">
-        <v>33757.07974651163</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>506.6479</v>
       </c>
       <c r="G15" t="n">
-        <v>34263.72764651163</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>22036.7969</v>
       </c>
       <c r="G16" t="n">
-        <v>56300.52454651163</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>152.1997</v>
       </c>
       <c r="G17" t="n">
-        <v>56300.52454651163</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>9922.6463</v>
       </c>
       <c r="G18" t="n">
-        <v>66223.17084651164</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2593.9615</v>
       </c>
       <c r="G19" t="n">
-        <v>66223.17084651164</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>12977.145</v>
       </c>
       <c r="G20" t="n">
-        <v>66223.17084651164</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>277.7213</v>
       </c>
       <c r="G21" t="n">
-        <v>65945.44954651163</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3989.4552</v>
       </c>
       <c r="G22" t="n">
-        <v>69934.90474651163</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1206.1029</v>
       </c>
       <c r="G23" t="n">
-        <v>68728.80184651163</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>3277.4192</v>
       </c>
       <c r="G24" t="n">
-        <v>68728.80184651163</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>293.1525</v>
       </c>
       <c r="G25" t="n">
-        <v>69021.95434651163</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>4421.1029</v>
       </c>
       <c r="G26" t="n">
-        <v>69021.95434651163</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>5456.7607</v>
       </c>
       <c r="G27" t="n">
-        <v>69021.95434651163</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2258.5618</v>
       </c>
       <c r="G28" t="n">
-        <v>69021.95434651163</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>89.7055</v>
       </c>
       <c r="G29" t="n">
-        <v>69111.65984651163</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>89.87</v>
       </c>
       <c r="G30" t="n">
-        <v>69021.78984651163</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>5559.1715</v>
       </c>
       <c r="G31" t="n">
-        <v>63462.61834651163</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2462</v>
       </c>
       <c r="G32" t="n">
-        <v>65924.61834651163</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>47</v>
       </c>
       <c r="G33" t="n">
-        <v>65971.61834651163</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>724.8798</v>
       </c>
       <c r="G34" t="n">
-        <v>65246.73854651163</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>690.5803</v>
       </c>
       <c r="G35" t="n">
-        <v>65246.73854651163</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1046.8857</v>
       </c>
       <c r="G36" t="n">
-        <v>64199.85284651163</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>314.4699</v>
       </c>
       <c r="G37" t="n">
-        <v>64199.85284651163</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>309.9437</v>
       </c>
       <c r="G38" t="n">
-        <v>64199.85284651163</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>3111.1103</v>
       </c>
       <c r="G39" t="n">
-        <v>64199.85284651163</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>3364.7114</v>
       </c>
       <c r="G40" t="n">
-        <v>67564.56424651164</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>276</v>
       </c>
       <c r="G41" t="n">
-        <v>67564.56424651164</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>376</v>
       </c>
       <c r="G42" t="n">
-        <v>67564.56424651164</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>57815.3094</v>
       </c>
       <c r="G43" t="n">
-        <v>125379.8736465116</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>278.234</v>
       </c>
       <c r="G44" t="n">
-        <v>125101.6396465116</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>62.1118</v>
       </c>
       <c r="G45" t="n">
-        <v>125163.7514465116</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>4998.1827</v>
       </c>
       <c r="G46" t="n">
-        <v>125163.7514465116</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1705.3961</v>
       </c>
       <c r="G47" t="n">
-        <v>123458.3553465116</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>171.3961</v>
       </c>
       <c r="G48" t="n">
-        <v>123629.7514465116</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>21472.3792</v>
       </c>
       <c r="G49" t="n">
-        <v>102157.3722465116</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>382</v>
       </c>
       <c r="G50" t="n">
-        <v>102539.3722465116</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1321.0275</v>
       </c>
       <c r="G51" t="n">
-        <v>102539.3722465116</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>9439.714400000001</v>
       </c>
       <c r="G52" t="n">
-        <v>111979.0866465116</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1595.0121</v>
       </c>
       <c r="G53" t="n">
-        <v>111979.0866465116</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>620.0804000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>111359.0062465116</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>241.3516</v>
       </c>
       <c r="G55" t="n">
-        <v>111600.3578465116</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>234.6952</v>
       </c>
       <c r="G56" t="n">
-        <v>111365.6626465116</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>8352.2839</v>
       </c>
       <c r="G57" t="n">
-        <v>103013.3787465116</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>670.9340999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>103684.3128465116</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>312.6617</v>
       </c>
       <c r="G59" t="n">
-        <v>103684.3128465116</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>235.575</v>
       </c>
       <c r="G60" t="n">
-        <v>103448.7378465116</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>5868.5332</v>
       </c>
       <c r="G61" t="n">
-        <v>109317.2710465116</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1944.0538</v>
       </c>
       <c r="G62" t="n">
-        <v>107373.2172465116</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>245.0405</v>
       </c>
       <c r="G63" t="n">
-        <v>107618.2577465116</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>7318.6027</v>
       </c>
       <c r="G64" t="n">
-        <v>100299.6550465116</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>11582.3798</v>
       </c>
       <c r="G65" t="n">
-        <v>100299.6550465116</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1604.7562</v>
       </c>
       <c r="G66" t="n">
-        <v>98694.89884651164</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>141.8857</v>
       </c>
       <c r="G67" t="n">
-        <v>98836.78454651164</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>62.1118</v>
       </c>
       <c r="G68" t="n">
-        <v>98836.78454651164</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>25000</v>
       </c>
       <c r="G69" t="n">
-        <v>73836.78454651164</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>11655.7437</v>
       </c>
       <c r="G70" t="n">
-        <v>85492.52824651165</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>216.34</v>
       </c>
       <c r="G71" t="n">
-        <v>85708.86824651164</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>11259.8228</v>
       </c>
       <c r="G72" t="n">
-        <v>74449.04544651165</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>259.13</v>
       </c>
       <c r="G73" t="n">
-        <v>74708.17544651165</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>272.6613</v>
       </c>
       <c r="G74" t="n">
-        <v>74435.51414651165</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>475.47</v>
       </c>
       <c r="G75" t="n">
-        <v>74910.98414651165</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>2470.2679</v>
       </c>
       <c r="G76" t="n">
-        <v>72440.71624651164</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>139.97</v>
       </c>
       <c r="G77" t="n">
-        <v>72580.68624651164</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>434.5204</v>
       </c>
       <c r="G78" t="n">
-        <v>72580.68624651164</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1201.5709</v>
       </c>
       <c r="G79" t="n">
-        <v>73782.25714651165</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>644.091</v>
       </c>
       <c r="G80" t="n">
-        <v>73138.16614651165</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>73138.16614651165</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>5175.3123</v>
       </c>
       <c r="G82" t="n">
-        <v>78313.47844651165</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>270.7438</v>
       </c>
       <c r="G83" t="n">
-        <v>78042.73464651166</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>2280.8887</v>
       </c>
       <c r="G84" t="n">
-        <v>80323.62334651165</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>239.7315</v>
       </c>
       <c r="G85" t="n">
-        <v>80323.62334651165</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>500</v>
       </c>
       <c r="G86" t="n">
-        <v>80323.62334651165</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>750</v>
       </c>
       <c r="G87" t="n">
-        <v>80323.62334651165</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>6020.2954</v>
       </c>
       <c r="G88" t="n">
-        <v>80323.62334651165</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>2201.244</v>
       </c>
       <c r="G89" t="n">
-        <v>80323.62334651165</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1714.981</v>
       </c>
       <c r="G90" t="n">
-        <v>78608.64234651165</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>2193.7615</v>
       </c>
       <c r="G91" t="n">
-        <v>80802.40384651165</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>3036.0413</v>
       </c>
       <c r="G92" t="n">
-        <v>80802.40384651165</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>10.5</v>
       </c>
       <c r="G93" t="n">
-        <v>80802.40384651165</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>14569.0394</v>
       </c>
       <c r="G94" t="n">
-        <v>66233.36444651165</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1103.7081</v>
       </c>
       <c r="G95" t="n">
-        <v>66233.36444651165</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>939</v>
       </c>
       <c r="G96" t="n">
-        <v>66233.36444651165</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>2176.7421</v>
       </c>
       <c r="G97" t="n">
-        <v>66233.36444651165</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>2491.3911</v>
       </c>
       <c r="G98" t="n">
-        <v>66233.36444651165</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>1155.6007</v>
       </c>
       <c r="G99" t="n">
-        <v>65077.76374651165</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>294.1545</v>
       </c>
       <c r="G100" t="n">
-        <v>65077.76374651165</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>710.2397999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>65788.00354651165</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>542.3807</v>
       </c>
       <c r="G102" t="n">
-        <v>65788.00354651165</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>13452.7438</v>
       </c>
       <c r="G103" t="n">
-        <v>52335.25974651166</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>874.5897</v>
       </c>
       <c r="G104" t="n">
-        <v>53209.84944651165</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>17776.8551</v>
       </c>
       <c r="G105" t="n">
-        <v>53209.84944651165</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>4265.4774</v>
       </c>
       <c r="G106" t="n">
-        <v>53209.84944651165</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>53219.84944651165</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>721.6592000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>53219.84944651165</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>433.6845</v>
       </c>
       <c r="G109" t="n">
-        <v>53219.84944651165</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1439.3962</v>
       </c>
       <c r="G110" t="n">
-        <v>51780.45324651165</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>9.6645</v>
       </c>
       <c r="G111" t="n">
-        <v>51790.11774651165</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>145.4668</v>
       </c>
       <c r="G112" t="n">
-        <v>51644.65094651165</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>327.7732</v>
       </c>
       <c r="G113" t="n">
-        <v>51972.42414651165</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>8000</v>
       </c>
       <c r="G114" t="n">
-        <v>43972.42414651165</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>832.6994999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>43972.42414651165</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>3933</v>
       </c>
       <c r="G116" t="n">
-        <v>40039.42414651165</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>7613.4249</v>
       </c>
       <c r="G117" t="n">
-        <v>40039.42414651165</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>276.4439</v>
       </c>
       <c r="G118" t="n">
-        <v>40039.42414651165</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>138.222</v>
       </c>
       <c r="G119" t="n">
-        <v>40039.42414651165</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>93.73950000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>40039.42414651165</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>6194.0341</v>
       </c>
       <c r="G121" t="n">
-        <v>33845.39004651165</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>4480</v>
       </c>
       <c r="G122" t="n">
-        <v>33845.39004651165</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>5282.9002</v>
       </c>
       <c r="G123" t="n">
-        <v>33845.39004651165</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>5028.9776</v>
       </c>
       <c r="G124" t="n">
-        <v>33845.39004651165</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>8225.4828</v>
       </c>
       <c r="G125" t="n">
-        <v>25619.90724651166</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>223.2687</v>
       </c>
       <c r="G126" t="n">
-        <v>25843.17594651166</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>10020</v>
       </c>
       <c r="G127" t="n">
-        <v>15823.17594651166</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>2441.5354</v>
       </c>
       <c r="G128" t="n">
-        <v>18264.71134651166</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>240.9413</v>
       </c>
       <c r="G129" t="n">
-        <v>18023.77004651166</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>253.9226</v>
       </c>
       <c r="G130" t="n">
-        <v>18023.77004651166</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>1512.2397</v>
       </c>
       <c r="G131" t="n">
-        <v>18023.77004651166</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>30</v>
       </c>
       <c r="G132" t="n">
-        <v>18053.77004651166</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1892.0206</v>
       </c>
       <c r="G133" t="n">
-        <v>18053.77004651166</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>801.3933</v>
       </c>
       <c r="G134" t="n">
-        <v>18855.16334651166</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>25305.5054</v>
       </c>
       <c r="G135" t="n">
-        <v>-6450.342053488341</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>267.8727</v>
       </c>
       <c r="G136" t="n">
-        <v>-6182.469353488341</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>1503.4394</v>
       </c>
       <c r="G137" t="n">
-        <v>-6182.469353488341</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>178.8856</v>
       </c>
       <c r="G138" t="n">
-        <v>-6003.583753488341</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>411.1347</v>
       </c>
       <c r="G139" t="n">
-        <v>-6003.583753488341</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>261.98</v>
       </c>
       <c r="G140" t="n">
-        <v>-6265.563753488341</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>11720</v>
       </c>
       <c r="G141" t="n">
-        <v>-17985.56375348834</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>5015.3455</v>
       </c>
       <c r="G142" t="n">
-        <v>-12970.21825348834</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>99.98999999999999</v>
       </c>
       <c r="G143" t="n">
-        <v>-12970.21825348834</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>103</v>
       </c>
       <c r="G144" t="n">
-        <v>-12970.21825348834</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>293.5419</v>
       </c>
       <c r="G145" t="n">
-        <v>-12970.21825348834</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>23045.0766</v>
       </c>
       <c r="G146" t="n">
-        <v>-36015.29485348835</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>1143.2673</v>
       </c>
       <c r="G147" t="n">
-        <v>-36015.29485348835</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>593.6926999999999</v>
       </c>
       <c r="G148" t="n">
-        <v>-36015.29485348835</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>150</v>
       </c>
       <c r="G149" t="n">
-        <v>-36015.29485348835</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>586.7219</v>
       </c>
       <c r="G150" t="n">
-        <v>-35428.57295348835</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>291.2262</v>
       </c>
       <c r="G151" t="n">
-        <v>-35719.79915348835</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>4483.749</v>
       </c>
       <c r="G152" t="n">
-        <v>-35719.79915348835</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>9853.9462</v>
       </c>
       <c r="G153" t="n">
-        <v>-45573.74535348835</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>2257.4322</v>
       </c>
       <c r="G154" t="n">
-        <v>-43316.31315348834</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>62089.8317</v>
       </c>
       <c r="G155" t="n">
-        <v>-105406.1448534883</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>10752.2189</v>
       </c>
       <c r="G156" t="n">
-        <v>-105406.1448534883</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,19 @@
         <v>116.9701</v>
       </c>
       <c r="G157" t="n">
-        <v>-105406.1448534883</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="I157" t="n">
+        <v>153</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5127,21 @@
         <v>304.9278</v>
       </c>
       <c r="G158" t="n">
-        <v>-105406.1448534883</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>153</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5163,21 @@
         <v>2377.5544</v>
       </c>
       <c r="G159" t="n">
-        <v>-107783.6992534883</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>153</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5199,21 @@
         <v>5960</v>
       </c>
       <c r="G160" t="n">
-        <v>-107783.6992534883</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>153</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5235,23 @@
         <v>7219.8052</v>
       </c>
       <c r="G161" t="n">
-        <v>-107783.6992534883</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="I161" t="n">
+        <v>153</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5273,23 @@
         <v>406.1298</v>
       </c>
       <c r="G162" t="n">
-        <v>-107783.6992534883</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="I162" t="n">
+        <v>153</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5311,23 @@
         <v>2443.5236</v>
       </c>
       <c r="G163" t="n">
-        <v>-107783.6992534883</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="I163" t="n">
+        <v>153</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5349,23 @@
         <v>131.5609</v>
       </c>
       <c r="G164" t="n">
-        <v>-107783.6992534883</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="I164" t="n">
+        <v>153</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5387,23 @@
         <v>257.9217</v>
       </c>
       <c r="G165" t="n">
-        <v>-107783.6992534883</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="I165" t="n">
+        <v>153</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5425,23 @@
         <v>205.1892</v>
       </c>
       <c r="G166" t="n">
-        <v>-107783.6992534883</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="I166" t="n">
+        <v>153</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5463,23 @@
         <v>1086.8694</v>
       </c>
       <c r="G167" t="n">
-        <v>-107783.6992534883</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="I167" t="n">
+        <v>153</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5501,23 @@
         <v>233.3358</v>
       </c>
       <c r="G168" t="n">
-        <v>-107783.6992534883</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="I168" t="n">
+        <v>153</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5539,23 @@
         <v>213.1213</v>
       </c>
       <c r="G169" t="n">
-        <v>-107783.6992534883</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="I169" t="n">
+        <v>153</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5577,23 @@
         <v>4500</v>
       </c>
       <c r="G170" t="n">
-        <v>-103283.6992534883</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="I170" t="n">
+        <v>153</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5615,23 @@
         <v>406.1298</v>
       </c>
       <c r="G171" t="n">
-        <v>-103283.6992534883</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="I171" t="n">
+        <v>153</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5653,23 @@
         <v>114.809</v>
       </c>
       <c r="G172" t="n">
-        <v>-103168.8902534883</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="I172" t="n">
+        <v>153</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5691,23 @@
         <v>1167.7225</v>
       </c>
       <c r="G173" t="n">
-        <v>-102001.1677534883</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="I173" t="n">
+        <v>153</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5729,21 @@
         <v>4165.7038</v>
       </c>
       <c r="G174" t="n">
-        <v>-106166.8715534883</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>153</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5765,21 @@
         <v>4704.1493</v>
       </c>
       <c r="G175" t="n">
-        <v>-106166.8715534883</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>153</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5801,21 @@
         <v>2815.8238</v>
       </c>
       <c r="G176" t="n">
-        <v>-108982.6953534883</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>153</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5837,21 @@
         <v>2546.7396</v>
       </c>
       <c r="G177" t="n">
-        <v>-108982.6953534883</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>153</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5873,21 @@
         <v>1963.2843</v>
       </c>
       <c r="G178" t="n">
-        <v>-107019.4110534883</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>153</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5909,21 @@
         <v>1.3</v>
       </c>
       <c r="G179" t="n">
-        <v>-107019.4110534883</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>153</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5945,21 @@
         <v>18</v>
       </c>
       <c r="G180" t="n">
-        <v>-107019.4110534883</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>153</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5981,21 @@
         <v>6024.2207</v>
       </c>
       <c r="G181" t="n">
-        <v>-107019.4110534883</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>153</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6017,21 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>-107018.4110534883</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>153</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6053,21 @@
         <v>266.0709</v>
       </c>
       <c r="G183" t="n">
-        <v>-107284.4819534883</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>153</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6089,21 @@
         <v>119.0522</v>
       </c>
       <c r="G184" t="n">
-        <v>-107284.4819534883</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>153</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6125,21 @@
         <v>60</v>
       </c>
       <c r="G185" t="n">
-        <v>-107224.4819534883</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>153</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6161,21 @@
         <v>1284.705128205128</v>
       </c>
       <c r="G186" t="n">
-        <v>-107224.4819534883</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>153</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6197,23 @@
         <v>508.2651</v>
       </c>
       <c r="G187" t="n">
-        <v>-107732.7470534883</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>156</v>
+      </c>
+      <c r="I187" t="n">
+        <v>153</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6235,23 @@
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>-107731.7470534883</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>155</v>
+      </c>
+      <c r="I188" t="n">
+        <v>153</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6273,23 @@
         <v>279.0614</v>
       </c>
       <c r="G189" t="n">
-        <v>-108010.8084534884</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>156</v>
+      </c>
+      <c r="I189" t="n">
+        <v>153</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6311,21 @@
         <v>8301.693600000001</v>
       </c>
       <c r="G190" t="n">
-        <v>-116312.5020534884</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>153</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6347,23 @@
         <v>3912.2574</v>
       </c>
       <c r="G191" t="n">
-        <v>-116312.5020534884</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="I191" t="n">
+        <v>153</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6385,23 @@
         <v>2847.807</v>
       </c>
       <c r="G192" t="n">
-        <v>-116312.5020534884</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="I192" t="n">
+        <v>153</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6423,23 @@
         <v>1000</v>
       </c>
       <c r="G193" t="n">
-        <v>-116312.5020534884</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="I193" t="n">
+        <v>153</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6461,23 @@
         <v>1975.1665</v>
       </c>
       <c r="G194" t="n">
-        <v>-116312.5020534884</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="I194" t="n">
+        <v>153</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6499,23 @@
         <v>2296.1991</v>
       </c>
       <c r="G195" t="n">
-        <v>-114016.3029534884</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="I195" t="n">
+        <v>153</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6537,23 @@
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>-114015.3029534884</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>157</v>
+      </c>
+      <c r="I196" t="n">
+        <v>153</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6575,21 @@
         <v>264.9159</v>
       </c>
       <c r="G197" t="n">
-        <v>-114280.2188534884</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>153</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6611,21 @@
         <v>212.1266</v>
       </c>
       <c r="G198" t="n">
-        <v>-114280.2188534884</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>153</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6647,21 @@
         <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>-114279.2188534884</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>153</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6683,21 @@
         <v>4287.9369</v>
       </c>
       <c r="G200" t="n">
-        <v>-114279.2188534884</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>153</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6719,21 @@
         <v>4189.6013</v>
       </c>
       <c r="G201" t="n">
-        <v>-118468.8201534884</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>153</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6755,23 @@
         <v>528</v>
       </c>
       <c r="G202" t="n">
-        <v>-118468.8201534884</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>156</v>
+      </c>
+      <c r="I202" t="n">
+        <v>153</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6793,23 @@
         <v>1</v>
       </c>
       <c r="G203" t="n">
-        <v>-118467.8201534884</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>156</v>
+      </c>
+      <c r="I203" t="n">
+        <v>153</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6831,23 @@
         <v>3925.2488</v>
       </c>
       <c r="G204" t="n">
-        <v>-122393.0689534884</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>157</v>
+      </c>
+      <c r="I204" t="n">
+        <v>153</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6869,21 @@
         <v>2298.4854</v>
       </c>
       <c r="G205" t="n">
-        <v>-124691.5543534884</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>153</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6905,21 @@
         <v>265.7523</v>
       </c>
       <c r="G206" t="n">
-        <v>-124425.8020534884</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>153</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6941,21 @@
         <v>150</v>
       </c>
       <c r="G207" t="n">
-        <v>-124425.8020534884</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>153</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6977,21 @@
         <v>251</v>
       </c>
       <c r="G208" t="n">
-        <v>-124425.8020534884</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>153</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +7013,21 @@
         <v>18.1937</v>
       </c>
       <c r="G209" t="n">
-        <v>-124407.6083534884</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>153</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,22 +7049,23 @@
         <v>621.562</v>
       </c>
       <c r="G210" t="n">
-        <v>-125029.1703534884</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="I210" t="n">
-        <v>157</v>
-      </c>
-      <c r="J210" t="n">
-        <v>157</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7349,26 +7087,21 @@
         <v>1122</v>
       </c>
       <c r="G211" t="n">
-        <v>-125029.1703534884</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="n">
-        <v>156</v>
-      </c>
-      <c r="J211" t="n">
-        <v>157</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7390,26 +7123,23 @@
         <v>756</v>
       </c>
       <c r="G212" t="n">
-        <v>-125029.1703534884</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="I212" t="n">
-        <v>156</v>
-      </c>
-      <c r="J212" t="n">
-        <v>157</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7431,22 +7161,21 @@
         <v>252</v>
       </c>
       <c r="G213" t="n">
-        <v>-125029.1703534884</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="n">
-        <v>156</v>
-      </c>
-      <c r="J213" t="n">
-        <v>156</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7468,26 +7197,21 @@
         <v>1607.8269</v>
       </c>
       <c r="G214" t="n">
-        <v>-125029.1703534884</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="n">
-        <v>156</v>
-      </c>
-      <c r="J214" t="n">
-        <v>156</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7509,26 +7233,21 @@
         <v>4360.6079</v>
       </c>
       <c r="G215" t="n">
-        <v>-129389.7782534884</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="n">
-        <v>156</v>
-      </c>
-      <c r="J215" t="n">
-        <v>156</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7550,22 +7269,21 @@
         <v>157.1765</v>
       </c>
       <c r="G216" t="n">
-        <v>-129389.7782534884</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="n">
-        <v>155</v>
-      </c>
-      <c r="J216" t="n">
-        <v>155</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7587,26 +7305,21 @@
         <v>1381.0385</v>
       </c>
       <c r="G217" t="n">
-        <v>-129389.7782534884</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>155</v>
-      </c>
-      <c r="J217" t="n">
-        <v>155</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7628,26 +7341,23 @@
         <v>926.3176999999999</v>
       </c>
       <c r="G218" t="n">
-        <v>-130316.0959534884</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="I218" t="n">
-        <v>155</v>
-      </c>
-      <c r="J218" t="n">
-        <v>155</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7669,22 +7379,21 @@
         <v>2541.3079</v>
       </c>
       <c r="G219" t="n">
-        <v>-130316.0959534884</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="n">
-        <v>154</v>
-      </c>
-      <c r="J219" t="n">
-        <v>154</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7706,26 +7415,21 @@
         <v>4441.7465</v>
       </c>
       <c r="G220" t="n">
-        <v>-134757.8424534884</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="n">
-        <v>154</v>
-      </c>
-      <c r="J220" t="n">
-        <v>154</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7747,26 +7451,21 @@
         <v>438</v>
       </c>
       <c r="G221" t="n">
-        <v>-134319.8424534884</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="n">
         <v>153</v>
       </c>
-      <c r="J221" t="n">
-        <v>154</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7788,22 +7487,21 @@
         <v>90.15479999999999</v>
       </c>
       <c r="G222" t="n">
-        <v>-134319.8424534884</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="n">
-        <v>155</v>
-      </c>
-      <c r="J222" t="n">
-        <v>155</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7825,26 +7523,21 @@
         <v>931</v>
       </c>
       <c r="G223" t="n">
-        <v>-133388.8424534884</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="n">
-        <v>155</v>
-      </c>
-      <c r="J223" t="n">
-        <v>155</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7866,26 +7559,21 @@
         <v>7157.326</v>
       </c>
       <c r="G224" t="n">
-        <v>-140546.1684534884</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="n">
-        <v>156</v>
-      </c>
-      <c r="J224" t="n">
-        <v>155</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7907,26 +7595,21 @@
         <v>2130.6417</v>
       </c>
       <c r="G225" t="n">
-        <v>-140546.1684534884</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="n">
         <v>153</v>
       </c>
-      <c r="J225" t="n">
-        <v>155</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7948,26 +7631,21 @@
         <v>99.15689999999999</v>
       </c>
       <c r="G226" t="n">
-        <v>-140447.0115534884</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="n">
         <v>153</v>
       </c>
-      <c r="J226" t="n">
-        <v>155</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7989,26 +7667,21 @@
         <v>115.2991</v>
       </c>
       <c r="G227" t="n">
-        <v>-140562.3106534884</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="n">
-        <v>156</v>
-      </c>
-      <c r="J227" t="n">
-        <v>155</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8030,26 +7703,21 @@
         <v>146.8456</v>
       </c>
       <c r="G228" t="n">
-        <v>-140562.3106534884</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="n">
-        <v>155</v>
-      </c>
-      <c r="J228" t="n">
-        <v>155</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8071,26 +7739,21 @@
         <v>5230.5958</v>
       </c>
       <c r="G229" t="n">
-        <v>-135331.7148534884</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="n">
-        <v>155</v>
-      </c>
-      <c r="J229" t="n">
-        <v>155</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8112,26 +7775,21 @@
         <v>4501.35</v>
       </c>
       <c r="G230" t="n">
-        <v>-139833.0648534884</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="n">
-        <v>158</v>
-      </c>
-      <c r="J230" t="n">
-        <v>155</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8153,26 +7811,21 @@
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>-139834.0648534884</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="n">
-        <v>155</v>
-      </c>
-      <c r="J231" t="n">
-        <v>155</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8194,26 +7847,21 @@
         <v>4711.6592</v>
       </c>
       <c r="G232" t="n">
-        <v>-135122.4056534884</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="n">
         <v>153</v>
       </c>
-      <c r="J232" t="n">
-        <v>155</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8235,24 +7883,21 @@
         <v>6383.8934</v>
       </c>
       <c r="G233" t="n">
-        <v>-128738.5122534884</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>155</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>153</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8274,24 +7919,21 @@
         <v>5196.8454</v>
       </c>
       <c r="G234" t="n">
-        <v>-133935.3576534884</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>155</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>153</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8313,24 +7955,21 @@
         <v>300</v>
       </c>
       <c r="G235" t="n">
-        <v>-133635.3576534884</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>155</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>153</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8352,24 +7991,21 @@
         <v>5076.3473</v>
       </c>
       <c r="G236" t="n">
-        <v>-128559.0103534884</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>155</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>153</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8391,24 +8027,21 @@
         <v>4581.174</v>
       </c>
       <c r="G237" t="n">
-        <v>-128559.0103534884</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>155</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>153</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8430,24 +8063,21 @@
         <v>2548.9559</v>
       </c>
       <c r="G238" t="n">
-        <v>-128559.0103534884</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>155</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>153</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8469,24 +8099,21 @@
         <v>750</v>
       </c>
       <c r="G239" t="n">
-        <v>-128559.0103534884</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>155</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>153</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8508,24 +8135,21 @@
         <v>2750</v>
       </c>
       <c r="G240" t="n">
-        <v>-131309.0103534884</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>155</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>153</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8547,24 +8171,21 @@
         <v>5245.7585</v>
       </c>
       <c r="G241" t="n">
-        <v>-131309.0103534884</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>155</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>153</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8586,24 +8207,21 @@
         <v>9180.497600000001</v>
       </c>
       <c r="G242" t="n">
-        <v>-131309.0103534884</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>155</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>153</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8625,24 +8243,21 @@
         <v>264.484</v>
       </c>
       <c r="G243" t="n">
-        <v>-131044.5263534884</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>155</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>153</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8664,24 +8279,21 @@
         <v>5712.0734</v>
       </c>
       <c r="G244" t="n">
-        <v>-136756.5997534884</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>155</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>153</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8703,24 +8315,21 @@
         <v>925.5086</v>
       </c>
       <c r="G245" t="n">
-        <v>-136756.5997534884</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>155</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>153</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8742,24 +8351,21 @@
         <v>2901.1257</v>
       </c>
       <c r="G246" t="n">
-        <v>-133855.4740534884</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>155</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>153</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8781,24 +8387,21 @@
         <v>1416.701</v>
       </c>
       <c r="G247" t="n">
-        <v>-133855.4740534884</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>155</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>153</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8820,24 +8423,21 @@
         <v>2582.299</v>
       </c>
       <c r="G248" t="n">
-        <v>-133855.4740534884</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>155</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>153</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8859,24 +8459,21 @@
         <v>3518.2202</v>
       </c>
       <c r="G249" t="n">
-        <v>-130337.2538534884</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>155</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>153</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8898,24 +8495,21 @@
         <v>8906.2271</v>
       </c>
       <c r="G250" t="n">
-        <v>-121431.0267534884</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>155</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>153</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8937,24 +8531,21 @@
         <v>2316.4674</v>
       </c>
       <c r="G251" t="n">
-        <v>-121431.0267534884</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>155</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>153</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8976,24 +8567,21 @@
         <v>3146.4425</v>
       </c>
       <c r="G252" t="n">
-        <v>-118284.5842534884</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>155</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>153</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9015,24 +8603,21 @@
         <v>637.3506</v>
       </c>
       <c r="G253" t="n">
-        <v>-118921.9348534884</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>155</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>153</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9054,24 +8639,21 @@
         <v>5297.4609</v>
       </c>
       <c r="G254" t="n">
-        <v>-124219.3957534884</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>155</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>153</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9093,24 +8675,21 @@
         <v>267.0992</v>
       </c>
       <c r="G255" t="n">
-        <v>-123952.2965534884</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>155</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>153</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9132,24 +8711,21 @@
         <v>929.0683</v>
       </c>
       <c r="G256" t="n">
-        <v>-124881.3648534884</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>155</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="n">
+        <v>153</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9171,24 +8747,21 @@
         <v>5245.7585</v>
       </c>
       <c r="G257" t="n">
-        <v>-130127.1233534884</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>155</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="n">
+        <v>153</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9210,24 +8783,21 @@
         <v>15015.5552</v>
       </c>
       <c r="G258" t="n">
-        <v>-115111.5681534884</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>155</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="n">
+        <v>153</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9249,24 +8819,21 @@
         <v>5382.2038</v>
       </c>
       <c r="G259" t="n">
-        <v>-109729.3643534884</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>155</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="n">
+        <v>153</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9288,24 +8855,21 @@
         <v>1718.2879</v>
       </c>
       <c r="G260" t="n">
-        <v>-111447.6522534884</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>155</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>153</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9327,24 +8891,21 @@
         <v>492.6584</v>
       </c>
       <c r="G261" t="n">
-        <v>-110954.9938534884</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>155</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>153</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9366,24 +8927,21 @@
         <v>13493.9187</v>
       </c>
       <c r="G262" t="n">
-        <v>-110954.9938534884</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>155</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="n">
+        <v>153</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9405,24 +8963,21 @@
         <v>1702.7268</v>
       </c>
       <c r="G263" t="n">
-        <v>-110954.9938534884</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>155</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="n">
+        <v>153</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9444,24 +8999,21 @@
         <v>34823.4902</v>
       </c>
       <c r="G264" t="n">
-        <v>-76131.50365348837</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>155</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="n">
+        <v>153</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9483,24 +9035,21 @@
         <v>3288.903</v>
       </c>
       <c r="G265" t="n">
-        <v>-79420.40665348838</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>155</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="n">
+        <v>153</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9522,24 +9071,21 @@
         <v>1935.3571</v>
       </c>
       <c r="G266" t="n">
-        <v>-81355.76375348837</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>155</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="n">
+        <v>153</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9561,24 +9107,21 @@
         <v>157.9416</v>
       </c>
       <c r="G267" t="n">
-        <v>-81197.82215348836</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>155</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="n">
+        <v>153</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9600,24 +9143,21 @@
         <v>10859.2021</v>
       </c>
       <c r="G268" t="n">
-        <v>-81197.82215348836</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>155</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="n">
+        <v>153</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9639,24 +9179,21 @@
         <v>4140</v>
       </c>
       <c r="G269" t="n">
-        <v>-85337.82215348836</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>155</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="n">
+        <v>153</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9678,24 +9215,21 @@
         <v>1958.6074</v>
       </c>
       <c r="G270" t="n">
-        <v>-85337.82215348836</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>155</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="n">
+        <v>153</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9717,24 +9251,21 @@
         <v>4614.801</v>
       </c>
       <c r="G271" t="n">
-        <v>-85337.82215348836</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>155</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>153</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9756,24 +9287,21 @@
         <v>12743.4587</v>
       </c>
       <c r="G272" t="n">
-        <v>-98081.28085348837</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>155</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="n">
+        <v>153</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9795,24 +9323,21 @@
         <v>8182.8781</v>
       </c>
       <c r="G273" t="n">
-        <v>-98081.28085348837</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>155</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="n">
+        <v>153</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9834,24 +9359,21 @@
         <v>2014.3821</v>
       </c>
       <c r="G274" t="n">
-        <v>-96066.89875348836</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>155</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="n">
+        <v>153</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
